--- a/attck_windows_tech.xlsx
+++ b/attck_windows_tech.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreatHuntingToolBuilding\CheckATTCK\CheckATTCKTools\List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VCS\DetectATTCK\CheckATTCKTools\CheckATTCKTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACF1BE1-3976-4EEF-8BF7-223F1392B8CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="3" r:id="rId1"/>
@@ -876,7 +877,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1244,150 +1245,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1400,6 +1257,150 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1715,13 +1716,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22:F23"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1756,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="96" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="68" t="s">
@@ -1769,9 +1770,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6 16384:16384" s="126" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6 16384:16384" s="78" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
-      <c r="B3" s="77"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="68" t="s">
         <v>36</v>
       </c>
@@ -1780,15 +1781,15 @@
       <c r="F3" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="XFD3" s="127" t="s">
+      <c r="XFD3" s="79" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:6 16384:16384" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76">
+      <c r="A4" s="96">
         <v>2</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="96" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="70" t="s">
@@ -1803,8 +1804,8 @@
       </c>
     </row>
     <row r="5" spans="1:6 16384:16384" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="70" t="s">
         <v>222</v>
       </c>
@@ -1833,7 +1834,7 @@
     <row r="7" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="85"/>
       <c r="B7" s="85"/>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="81" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -1847,7 +1848,7 @@
     <row r="8" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="85"/>
       <c r="B8" s="85"/>
-      <c r="C8" s="80"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="71" t="s">
         <v>56</v>
       </c>
@@ -1859,7 +1860,7 @@
     <row r="9" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="85"/>
       <c r="B9" s="85"/>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="81" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="71" t="s">
@@ -1873,7 +1874,7 @@
     <row r="10" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="85"/>
       <c r="B10" s="85"/>
-      <c r="C10" s="79"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="6" t="s">
         <v>225</v>
       </c>
@@ -1885,7 +1886,7 @@
     <row r="11" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="85"/>
       <c r="B11" s="85"/>
-      <c r="C11" s="79"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="6" t="s">
         <v>226</v>
       </c>
@@ -1897,7 +1898,7 @@
     <row r="12" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="85"/>
       <c r="B12" s="85"/>
-      <c r="C12" s="79"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="6" t="s">
         <v>228</v>
       </c>
@@ -1909,7 +1910,7 @@
     <row r="13" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="85"/>
       <c r="B13" s="85"/>
-      <c r="C13" s="80"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="6" t="s">
         <v>62</v>
       </c>
@@ -1933,7 +1934,7 @@
     <row r="15" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="85"/>
       <c r="B15" s="85"/>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="81" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1947,7 +1948,7 @@
     <row r="16" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="85"/>
       <c r="B16" s="85"/>
-      <c r="C16" s="79"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="6" t="s">
         <v>232</v>
       </c>
@@ -1959,7 +1960,7 @@
     <row r="17" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="85"/>
       <c r="B17" s="85"/>
-      <c r="C17" s="80"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="6" t="s">
         <v>234</v>
       </c>
@@ -2025,7 +2026,7 @@
     <row r="22" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="85"/>
       <c r="B22" s="85"/>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="81" t="s">
         <v>240</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -2039,7 +2040,7 @@
     <row r="23" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="85"/>
       <c r="B23" s="85"/>
-      <c r="C23" s="80"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="6" t="s">
         <v>243</v>
       </c>
@@ -2056,7 +2057,7 @@
       <c r="E24" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="F24" s="128" t="s">
+      <c r="F24" s="80" t="s">
         <v>260</v>
       </c>
     </row>
@@ -2067,31 +2068,31 @@
       <c r="B25" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="91" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="46" t="s">
         <v>244</v>
       </c>
       <c r="E25" s="61"/>
-      <c r="F25" s="91" t="s">
+      <c r="F25" s="94" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="90"/>
       <c r="B26" s="90"/>
-      <c r="C26" s="82"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="46" t="s">
         <v>246</v>
       </c>
       <c r="E26" s="62"/>
-      <c r="F26" s="92"/>
+      <c r="F26" s="95"/>
     </row>
     <row r="27" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="90"/>
       <c r="B27" s="90"/>
-      <c r="C27" s="83"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="46" t="s">
         <v>247</v>
       </c>
@@ -2103,48 +2104,48 @@
     <row r="28" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="90"/>
       <c r="B28" s="90"/>
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="91" t="s">
         <v>249</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>250</v>
       </c>
       <c r="E28" s="61"/>
-      <c r="F28" s="91" t="s">
+      <c r="F28" s="94" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="90"/>
       <c r="B29" s="90"/>
-      <c r="C29" s="82"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="E29" s="124"/>
-      <c r="F29" s="92"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="95"/>
     </row>
     <row r="30" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="90"/>
       <c r="B30" s="90"/>
-      <c r="C30" s="82"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="E30" s="125"/>
-      <c r="F30" s="91" t="s">
+      <c r="E30" s="77"/>
+      <c r="F30" s="94" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="90"/>
       <c r="B31" s="90"/>
-      <c r="C31" s="83"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="E31" s="124"/>
-      <c r="F31" s="92"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="95"/>
     </row>
     <row r="32" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
@@ -2407,6 +2408,13 @@
     <row r="83" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C28:C31"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B6:B24"/>
@@ -2414,16 +2422,9 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F25:F26"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C28:C31"/>
     <mergeCell ref="C22:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2432,8 +2433,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:XFC162"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
@@ -2469,53 +2470,53 @@
       <c r="E1" s="87"/>
     </row>
     <row r="2" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76">
+      <c r="A2" s="96">
         <v>1</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="112" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="114" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="108"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="120"/>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="102"/>
+      <c r="E3" s="115"/>
     </row>
     <row r="4" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="102"/>
+      <c r="E4" s="115"/>
     </row>
     <row r="5" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="109"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="103"/>
+      <c r="E5" s="116"/>
     </row>
     <row r="6" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="107" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2526,9 +2527,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="109"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2537,8 +2538,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="37" t="s">
         <v>27</v>
       </c>
@@ -2548,8 +2549,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="110"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="37" t="s">
         <v>31</v>
       </c>
@@ -2559,8 +2560,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="110"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="37" t="s">
         <v>32</v>
       </c>
@@ -2570,8 +2571,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="110"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="37" t="s">
         <v>34</v>
       </c>
@@ -2581,10 +2582,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76">
+      <c r="A12" s="96">
         <v>2</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -2598,48 +2599,48 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="104" t="s">
+      <c r="A13" s="111"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="117" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="114" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="105"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="102"/>
+      <c r="E14" s="115"/>
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="105"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="102"/>
+      <c r="E15" s="115"/>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="106"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="103"/>
+      <c r="E16" s="116"/>
     </row>
     <row r="17" spans="1:5" s="41" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="39" t="s">
         <v>46</v>
       </c>
@@ -2690,7 +2691,7 @@
     <row r="21" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="85"/>
       <c r="B21" s="85"/>
-      <c r="C21" s="79"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="16" t="s">
         <v>57</v>
       </c>
@@ -2701,7 +2702,7 @@
     <row r="22" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="85"/>
       <c r="B22" s="85"/>
-      <c r="C22" s="80"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
@@ -2712,7 +2713,7 @@
     <row r="23" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="85"/>
       <c r="B23" s="85"/>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="81" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2725,7 +2726,7 @@
     <row r="24" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="85"/>
       <c r="B24" s="85"/>
-      <c r="C24" s="80"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
@@ -2736,44 +2737,44 @@
     <row r="25" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="85"/>
       <c r="B25" s="85"/>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="81" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E25" s="127" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="85"/>
       <c r="B26" s="85"/>
-      <c r="C26" s="79"/>
+      <c r="C26" s="83"/>
       <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="100"/>
+      <c r="E26" s="128"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="85"/>
       <c r="B27" s="85"/>
-      <c r="C27" s="79"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="99" t="s">
+      <c r="E27" s="127" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="85"/>
       <c r="B28" s="85"/>
-      <c r="C28" s="80"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="100"/>
+      <c r="E28" s="128"/>
     </row>
     <row r="29" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="85"/>
@@ -2800,7 +2801,7 @@
     <row r="31" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="85"/>
       <c r="B31" s="85"/>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -2813,7 +2814,7 @@
     <row r="32" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="85"/>
       <c r="B32" s="85"/>
-      <c r="C32" s="79"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="6" t="s">
         <v>83</v>
       </c>
@@ -2824,7 +2825,7 @@
     <row r="33" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="85"/>
       <c r="B33" s="85"/>
-      <c r="C33" s="79"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="6" t="s">
         <v>85</v>
       </c>
@@ -2835,7 +2836,7 @@
     <row r="34" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="85"/>
       <c r="B34" s="85"/>
-      <c r="C34" s="80"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="6" t="s">
         <v>87</v>
       </c>
@@ -2879,10 +2880,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="96">
+      <c r="A38" s="124">
         <v>4</v>
       </c>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="124" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -2896,9 +2897,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="97"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="81" t="s">
+      <c r="A39" s="125"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -2909,9 +2910,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="97"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="82"/>
+      <c r="A40" s="125"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="42" t="s">
         <v>101</v>
       </c>
@@ -2920,9 +2921,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="97"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="83"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="42" t="s">
         <v>103</v>
       </c>
@@ -2931,8 +2932,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="97"/>
-      <c r="B42" s="97"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="20" t="s">
         <v>105</v>
       </c>
@@ -2942,9 +2943,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="97"/>
-      <c r="B43" s="97"/>
-      <c r="C43" s="93" t="s">
+      <c r="A43" s="125"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="121" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -2955,9 +2956,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="97"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="95"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="123"/>
       <c r="D44" s="30" t="s">
         <v>110</v>
       </c>
@@ -2966,9 +2967,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="97"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="93" t="s">
+      <c r="A45" s="125"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="121" t="s">
         <v>112</v>
       </c>
       <c r="D45" s="30" t="s">
@@ -2979,9 +2980,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="97"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="94"/>
+      <c r="A46" s="125"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="122"/>
       <c r="D46" s="30" t="s">
         <v>116</v>
       </c>
@@ -2990,9 +2991,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="97"/>
-      <c r="B47" s="97"/>
-      <c r="C47" s="94"/>
+      <c r="A47" s="125"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="122"/>
       <c r="D47" s="30" t="s">
         <v>118</v>
       </c>
@@ -3001,9 +3002,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="97"/>
-      <c r="B48" s="97"/>
-      <c r="C48" s="95"/>
+      <c r="A48" s="125"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="123"/>
       <c r="D48" s="30" t="s">
         <v>120</v>
       </c>
@@ -3012,9 +3013,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="97"/>
-      <c r="B49" s="97"/>
-      <c r="C49" s="93" t="s">
+      <c r="A49" s="125"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="121" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -3025,9 +3026,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="97"/>
-      <c r="B50" s="97"/>
-      <c r="C50" s="95"/>
+      <c r="A50" s="125"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="123"/>
       <c r="D50" s="46" t="s">
         <v>124</v>
       </c>
@@ -3036,8 +3037,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="97"/>
-      <c r="B51" s="97"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="125"/>
       <c r="C51" s="48" t="s">
         <v>126</v>
       </c>
@@ -3047,9 +3048,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="97"/>
-      <c r="B52" s="97"/>
-      <c r="C52" s="93" t="s">
+      <c r="A52" s="125"/>
+      <c r="B52" s="125"/>
+      <c r="C52" s="121" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -3060,9 +3061,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="97"/>
-      <c r="B53" s="97"/>
-      <c r="C53" s="94"/>
+      <c r="A53" s="125"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="122"/>
       <c r="D53" s="30" t="s">
         <v>130</v>
       </c>
@@ -3071,9 +3072,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="97"/>
-      <c r="B54" s="97"/>
-      <c r="C54" s="94"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="122"/>
       <c r="D54" s="30" t="s">
         <v>132</v>
       </c>
@@ -3082,9 +3083,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="97"/>
-      <c r="B55" s="97"/>
-      <c r="C55" s="94"/>
+      <c r="A55" s="125"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="122"/>
       <c r="D55" s="30" t="s">
         <v>134</v>
       </c>
@@ -3093,9 +3094,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="97"/>
-      <c r="B56" s="97"/>
-      <c r="C56" s="94"/>
+      <c r="A56" s="125"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="122"/>
       <c r="D56" s="30" t="s">
         <v>136</v>
       </c>
@@ -3104,9 +3105,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="97"/>
-      <c r="B57" s="97"/>
-      <c r="C57" s="95"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="123"/>
       <c r="D57" s="30" t="s">
         <v>138</v>
       </c>
@@ -3115,8 +3116,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="97"/>
-      <c r="B58" s="97"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="125"/>
       <c r="C58" s="48" t="s">
         <v>140</v>
       </c>
@@ -3126,8 +3127,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="97"/>
-      <c r="B59" s="97"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="125"/>
       <c r="C59" s="47" t="s">
         <v>142</v>
       </c>
@@ -3137,8 +3138,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="98"/>
-      <c r="B60" s="98"/>
+      <c r="A60" s="126"/>
+      <c r="B60" s="126"/>
       <c r="C60" s="48" t="s">
         <v>144</v>
       </c>
@@ -3148,10 +3149,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="117">
+      <c r="A61" s="109">
         <v>6</v>
       </c>
-      <c r="B61" s="117" t="s">
+      <c r="B61" s="109" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="26" t="s">
@@ -3163,8 +3164,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="118"/>
-      <c r="B62" s="118"/>
+      <c r="A62" s="110"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="26" t="s">
         <v>148</v>
       </c>
@@ -3174,8 +3175,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="118"/>
-      <c r="B63" s="118"/>
+      <c r="A63" s="110"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="26" t="s">
         <v>150</v>
       </c>
@@ -3187,8 +3188,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="118"/>
-      <c r="B64" s="118"/>
+      <c r="A64" s="110"/>
+      <c r="B64" s="110"/>
       <c r="C64" s="26" t="s">
         <v>154</v>
       </c>
@@ -3198,10 +3199,10 @@
       </c>
     </row>
     <row r="65" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="114">
+      <c r="A65" s="105">
         <v>7</v>
       </c>
-      <c r="B65" s="114" t="s">
+      <c r="B65" s="105" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="21" t="s">
@@ -3213,8 +3214,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="115"/>
-      <c r="B66" s="115"/>
+      <c r="A66" s="106"/>
+      <c r="B66" s="106"/>
       <c r="C66" s="21" t="s">
         <v>157</v>
       </c>
@@ -3224,8 +3225,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="115"/>
-      <c r="B67" s="115"/>
+      <c r="A67" s="106"/>
+      <c r="B67" s="106"/>
       <c r="C67" s="21" t="s">
         <v>159</v>
       </c>
@@ -3235,8 +3236,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="115"/>
-      <c r="B68" s="115"/>
+      <c r="A68" s="106"/>
+      <c r="B68" s="106"/>
       <c r="C68" s="21" t="s">
         <v>161</v>
       </c>
@@ -3246,8 +3247,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="115"/>
-      <c r="B69" s="115"/>
+      <c r="A69" s="106"/>
+      <c r="B69" s="106"/>
       <c r="C69" s="21" t="s">
         <v>162</v>
       </c>
@@ -3259,8 +3260,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="115"/>
-      <c r="B70" s="115"/>
+      <c r="A70" s="106"/>
+      <c r="B70" s="106"/>
       <c r="C70" s="21" t="s">
         <v>165</v>
       </c>
@@ -3270,46 +3271,46 @@
       </c>
     </row>
     <row r="71" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="115"/>
-      <c r="B71" s="115"/>
+      <c r="A71" s="106"/>
+      <c r="B71" s="106"/>
       <c r="C71" s="21" t="s">
         <v>166</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="111" t="s">
+      <c r="E71" s="101" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="115"/>
-      <c r="B72" s="115"/>
+      <c r="A72" s="106"/>
+      <c r="B72" s="106"/>
       <c r="C72" s="21" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="22"/>
-      <c r="E72" s="112"/>
+      <c r="E72" s="108"/>
     </row>
     <row r="73" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="115"/>
-      <c r="B73" s="115"/>
+      <c r="A73" s="106"/>
+      <c r="B73" s="106"/>
       <c r="C73" s="21" t="s">
         <v>169</v>
       </c>
       <c r="D73" s="22"/>
-      <c r="E73" s="112"/>
+      <c r="E73" s="108"/>
     </row>
     <row r="74" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="115"/>
-      <c r="B74" s="115"/>
+      <c r="A74" s="106"/>
+      <c r="B74" s="106"/>
       <c r="C74" s="21" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="22"/>
-      <c r="E74" s="113"/>
+      <c r="E74" s="102"/>
     </row>
     <row r="75" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="115"/>
-      <c r="B75" s="115"/>
+      <c r="A75" s="106"/>
+      <c r="B75" s="106"/>
       <c r="C75" s="21" t="s">
         <v>171</v>
       </c>
@@ -3319,30 +3320,30 @@
       </c>
     </row>
     <row r="76" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="115"/>
-      <c r="B76" s="115"/>
+      <c r="A76" s="106"/>
+      <c r="B76" s="106"/>
       <c r="C76" s="21" t="s">
         <v>173</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="111" t="s">
+      <c r="E76" s="101" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="116"/>
-      <c r="B77" s="116"/>
+      <c r="A77" s="107"/>
+      <c r="B77" s="107"/>
       <c r="C77" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D77" s="22"/>
-      <c r="E77" s="113"/>
+      <c r="E77" s="102"/>
     </row>
     <row r="78" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="114">
+      <c r="A78" s="105">
         <v>8</v>
       </c>
-      <c r="B78" s="114" t="s">
+      <c r="B78" s="105" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="21" t="s">
@@ -3354,8 +3355,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="115"/>
-      <c r="B79" s="115"/>
+      <c r="A79" s="106"/>
+      <c r="B79" s="106"/>
       <c r="C79" s="55" t="s">
         <v>178</v>
       </c>
@@ -3365,28 +3366,28 @@
       </c>
     </row>
     <row r="80" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="115"/>
-      <c r="B80" s="115"/>
+      <c r="A80" s="106"/>
+      <c r="B80" s="106"/>
       <c r="C80" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="22"/>
-      <c r="E80" s="111" t="s">
+      <c r="E80" s="101" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="115"/>
-      <c r="B81" s="115"/>
+      <c r="A81" s="106"/>
+      <c r="B81" s="106"/>
       <c r="C81" s="21" t="s">
         <v>181</v>
       </c>
       <c r="D81" s="22"/>
-      <c r="E81" s="113"/>
+      <c r="E81" s="102"/>
     </row>
     <row r="82" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="115"/>
-      <c r="B82" s="115"/>
+      <c r="A82" s="106"/>
+      <c r="B82" s="106"/>
       <c r="C82" s="21" t="s">
         <v>183</v>
       </c>
@@ -3396,8 +3397,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="115"/>
-      <c r="B83" s="115"/>
+      <c r="A83" s="106"/>
+      <c r="B83" s="106"/>
       <c r="C83" s="21" t="s">
         <v>185</v>
       </c>
@@ -3407,8 +3408,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="115"/>
-      <c r="B84" s="115"/>
+      <c r="A84" s="106"/>
+      <c r="B84" s="106"/>
       <c r="C84" s="21" t="s">
         <v>187</v>
       </c>
@@ -3418,8 +3419,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="115"/>
-      <c r="B85" s="115"/>
+      <c r="A85" s="106"/>
+      <c r="B85" s="106"/>
       <c r="C85" s="21" t="s">
         <v>189</v>
       </c>
@@ -3429,48 +3430,48 @@
       </c>
     </row>
     <row r="86" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="115"/>
-      <c r="B86" s="115"/>
+      <c r="A86" s="106"/>
+      <c r="B86" s="106"/>
       <c r="C86" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D86" s="22"/>
-      <c r="E86" s="111" t="s">
+      <c r="E86" s="101" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="115"/>
-      <c r="B87" s="115"/>
+      <c r="A87" s="106"/>
+      <c r="B87" s="106"/>
       <c r="C87" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D87" s="22"/>
-      <c r="E87" s="113"/>
+      <c r="E87" s="102"/>
     </row>
     <row r="88" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="115"/>
-      <c r="B88" s="115"/>
+      <c r="A88" s="106"/>
+      <c r="B88" s="106"/>
       <c r="C88" s="21" t="s">
         <v>194</v>
       </c>
       <c r="D88" s="22"/>
-      <c r="E88" s="122" t="s">
+      <c r="E88" s="103" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="115"/>
-      <c r="B89" s="115"/>
+      <c r="A89" s="106"/>
+      <c r="B89" s="106"/>
       <c r="C89" s="21" t="s">
         <v>196</v>
       </c>
       <c r="D89" s="22"/>
-      <c r="E89" s="123"/>
+      <c r="E89" s="104"/>
     </row>
     <row r="90" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="115"/>
-      <c r="B90" s="115"/>
+      <c r="A90" s="106"/>
+      <c r="B90" s="106"/>
       <c r="C90" s="21" t="s">
         <v>197</v>
       </c>
@@ -3480,8 +3481,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="115"/>
-      <c r="B91" s="115"/>
+      <c r="A91" s="106"/>
+      <c r="B91" s="106"/>
       <c r="C91" s="21" t="s">
         <v>199</v>
       </c>
@@ -3491,8 +3492,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="116"/>
-      <c r="B92" s="116"/>
+      <c r="A92" s="107"/>
+      <c r="B92" s="107"/>
       <c r="C92" s="21" t="s">
         <v>201</v>
       </c>
@@ -3502,10 +3503,10 @@
       </c>
     </row>
     <row r="93" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="119">
+      <c r="A93" s="98">
         <v>9</v>
       </c>
-      <c r="B93" s="119" t="s">
+      <c r="B93" s="98" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -3517,8 +3518,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="120"/>
-      <c r="B94" s="120"/>
+      <c r="A94" s="99"/>
+      <c r="B94" s="99"/>
       <c r="C94" s="13" t="s">
         <v>204</v>
       </c>
@@ -3528,8 +3529,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="120"/>
-      <c r="B95" s="120"/>
+      <c r="A95" s="99"/>
+      <c r="B95" s="99"/>
       <c r="C95" s="13" t="s">
         <v>205</v>
       </c>
@@ -3539,8 +3540,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="120"/>
-      <c r="B96" s="120"/>
+      <c r="A96" s="99"/>
+      <c r="B96" s="99"/>
       <c r="C96" s="56" t="s">
         <v>206</v>
       </c>
@@ -3550,8 +3551,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="120"/>
-      <c r="B97" s="120"/>
+      <c r="A97" s="99"/>
+      <c r="B97" s="99"/>
       <c r="C97" s="56" t="s">
         <v>211</v>
       </c>
@@ -3563,8 +3564,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="120"/>
-      <c r="B98" s="120"/>
+      <c r="A98" s="99"/>
+      <c r="B98" s="99"/>
       <c r="C98" s="56" t="s">
         <v>214</v>
       </c>
@@ -3574,8 +3575,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="121"/>
-      <c r="B99" s="121"/>
+      <c r="A99" s="100"/>
+      <c r="B99" s="100"/>
       <c r="C99" s="13" t="s">
         <v>216</v>
       </c>
@@ -3789,31 +3790,6 @@
     <row r="162" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B78:B92"/>
-    <mergeCell ref="A78:A92"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="B38:B60"/>
     <mergeCell ref="A38:A60"/>
@@ -3827,6 +3803,31 @@
     <mergeCell ref="A18:A37"/>
     <mergeCell ref="B18:B37"/>
     <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B78:B92"/>
+    <mergeCell ref="A78:A92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/attck_windows_tech.xlsx
+++ b/attck_windows_tech.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VCS\DetectATTCK\CheckATTCKTools\CheckATTCKTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreatHuntingToolBuilding\CheckATTCK\CheckATTCKTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACF1BE1-3976-4EEF-8BF7-223F1392B8CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="20280" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="274">
   <si>
     <t>ID</t>
   </si>
@@ -859,9 +858,6 @@
     <t xml:space="preserve">check theo event ID 1100 </t>
   </si>
   <si>
-    <t xml:space="preserve">check theo event ID 4670 </t>
-  </si>
-  <si>
     <t>check log registry modified theo event id 4657</t>
   </si>
   <si>
@@ -872,12 +868,21 @@
   </si>
   <si>
     <t>Nhúng script bên trong XSL file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check WMI log (Không có log nếu ko enable logging tại HKEY_LOCAL_MACHINE\SOFTWARE\Microsoft\WBEM\CIMOM /v Logging) </t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/windows/win32/wmisdk/logging-wmi-activity</t>
+  </si>
+  <si>
+    <t>check theo event ID 4670  (Default không enable audit object thì sẽ không có event log và nếu enable thì phải enable cho từng file)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -960,7 +965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,7 +1035,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1188,13 +1193,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1251,156 +1250,180 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1716,13 +1739,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1746,135 +1769,137 @@
       <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:6 16384:16384" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="66" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>218</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="67" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6 16384:16384" s="78" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="68" t="s">
+    <row r="3" spans="1:6 16384:16384" s="130" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="125"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="69" t="s">
-        <v>260</v>
-      </c>
-      <c r="XFD3" s="79" t="s">
+      <c r="D3" s="127"/>
+      <c r="E3" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="128" t="s">
+        <v>271</v>
+      </c>
+      <c r="XFD3" s="129" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:6 16384:16384" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>220</v>
       </c>
       <c r="E4" s="34"/>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="67" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:6 16384:16384" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="70" t="s">
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="68" t="s">
         <v>222</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="67" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:6 16384:16384" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84">
+    <row r="6" spans="1:6 16384:16384" s="134" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="86">
         <v>3</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72" t="s">
-        <v>267</v>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="81" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="83" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="71"/>
+      <c r="E7" s="69"/>
       <c r="F7" s="31" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="71" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72" t="s">
+      <c r="E8" s="69"/>
+      <c r="F8" s="70" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="81" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72" t="s">
+      <c r="E9" s="69"/>
+      <c r="F9" s="70" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="83"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="6" t="s">
         <v>225</v>
       </c>
@@ -1884,9 +1909,9 @@
       </c>
     </row>
     <row r="11" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="83"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="6" t="s">
         <v>226</v>
       </c>
@@ -1896,9 +1921,9 @@
       </c>
     </row>
     <row r="12" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="83"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="6" t="s">
         <v>228</v>
       </c>
@@ -1908,9 +1933,9 @@
       </c>
     </row>
     <row r="13" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="82"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="6" t="s">
         <v>62</v>
       </c>
@@ -1920,9 +1945,9 @@
       </c>
     </row>
     <row r="14" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="60" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="58" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="6"/>
@@ -1932,9 +1957,9 @@
       </c>
     </row>
     <row r="15" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="81" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="83" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1946,9 +1971,9 @@
       </c>
     </row>
     <row r="16" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="83"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="6" t="s">
         <v>232</v>
       </c>
@@ -1958,9 +1983,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="6" t="s">
         <v>234</v>
       </c>
@@ -1970,8 +1995,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="50" t="s">
         <v>9</v>
       </c>
@@ -1984,34 +2009,34 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="58" t="s">
+      <c r="A19" s="87"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="57" t="s">
         <v>75</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="58" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="57" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="21" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="7" t="s">
         <v>10</v>
       </c>
@@ -2024,128 +2049,128 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="81" t="s">
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="83" t="s">
         <v>240</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="88" t="s">
+      <c r="E22" s="61"/>
+      <c r="F22" s="90" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="82"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="89"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="91"/>
     </row>
     <row r="24" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="60" t="s">
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="58" t="s">
         <v>94</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="F24" s="80" t="s">
+      <c r="E24" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" s="76" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="90">
+      <c r="A25" s="77">
         <v>4</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="91" t="s">
+      <c r="C25" s="78" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="94" t="s">
+      <c r="E25" s="59"/>
+      <c r="F25" s="81" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="92"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="95"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="82"/>
     </row>
     <row r="27" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="93"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="80"/>
       <c r="D27" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74" t="s">
+      <c r="E27" s="71"/>
+      <c r="F27" s="72" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="91" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78" t="s">
         <v>249</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="94" t="s">
+      <c r="E28" s="59"/>
+      <c r="F28" s="81" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="92"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="95"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="82"/>
     </row>
     <row r="30" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="92"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="94" t="s">
+      <c r="E30" s="75"/>
+      <c r="F30" s="81" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="93"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="80"/>
       <c r="D31" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="E31" s="76"/>
-      <c r="F31" s="95"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="82"/>
     </row>
     <row r="32" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
@@ -2168,7 +2193,7 @@
       <c r="B33" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="73" t="s">
         <v>257</v>
       </c>
       <c r="D33" s="34"/>
@@ -2408,13 +2433,6 @@
     <row r="83" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C28:C31"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B6:B24"/>
@@ -2426,6 +2444,13 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2433,7 +2458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC162"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2464,59 +2489,59 @@
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="87"/>
+      <c r="E1" s="89"/>
     </row>
     <row r="2" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96">
+      <c r="A2" s="92">
         <v>1</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="108" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="114" t="s">
+      <c r="E2" s="102" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="111"/>
       <c r="B3" s="111"/>
-      <c r="C3" s="120"/>
+      <c r="C3" s="109"/>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="115"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="111"/>
       <c r="B4" s="111"/>
-      <c r="C4" s="120"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="115"/>
+      <c r="E4" s="103"/>
     </row>
     <row r="5" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="111"/>
       <c r="B5" s="111"/>
-      <c r="C5" s="113"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="116"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="111"/>
       <c r="B6" s="111"/>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="108" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2529,7 +2554,7 @@
     <row r="7" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="111"/>
       <c r="B7" s="111"/>
-      <c r="C7" s="113"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2582,10 +2607,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96">
+      <c r="A12" s="92">
         <v>2</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -2601,46 +2626,46 @@
     <row r="13" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111"/>
       <c r="B13" s="111"/>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="105" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="114" t="s">
+      <c r="E13" s="102" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="111"/>
       <c r="B14" s="111"/>
-      <c r="C14" s="118"/>
+      <c r="C14" s="106"/>
       <c r="D14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="115"/>
+      <c r="E14" s="103"/>
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="111"/>
       <c r="B15" s="111"/>
-      <c r="C15" s="118"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="115"/>
+      <c r="E15" s="103"/>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="111"/>
       <c r="B16" s="111"/>
-      <c r="C16" s="119"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="116"/>
+      <c r="E16" s="104"/>
     </row>
     <row r="17" spans="1:5" s="41" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="97"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="39" t="s">
         <v>46</v>
       </c>
@@ -2650,10 +2675,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="86">
         <v>3</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -2665,8 +2690,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -2676,8 +2701,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
-      <c r="B20" s="85"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
@@ -2689,9 +2714,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="83"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="16" t="s">
         <v>57</v>
       </c>
@@ -2700,9 +2725,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="82"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="84"/>
       <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
@@ -2711,9 +2736,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="81" t="s">
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="83" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2724,9 +2749,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="82"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
@@ -2735,50 +2760,50 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="81" t="s">
+      <c r="A25" s="87"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="83" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="127" t="s">
+      <c r="E25" s="100" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="83"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="128"/>
+      <c r="E26" s="101"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="83"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="127" t="s">
+      <c r="E27" s="100" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="128"/>
+      <c r="E28" s="101"/>
     </row>
     <row r="29" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="7" t="s">
         <v>76</v>
       </c>
@@ -2788,8 +2813,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="36" t="s">
         <v>79</v>
       </c>
@@ -2799,9 +2824,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="81" t="s">
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -2812,9 +2837,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="83"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="6" t="s">
         <v>83</v>
       </c>
@@ -2823,9 +2848,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="83"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="6" t="s">
         <v>85</v>
       </c>
@@ -2834,9 +2859,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="82"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="6" t="s">
         <v>87</v>
       </c>
@@ -2845,8 +2870,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="7" t="s">
         <v>89</v>
       </c>
@@ -2856,8 +2881,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="7" t="s">
         <v>91</v>
       </c>
@@ -2869,8 +2894,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="36" t="s">
         <v>94</v>
       </c>
@@ -2880,10 +2905,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="124">
+      <c r="A38" s="97">
         <v>4</v>
       </c>
-      <c r="B38" s="124" t="s">
+      <c r="B38" s="97" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -2897,9 +2922,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="125"/>
-      <c r="B39" s="125"/>
-      <c r="C39" s="91" t="s">
+      <c r="A39" s="98"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="78" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -2910,9 +2935,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="125"/>
-      <c r="B40" s="125"/>
-      <c r="C40" s="92"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="42" t="s">
         <v>101</v>
       </c>
@@ -2921,9 +2946,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="125"/>
-      <c r="B41" s="125"/>
-      <c r="C41" s="93"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="80"/>
       <c r="D41" s="42" t="s">
         <v>103</v>
       </c>
@@ -2932,8 +2957,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="125"/>
-      <c r="B42" s="125"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="20" t="s">
         <v>105</v>
       </c>
@@ -2943,9 +2968,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="125"/>
-      <c r="B43" s="125"/>
-      <c r="C43" s="121" t="s">
+      <c r="A43" s="98"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="94" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -2956,9 +2981,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="125"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="123"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="96"/>
       <c r="D44" s="30" t="s">
         <v>110</v>
       </c>
@@ -2967,9 +2992,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="125"/>
-      <c r="B45" s="125"/>
-      <c r="C45" s="121" t="s">
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="94" t="s">
         <v>112</v>
       </c>
       <c r="D45" s="30" t="s">
@@ -2980,9 +3005,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="125"/>
-      <c r="B46" s="125"/>
-      <c r="C46" s="122"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="95"/>
       <c r="D46" s="30" t="s">
         <v>116</v>
       </c>
@@ -2991,9 +3016,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="125"/>
-      <c r="B47" s="125"/>
-      <c r="C47" s="122"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="95"/>
       <c r="D47" s="30" t="s">
         <v>118</v>
       </c>
@@ -3002,9 +3027,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="125"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="123"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="96"/>
       <c r="D48" s="30" t="s">
         <v>120</v>
       </c>
@@ -3013,9 +3038,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="125"/>
-      <c r="B49" s="125"/>
-      <c r="C49" s="121" t="s">
+      <c r="A49" s="98"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="94" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -3026,9 +3051,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="125"/>
-      <c r="B50" s="125"/>
-      <c r="C50" s="123"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="96"/>
       <c r="D50" s="46" t="s">
         <v>124</v>
       </c>
@@ -3037,8 +3062,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="125"/>
-      <c r="B51" s="125"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="98"/>
       <c r="C51" s="48" t="s">
         <v>126</v>
       </c>
@@ -3048,9 +3073,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="125"/>
-      <c r="B52" s="125"/>
-      <c r="C52" s="121" t="s">
+      <c r="A52" s="98"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="94" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -3061,9 +3086,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="125"/>
-      <c r="B53" s="125"/>
-      <c r="C53" s="122"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="95"/>
       <c r="D53" s="30" t="s">
         <v>130</v>
       </c>
@@ -3072,9 +3097,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="125"/>
-      <c r="B54" s="125"/>
-      <c r="C54" s="122"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="95"/>
       <c r="D54" s="30" t="s">
         <v>132</v>
       </c>
@@ -3083,9 +3108,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="125"/>
-      <c r="B55" s="125"/>
-      <c r="C55" s="122"/>
+      <c r="A55" s="98"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="95"/>
       <c r="D55" s="30" t="s">
         <v>134</v>
       </c>
@@ -3094,9 +3119,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="125"/>
-      <c r="B56" s="125"/>
-      <c r="C56" s="122"/>
+      <c r="A56" s="98"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="95"/>
       <c r="D56" s="30" t="s">
         <v>136</v>
       </c>
@@ -3105,9 +3130,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="125"/>
-      <c r="B57" s="125"/>
-      <c r="C57" s="123"/>
+      <c r="A57" s="98"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="96"/>
       <c r="D57" s="30" t="s">
         <v>138</v>
       </c>
@@ -3116,8 +3141,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="125"/>
-      <c r="B58" s="125"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="98"/>
       <c r="C58" s="48" t="s">
         <v>140</v>
       </c>
@@ -3127,8 +3152,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="125"/>
-      <c r="B59" s="125"/>
+      <c r="A59" s="98"/>
+      <c r="B59" s="98"/>
       <c r="C59" s="47" t="s">
         <v>142</v>
       </c>
@@ -3138,8 +3163,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="126"/>
-      <c r="B60" s="126"/>
+      <c r="A60" s="99"/>
+      <c r="B60" s="99"/>
       <c r="C60" s="48" t="s">
         <v>144</v>
       </c>
@@ -3149,10 +3174,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="109">
+      <c r="A61" s="118">
         <v>6</v>
       </c>
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="118" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="26" t="s">
@@ -3164,8 +3189,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="110"/>
-      <c r="B62" s="110"/>
+      <c r="A62" s="119"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="26" t="s">
         <v>148</v>
       </c>
@@ -3175,8 +3200,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="110"/>
-      <c r="B63" s="110"/>
+      <c r="A63" s="119"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="26" t="s">
         <v>150</v>
       </c>
@@ -3188,8 +3213,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="110"/>
-      <c r="B64" s="110"/>
+      <c r="A64" s="119"/>
+      <c r="B64" s="119"/>
       <c r="C64" s="26" t="s">
         <v>154</v>
       </c>
@@ -3199,10 +3224,10 @@
       </c>
     </row>
     <row r="65" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="105">
+      <c r="A65" s="115">
         <v>7</v>
       </c>
-      <c r="B65" s="105" t="s">
+      <c r="B65" s="115" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="21" t="s">
@@ -3214,8 +3239,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="106"/>
-      <c r="B66" s="106"/>
+      <c r="A66" s="116"/>
+      <c r="B66" s="116"/>
       <c r="C66" s="21" t="s">
         <v>157</v>
       </c>
@@ -3225,8 +3250,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="106"/>
-      <c r="B67" s="106"/>
+      <c r="A67" s="116"/>
+      <c r="B67" s="116"/>
       <c r="C67" s="21" t="s">
         <v>159</v>
       </c>
@@ -3236,8 +3261,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="106"/>
-      <c r="B68" s="106"/>
+      <c r="A68" s="116"/>
+      <c r="B68" s="116"/>
       <c r="C68" s="21" t="s">
         <v>161</v>
       </c>
@@ -3247,8 +3272,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="106"/>
-      <c r="B69" s="106"/>
+      <c r="A69" s="116"/>
+      <c r="B69" s="116"/>
       <c r="C69" s="21" t="s">
         <v>162</v>
       </c>
@@ -3260,8 +3285,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="106"/>
-      <c r="B70" s="106"/>
+      <c r="A70" s="116"/>
+      <c r="B70" s="116"/>
       <c r="C70" s="21" t="s">
         <v>165</v>
       </c>
@@ -3271,46 +3296,46 @@
       </c>
     </row>
     <row r="71" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="106"/>
-      <c r="B71" s="106"/>
+      <c r="A71" s="116"/>
+      <c r="B71" s="116"/>
       <c r="C71" s="21" t="s">
         <v>166</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="101" t="s">
+      <c r="E71" s="112" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="106"/>
-      <c r="B72" s="106"/>
+      <c r="A72" s="116"/>
+      <c r="B72" s="116"/>
       <c r="C72" s="21" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="22"/>
-      <c r="E72" s="108"/>
+      <c r="E72" s="113"/>
     </row>
     <row r="73" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="106"/>
-      <c r="B73" s="106"/>
+      <c r="A73" s="116"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="21" t="s">
         <v>169</v>
       </c>
       <c r="D73" s="22"/>
-      <c r="E73" s="108"/>
+      <c r="E73" s="113"/>
     </row>
     <row r="74" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="106"/>
-      <c r="B74" s="106"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="116"/>
       <c r="C74" s="21" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="22"/>
-      <c r="E74" s="102"/>
+      <c r="E74" s="114"/>
     </row>
     <row r="75" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="106"/>
-      <c r="B75" s="106"/>
+      <c r="A75" s="116"/>
+      <c r="B75" s="116"/>
       <c r="C75" s="21" t="s">
         <v>171</v>
       </c>
@@ -3320,30 +3345,30 @@
       </c>
     </row>
     <row r="76" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="106"/>
-      <c r="B76" s="106"/>
+      <c r="A76" s="116"/>
+      <c r="B76" s="116"/>
       <c r="C76" s="21" t="s">
         <v>173</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="101" t="s">
+      <c r="E76" s="112" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="107"/>
-      <c r="B77" s="107"/>
+      <c r="A77" s="117"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D77" s="22"/>
-      <c r="E77" s="102"/>
+      <c r="E77" s="114"/>
     </row>
     <row r="78" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="105">
+      <c r="A78" s="115">
         <v>8</v>
       </c>
-      <c r="B78" s="105" t="s">
+      <c r="B78" s="115" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="21" t="s">
@@ -3355,8 +3380,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="106"/>
-      <c r="B79" s="106"/>
+      <c r="A79" s="116"/>
+      <c r="B79" s="116"/>
       <c r="C79" s="55" t="s">
         <v>178</v>
       </c>
@@ -3366,28 +3391,28 @@
       </c>
     </row>
     <row r="80" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="106"/>
-      <c r="B80" s="106"/>
+      <c r="A80" s="116"/>
+      <c r="B80" s="116"/>
       <c r="C80" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="22"/>
-      <c r="E80" s="101" t="s">
+      <c r="E80" s="112" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="106"/>
-      <c r="B81" s="106"/>
+      <c r="A81" s="116"/>
+      <c r="B81" s="116"/>
       <c r="C81" s="21" t="s">
         <v>181</v>
       </c>
       <c r="D81" s="22"/>
-      <c r="E81" s="102"/>
+      <c r="E81" s="114"/>
     </row>
     <row r="82" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="106"/>
-      <c r="B82" s="106"/>
+      <c r="A82" s="116"/>
+      <c r="B82" s="116"/>
       <c r="C82" s="21" t="s">
         <v>183</v>
       </c>
@@ -3397,8 +3422,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="106"/>
-      <c r="B83" s="106"/>
+      <c r="A83" s="116"/>
+      <c r="B83" s="116"/>
       <c r="C83" s="21" t="s">
         <v>185</v>
       </c>
@@ -3408,8 +3433,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="106"/>
-      <c r="B84" s="106"/>
+      <c r="A84" s="116"/>
+      <c r="B84" s="116"/>
       <c r="C84" s="21" t="s">
         <v>187</v>
       </c>
@@ -3419,8 +3444,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="106"/>
-      <c r="B85" s="106"/>
+      <c r="A85" s="116"/>
+      <c r="B85" s="116"/>
       <c r="C85" s="21" t="s">
         <v>189</v>
       </c>
@@ -3430,48 +3455,48 @@
       </c>
     </row>
     <row r="86" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="106"/>
-      <c r="B86" s="106"/>
+      <c r="A86" s="116"/>
+      <c r="B86" s="116"/>
       <c r="C86" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D86" s="22"/>
-      <c r="E86" s="101" t="s">
+      <c r="E86" s="112" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="106"/>
-      <c r="B87" s="106"/>
+      <c r="A87" s="116"/>
+      <c r="B87" s="116"/>
       <c r="C87" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D87" s="22"/>
-      <c r="E87" s="102"/>
+      <c r="E87" s="114"/>
     </row>
     <row r="88" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="106"/>
-      <c r="B88" s="106"/>
+      <c r="A88" s="116"/>
+      <c r="B88" s="116"/>
       <c r="C88" s="21" t="s">
         <v>194</v>
       </c>
       <c r="D88" s="22"/>
-      <c r="E88" s="103" t="s">
+      <c r="E88" s="123" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="106"/>
-      <c r="B89" s="106"/>
+      <c r="A89" s="116"/>
+      <c r="B89" s="116"/>
       <c r="C89" s="21" t="s">
         <v>196</v>
       </c>
       <c r="D89" s="22"/>
-      <c r="E89" s="104"/>
+      <c r="E89" s="124"/>
     </row>
     <row r="90" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="106"/>
-      <c r="B90" s="106"/>
+      <c r="A90" s="116"/>
+      <c r="B90" s="116"/>
       <c r="C90" s="21" t="s">
         <v>197</v>
       </c>
@@ -3481,8 +3506,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="106"/>
-      <c r="B91" s="106"/>
+      <c r="A91" s="116"/>
+      <c r="B91" s="116"/>
       <c r="C91" s="21" t="s">
         <v>199</v>
       </c>
@@ -3492,8 +3517,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="107"/>
-      <c r="B92" s="107"/>
+      <c r="A92" s="117"/>
+      <c r="B92" s="117"/>
       <c r="C92" s="21" t="s">
         <v>201</v>
       </c>
@@ -3503,45 +3528,45 @@
       </c>
     </row>
     <row r="93" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="98">
+      <c r="A93" s="120">
         <v>9</v>
       </c>
-      <c r="B93" s="98" t="s">
+      <c r="B93" s="120" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>203</v>
       </c>
       <c r="D93" s="25"/>
-      <c r="E93" s="66" t="s">
+      <c r="E93" s="64" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="99"/>
-      <c r="B94" s="99"/>
+      <c r="A94" s="121"/>
+      <c r="B94" s="121"/>
       <c r="C94" s="13" t="s">
         <v>204</v>
       </c>
       <c r="D94" s="25"/>
-      <c r="E94" s="67" t="s">
+      <c r="E94" s="65" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="99"/>
-      <c r="B95" s="99"/>
+      <c r="A95" s="121"/>
+      <c r="B95" s="121"/>
       <c r="C95" s="13" t="s">
         <v>205</v>
       </c>
       <c r="D95" s="25"/>
-      <c r="E95" s="65" t="s">
+      <c r="E95" s="63" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="99"/>
-      <c r="B96" s="99"/>
+      <c r="A96" s="121"/>
+      <c r="B96" s="121"/>
       <c r="C96" s="56" t="s">
         <v>206</v>
       </c>
@@ -3551,8 +3576,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="99"/>
-      <c r="B97" s="99"/>
+      <c r="A97" s="121"/>
+      <c r="B97" s="121"/>
       <c r="C97" s="56" t="s">
         <v>211</v>
       </c>
@@ -3564,8 +3589,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="99"/>
-      <c r="B98" s="99"/>
+      <c r="A98" s="121"/>
+      <c r="B98" s="121"/>
       <c r="C98" s="56" t="s">
         <v>214</v>
       </c>
@@ -3575,8 +3600,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="100"/>
-      <c r="B99" s="100"/>
+      <c r="A99" s="122"/>
+      <c r="B99" s="122"/>
       <c r="C99" s="13" t="s">
         <v>216</v>
       </c>
@@ -3790,6 +3815,31 @@
     <row r="162" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B78:B92"/>
+    <mergeCell ref="A78:A92"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="B38:B60"/>
     <mergeCell ref="A38:A60"/>
@@ -3803,31 +3853,6 @@
     <mergeCell ref="A18:A37"/>
     <mergeCell ref="B18:B37"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B78:B92"/>
-    <mergeCell ref="A78:A92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/attck_windows_tech.xlsx
+++ b/attck_windows_tech.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="20280" windowHeight="7395"/>
+    <workbookView xWindow="1740" yWindow="-120" windowWidth="20280" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="3" r:id="rId1"/>
@@ -720,15 +720,9 @@
     <t>SID-History Injection</t>
   </si>
   <si>
-    <t>Get-ADUser john -Properties sidhistory, event id 4765. 4766</t>
-  </si>
-  <si>
     <t>Domain Policy Modification</t>
   </si>
   <si>
-    <t>check theo event id 5136, 5137, 5138, 5139, 5141 (chưa có cách phân biệt policy attacker và qtri viên)</t>
-  </si>
-  <si>
     <t>Hidden Window</t>
   </si>
   <si>
@@ -877,6 +871,12 @@
   </si>
   <si>
     <t>check theo event ID 4670  (Default không enable audit object thì sẽ không có event log và nếu enable thì phải enable cho từng file)</t>
+  </si>
+  <si>
+    <t>check theo event id 5136, 5137, 5138, 5139, 5141 (chưa có cách phân biệt policy attacker và qtri viên) (default ko enable audit)</t>
+  </si>
+  <si>
+    <t>Get-ADUser john -Properties sidhistory, event id 4765. 4766 (Chưa setup được lab)</t>
   </si>
 </sst>
 </file>
@@ -915,7 +915,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,6 +966,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,7 +1041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1220,38 +1226,87 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1271,37 +1326,73 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,102 +1419,44 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1742,10 +1775,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22:F23"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1775,149 +1808,149 @@
       <c r="E1" s="89"/>
       <c r="F1" s="89"/>
     </row>
-    <row r="2" spans="1:6 16384:16384" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:6 16384:16384" s="144" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="141">
         <v>1</v>
       </c>
       <c r="B2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="141" t="s">
         <v>218</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="67" t="s">
+      <c r="E2" s="141"/>
+      <c r="F2" s="143" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6 16384:16384" s="130" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:6 16384:16384" s="78" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
       <c r="B3" s="93"/>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" s="128" t="s">
-        <v>271</v>
-      </c>
-      <c r="XFD3" s="129" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6 16384:16384" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="XFD3" s="77" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6 16384:16384" s="137" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92">
         <v>2</v>
       </c>
       <c r="B4" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="67" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6 16384:16384" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="135"/>
+      <c r="F4" s="136" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6 16384:16384" s="133" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="93"/>
       <c r="B5" s="93"/>
-      <c r="C5" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="67" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6 16384:16384" s="134" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="131" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="76" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6 16384:16384" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="86">
         <v>3</v>
       </c>
       <c r="B6" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="81" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6 16384:16384" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="87"/>
       <c r="B7" s="87"/>
       <c r="C7" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="31" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="138"/>
+      <c r="F7" s="139" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6 16384:16384" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87"/>
       <c r="B8" s="87"/>
       <c r="C8" s="84"/>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="138"/>
+      <c r="F8" s="139" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6 16384:16384" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="87"/>
       <c r="C9" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="138"/>
+      <c r="F9" s="139" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6 16384:16384" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="87"/>
       <c r="B10" s="87"/>
       <c r="C10" s="85"/>
-      <c r="D10" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="141" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="141"/>
+      <c r="F10" s="145" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6 16384:16384" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="87"/>
       <c r="B11" s="87"/>
       <c r="C11" s="85"/>
-      <c r="D11" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="10" t="s">
-        <v>227</v>
+      <c r="D11" s="141" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="141"/>
+      <c r="F11" s="145" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1925,11 +1958,11 @@
       <c r="B12" s="87"/>
       <c r="C12" s="85"/>
       <c r="D12" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1941,7 +1974,7 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1953,7 +1986,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1963,11 +1996,11 @@
         <v>8</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1975,11 +2008,11 @@
       <c r="B16" s="87"/>
       <c r="C16" s="85"/>
       <c r="D16" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1987,11 +2020,11 @@
       <c r="B17" s="87"/>
       <c r="C17" s="84"/>
       <c r="D17" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2001,11 +2034,11 @@
         <v>9</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2017,7 +2050,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2028,10 +2061,10 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2041,25 +2074,25 @@
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="87"/>
       <c r="B22" s="87"/>
       <c r="C22" s="83" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E22" s="61"/>
       <c r="F22" s="90" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2067,9 +2100,9 @@
       <c r="B23" s="87"/>
       <c r="C23" s="84"/>
       <c r="D23" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E23" s="69"/>
+        <v>241</v>
+      </c>
+      <c r="E23" s="66"/>
       <c r="F23" s="91"/>
     </row>
     <row r="24" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2080,110 +2113,110 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="62" t="s">
-        <v>270</v>
-      </c>
-      <c r="F24" s="76" t="s">
-        <v>260</v>
+        <v>268</v>
+      </c>
+      <c r="F24" s="72" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77">
+      <c r="A25" s="94">
         <v>4</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="95" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="98" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="94"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="81" t="s">
+      <c r="E26" s="60"/>
+      <c r="F26" s="99"/>
+    </row>
+    <row r="27" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="94"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="46" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="46" t="s">
+      <c r="E27" s="67"/>
+      <c r="F27" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="82"/>
-    </row>
-    <row r="27" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="46" t="s">
+    </row>
+    <row r="28" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72" t="s">
+      <c r="D28" s="46" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="78" t="s">
+      <c r="E28" s="59"/>
+      <c r="F28" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="D28" s="46" t="s">
+    </row>
+    <row r="29" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="81" t="s">
+      <c r="E29" s="70"/>
+      <c r="F29" s="99"/>
+    </row>
+    <row r="30" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="30" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="30" t="s">
+      <c r="E30" s="71"/>
+      <c r="F30" s="98" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="94"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="E29" s="74"/>
-      <c r="F29" s="82"/>
-    </row>
-    <row r="30" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" s="75"/>
-      <c r="F30" s="81" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="82"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="99"/>
     </row>
     <row r="32" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>5</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
       <c r="F32" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2193,13 +2226,13 @@
       <c r="B33" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="73" t="s">
-        <v>257</v>
+      <c r="C33" s="69" t="s">
+        <v>255</v>
       </c>
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
       <c r="F33" s="27" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2433,6 +2466,13 @@
     <row r="83" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C28:C31"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B6:B24"/>
@@ -2444,13 +2484,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2501,47 +2534,47 @@
       <c r="B2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="114" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="116" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="109"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="122"/>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="103"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="109"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="103"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="110"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="104"/>
+      <c r="E5" s="118"/>
     </row>
     <row r="6" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="108" t="s">
+      <c r="A6" s="113"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="114" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2552,9 +2585,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="110"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2563,8 +2596,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="37" t="s">
         <v>27</v>
       </c>
@@ -2574,8 +2607,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="111"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="37" t="s">
         <v>31</v>
       </c>
@@ -2585,8 +2618,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="37" t="s">
         <v>32</v>
       </c>
@@ -2596,8 +2629,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="37" t="s">
         <v>34</v>
       </c>
@@ -2624,44 +2657,44 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="105" t="s">
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="119" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="102" t="s">
+      <c r="E13" s="116" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="106"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="103"/>
+      <c r="E14" s="117"/>
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="111"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="106"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="103"/>
+      <c r="E15" s="117"/>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="107"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="104"/>
+      <c r="E16" s="118"/>
     </row>
     <row r="17" spans="1:5" s="41" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93"/>
@@ -2768,7 +2801,7 @@
       <c r="D25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="100" t="s">
+      <c r="E25" s="129" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2779,7 +2812,7 @@
       <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="101"/>
+      <c r="E26" s="130"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="87"/>
@@ -2788,7 +2821,7 @@
       <c r="D27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="100" t="s">
+      <c r="E27" s="129" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2799,7 +2832,7 @@
       <c r="D28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="101"/>
+      <c r="E28" s="130"/>
     </row>
     <row r="29" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="87"/>
@@ -2905,10 +2938,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="97">
+      <c r="A38" s="126">
         <v>4</v>
       </c>
-      <c r="B38" s="97" t="s">
+      <c r="B38" s="126" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -2922,9 +2955,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="98"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="78" t="s">
+      <c r="A39" s="127"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="95" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -2935,9 +2968,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="98"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="79"/>
+      <c r="A40" s="127"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="96"/>
       <c r="D40" s="42" t="s">
         <v>101</v>
       </c>
@@ -2946,9 +2979,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="98"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="80"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="97"/>
       <c r="D41" s="42" t="s">
         <v>103</v>
       </c>
@@ -2957,8 +2990,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="98"/>
-      <c r="B42" s="98"/>
+      <c r="A42" s="127"/>
+      <c r="B42" s="127"/>
       <c r="C42" s="20" t="s">
         <v>105</v>
       </c>
@@ -2968,9 +3001,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="98"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="94" t="s">
+      <c r="A43" s="127"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="123" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -2981,9 +3014,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="98"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="96"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="125"/>
       <c r="D44" s="30" t="s">
         <v>110</v>
       </c>
@@ -2992,9 +3025,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="98"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="94" t="s">
+      <c r="A45" s="127"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="123" t="s">
         <v>112</v>
       </c>
       <c r="D45" s="30" t="s">
@@ -3005,9 +3038,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="98"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="95"/>
+      <c r="A46" s="127"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="124"/>
       <c r="D46" s="30" t="s">
         <v>116</v>
       </c>
@@ -3016,9 +3049,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="98"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="95"/>
+      <c r="A47" s="127"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="124"/>
       <c r="D47" s="30" t="s">
         <v>118</v>
       </c>
@@ -3027,9 +3060,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="98"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="96"/>
+      <c r="A48" s="127"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="125"/>
       <c r="D48" s="30" t="s">
         <v>120</v>
       </c>
@@ -3038,9 +3071,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="98"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="94" t="s">
+      <c r="A49" s="127"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="123" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -3051,9 +3084,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="98"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="96"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="125"/>
       <c r="D50" s="46" t="s">
         <v>124</v>
       </c>
@@ -3062,8 +3095,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="98"/>
-      <c r="B51" s="98"/>
+      <c r="A51" s="127"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="48" t="s">
         <v>126</v>
       </c>
@@ -3073,9 +3106,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="98"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="94" t="s">
+      <c r="A52" s="127"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -3086,9 +3119,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="98"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="95"/>
+      <c r="A53" s="127"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="124"/>
       <c r="D53" s="30" t="s">
         <v>130</v>
       </c>
@@ -3097,9 +3130,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="98"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="95"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="124"/>
       <c r="D54" s="30" t="s">
         <v>132</v>
       </c>
@@ -3108,9 +3141,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="98"/>
-      <c r="B55" s="98"/>
-      <c r="C55" s="95"/>
+      <c r="A55" s="127"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="124"/>
       <c r="D55" s="30" t="s">
         <v>134</v>
       </c>
@@ -3119,9 +3152,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="98"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="95"/>
+      <c r="A56" s="127"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="124"/>
       <c r="D56" s="30" t="s">
         <v>136</v>
       </c>
@@ -3130,9 +3163,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="98"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="96"/>
+      <c r="A57" s="127"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="125"/>
       <c r="D57" s="30" t="s">
         <v>138</v>
       </c>
@@ -3141,8 +3174,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="98"/>
-      <c r="B58" s="98"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="127"/>
       <c r="C58" s="48" t="s">
         <v>140</v>
       </c>
@@ -3152,8 +3185,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="98"/>
-      <c r="B59" s="98"/>
+      <c r="A59" s="127"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="47" t="s">
         <v>142</v>
       </c>
@@ -3163,8 +3196,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="99"/>
-      <c r="B60" s="99"/>
+      <c r="A60" s="128"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="48" t="s">
         <v>144</v>
       </c>
@@ -3174,10 +3207,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="118">
+      <c r="A61" s="111">
         <v>6</v>
       </c>
-      <c r="B61" s="118" t="s">
+      <c r="B61" s="111" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="26" t="s">
@@ -3189,8 +3222,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="119"/>
-      <c r="B62" s="119"/>
+      <c r="A62" s="112"/>
+      <c r="B62" s="112"/>
       <c r="C62" s="26" t="s">
         <v>148</v>
       </c>
@@ -3200,8 +3233,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="119"/>
-      <c r="B63" s="119"/>
+      <c r="A63" s="112"/>
+      <c r="B63" s="112"/>
       <c r="C63" s="26" t="s">
         <v>150</v>
       </c>
@@ -3213,8 +3246,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="119"/>
-      <c r="B64" s="119"/>
+      <c r="A64" s="112"/>
+      <c r="B64" s="112"/>
       <c r="C64" s="26" t="s">
         <v>154</v>
       </c>
@@ -3224,10 +3257,10 @@
       </c>
     </row>
     <row r="65" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="115">
+      <c r="A65" s="107">
         <v>7</v>
       </c>
-      <c r="B65" s="115" t="s">
+      <c r="B65" s="107" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="21" t="s">
@@ -3239,8 +3272,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="116"/>
-      <c r="B66" s="116"/>
+      <c r="A66" s="108"/>
+      <c r="B66" s="108"/>
       <c r="C66" s="21" t="s">
         <v>157</v>
       </c>
@@ -3250,8 +3283,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="116"/>
-      <c r="B67" s="116"/>
+      <c r="A67" s="108"/>
+      <c r="B67" s="108"/>
       <c r="C67" s="21" t="s">
         <v>159</v>
       </c>
@@ -3261,8 +3294,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="116"/>
-      <c r="B68" s="116"/>
+      <c r="A68" s="108"/>
+      <c r="B68" s="108"/>
       <c r="C68" s="21" t="s">
         <v>161</v>
       </c>
@@ -3272,8 +3305,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="116"/>
-      <c r="B69" s="116"/>
+      <c r="A69" s="108"/>
+      <c r="B69" s="108"/>
       <c r="C69" s="21" t="s">
         <v>162</v>
       </c>
@@ -3285,8 +3318,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="116"/>
-      <c r="B70" s="116"/>
+      <c r="A70" s="108"/>
+      <c r="B70" s="108"/>
       <c r="C70" s="21" t="s">
         <v>165</v>
       </c>
@@ -3296,46 +3329,46 @@
       </c>
     </row>
     <row r="71" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="116"/>
-      <c r="B71" s="116"/>
+      <c r="A71" s="108"/>
+      <c r="B71" s="108"/>
       <c r="C71" s="21" t="s">
         <v>166</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="112" t="s">
+      <c r="E71" s="103" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="116"/>
-      <c r="B72" s="116"/>
+      <c r="A72" s="108"/>
+      <c r="B72" s="108"/>
       <c r="C72" s="21" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="22"/>
-      <c r="E72" s="113"/>
+      <c r="E72" s="110"/>
     </row>
     <row r="73" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="116"/>
-      <c r="B73" s="116"/>
+      <c r="A73" s="108"/>
+      <c r="B73" s="108"/>
       <c r="C73" s="21" t="s">
         <v>169</v>
       </c>
       <c r="D73" s="22"/>
-      <c r="E73" s="113"/>
+      <c r="E73" s="110"/>
     </row>
     <row r="74" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="116"/>
-      <c r="B74" s="116"/>
+      <c r="A74" s="108"/>
+      <c r="B74" s="108"/>
       <c r="C74" s="21" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="22"/>
-      <c r="E74" s="114"/>
+      <c r="E74" s="104"/>
     </row>
     <row r="75" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="116"/>
-      <c r="B75" s="116"/>
+      <c r="A75" s="108"/>
+      <c r="B75" s="108"/>
       <c r="C75" s="21" t="s">
         <v>171</v>
       </c>
@@ -3345,30 +3378,30 @@
       </c>
     </row>
     <row r="76" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="116"/>
-      <c r="B76" s="116"/>
+      <c r="A76" s="108"/>
+      <c r="B76" s="108"/>
       <c r="C76" s="21" t="s">
         <v>173</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="112" t="s">
+      <c r="E76" s="103" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="117"/>
-      <c r="B77" s="117"/>
+      <c r="A77" s="109"/>
+      <c r="B77" s="109"/>
       <c r="C77" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D77" s="22"/>
-      <c r="E77" s="114"/>
+      <c r="E77" s="104"/>
     </row>
     <row r="78" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="115">
+      <c r="A78" s="107">
         <v>8</v>
       </c>
-      <c r="B78" s="115" t="s">
+      <c r="B78" s="107" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="21" t="s">
@@ -3380,8 +3413,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="116"/>
-      <c r="B79" s="116"/>
+      <c r="A79" s="108"/>
+      <c r="B79" s="108"/>
       <c r="C79" s="55" t="s">
         <v>178</v>
       </c>
@@ -3391,28 +3424,28 @@
       </c>
     </row>
     <row r="80" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="116"/>
-      <c r="B80" s="116"/>
+      <c r="A80" s="108"/>
+      <c r="B80" s="108"/>
       <c r="C80" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="22"/>
-      <c r="E80" s="112" t="s">
+      <c r="E80" s="103" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="116"/>
-      <c r="B81" s="116"/>
+      <c r="A81" s="108"/>
+      <c r="B81" s="108"/>
       <c r="C81" s="21" t="s">
         <v>181</v>
       </c>
       <c r="D81" s="22"/>
-      <c r="E81" s="114"/>
+      <c r="E81" s="104"/>
     </row>
     <row r="82" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="116"/>
-      <c r="B82" s="116"/>
+      <c r="A82" s="108"/>
+      <c r="B82" s="108"/>
       <c r="C82" s="21" t="s">
         <v>183</v>
       </c>
@@ -3422,8 +3455,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="116"/>
-      <c r="B83" s="116"/>
+      <c r="A83" s="108"/>
+      <c r="B83" s="108"/>
       <c r="C83" s="21" t="s">
         <v>185</v>
       </c>
@@ -3433,8 +3466,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="116"/>
-      <c r="B84" s="116"/>
+      <c r="A84" s="108"/>
+      <c r="B84" s="108"/>
       <c r="C84" s="21" t="s">
         <v>187</v>
       </c>
@@ -3444,8 +3477,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="116"/>
-      <c r="B85" s="116"/>
+      <c r="A85" s="108"/>
+      <c r="B85" s="108"/>
       <c r="C85" s="21" t="s">
         <v>189</v>
       </c>
@@ -3455,48 +3488,48 @@
       </c>
     </row>
     <row r="86" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="116"/>
-      <c r="B86" s="116"/>
+      <c r="A86" s="108"/>
+      <c r="B86" s="108"/>
       <c r="C86" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D86" s="22"/>
-      <c r="E86" s="112" t="s">
+      <c r="E86" s="103" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="116"/>
-      <c r="B87" s="116"/>
+      <c r="A87" s="108"/>
+      <c r="B87" s="108"/>
       <c r="C87" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D87" s="22"/>
-      <c r="E87" s="114"/>
+      <c r="E87" s="104"/>
     </row>
     <row r="88" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="116"/>
-      <c r="B88" s="116"/>
+      <c r="A88" s="108"/>
+      <c r="B88" s="108"/>
       <c r="C88" s="21" t="s">
         <v>194</v>
       </c>
       <c r="D88" s="22"/>
-      <c r="E88" s="123" t="s">
+      <c r="E88" s="105" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="116"/>
-      <c r="B89" s="116"/>
+      <c r="A89" s="108"/>
+      <c r="B89" s="108"/>
       <c r="C89" s="21" t="s">
         <v>196</v>
       </c>
       <c r="D89" s="22"/>
-      <c r="E89" s="124"/>
+      <c r="E89" s="106"/>
     </row>
     <row r="90" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="116"/>
-      <c r="B90" s="116"/>
+      <c r="A90" s="108"/>
+      <c r="B90" s="108"/>
       <c r="C90" s="21" t="s">
         <v>197</v>
       </c>
@@ -3506,8 +3539,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="116"/>
-      <c r="B91" s="116"/>
+      <c r="A91" s="108"/>
+      <c r="B91" s="108"/>
       <c r="C91" s="21" t="s">
         <v>199</v>
       </c>
@@ -3517,8 +3550,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="117"/>
-      <c r="B92" s="117"/>
+      <c r="A92" s="109"/>
+      <c r="B92" s="109"/>
       <c r="C92" s="21" t="s">
         <v>201</v>
       </c>
@@ -3528,10 +3561,10 @@
       </c>
     </row>
     <row r="93" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="120">
+      <c r="A93" s="100">
         <v>9</v>
       </c>
-      <c r="B93" s="120" t="s">
+      <c r="B93" s="100" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -3543,8 +3576,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="121"/>
-      <c r="B94" s="121"/>
+      <c r="A94" s="101"/>
+      <c r="B94" s="101"/>
       <c r="C94" s="13" t="s">
         <v>204</v>
       </c>
@@ -3554,8 +3587,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="121"/>
-      <c r="B95" s="121"/>
+      <c r="A95" s="101"/>
+      <c r="B95" s="101"/>
       <c r="C95" s="13" t="s">
         <v>205</v>
       </c>
@@ -3565,8 +3598,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="121"/>
-      <c r="B96" s="121"/>
+      <c r="A96" s="101"/>
+      <c r="B96" s="101"/>
       <c r="C96" s="56" t="s">
         <v>206</v>
       </c>
@@ -3576,8 +3609,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="121"/>
-      <c r="B97" s="121"/>
+      <c r="A97" s="101"/>
+      <c r="B97" s="101"/>
       <c r="C97" s="56" t="s">
         <v>211</v>
       </c>
@@ -3589,8 +3622,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="121"/>
-      <c r="B98" s="121"/>
+      <c r="A98" s="101"/>
+      <c r="B98" s="101"/>
       <c r="C98" s="56" t="s">
         <v>214</v>
       </c>
@@ -3600,8 +3633,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="122"/>
-      <c r="B99" s="122"/>
+      <c r="A99" s="102"/>
+      <c r="B99" s="102"/>
       <c r="C99" s="13" t="s">
         <v>216</v>
       </c>
@@ -3815,31 +3848,6 @@
     <row r="162" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B78:B92"/>
-    <mergeCell ref="A78:A92"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="B38:B60"/>
     <mergeCell ref="A38:A60"/>
@@ -3853,6 +3861,31 @@
     <mergeCell ref="A18:A37"/>
     <mergeCell ref="B18:B37"/>
     <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B78:B92"/>
+    <mergeCell ref="A78:A92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/attck_windows_tech.xlsx
+++ b/attck_windows_tech.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-120" windowWidth="20280" windowHeight="7395"/>
+    <workbookView xWindow="2670" yWindow="-120" windowWidth="18420" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="3" r:id="rId1"/>
@@ -756,9 +756,6 @@
     <t>File Deletion</t>
   </si>
   <si>
-    <t>check theo event id 4660 (chưa phân biệt được file attacker - user xóa)</t>
-  </si>
-  <si>
     <t>Right-to-Left Override</t>
   </si>
   <si>
@@ -852,9 +849,6 @@
     <t xml:space="preserve">check theo event ID 1100 </t>
   </si>
   <si>
-    <t>check log registry modified theo event id 4657</t>
-  </si>
-  <si>
     <t>Đăng kí Domain Controller giả mạo để chỉnh sửa AD data</t>
   </si>
   <si>
@@ -877,6 +871,12 @@
   </si>
   <si>
     <t>Get-ADUser john -Properties sidhistory, event id 4765. 4766 (Chưa setup được lab)</t>
+  </si>
+  <si>
+    <t>check theo event id 4660 (chưa phân biệt được file attacker - user xóa, default không enable)</t>
+  </si>
+  <si>
+    <t>check log registry modified theo event id 4657(default không enable audit registry)</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1214,9 +1214,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1244,9 +1241,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1275,6 +1269,63 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1308,23 +1359,83 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1336,126 +1447,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1775,10 +1794,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9:C13"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1802,421 +1821,421 @@
       <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-    </row>
-    <row r="2" spans="1:6 16384:16384" s="144" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141">
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+    </row>
+    <row r="2" spans="1:6 16384:16384" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="91">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="E2" s="141"/>
-      <c r="F2" s="143" t="s">
+      <c r="E2" s="91"/>
+      <c r="F2" s="93" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6 16384:16384" s="78" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="74" t="s">
+    <row r="3" spans="1:6 16384:16384" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="XFD3" s="75" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6 16384:16384" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="111">
+        <v>2</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="F3" s="76" t="s">
+    </row>
+    <row r="6" spans="1:6 16384:16384" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="105">
+        <v>3</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79" t="s">
         <v>269</v>
       </c>
-      <c r="XFD3" s="77" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6 16384:16384" s="137" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92">
-        <v>2</v>
-      </c>
-      <c r="B4" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="134" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="135" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="135"/>
-      <c r="F4" s="136" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6 16384:16384" s="133" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="131" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="76" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6 16384:16384" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="86">
-        <v>3</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6 16384:16384" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="83" t="s">
+    </row>
+    <row r="7" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="106"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="E7" s="138"/>
-      <c r="F7" s="139" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6 16384:16384" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="138" t="s">
+      <c r="E7" s="88"/>
+      <c r="F7" s="89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="138"/>
-      <c r="F8" s="139" t="s">
+      <c r="E8" s="88"/>
+      <c r="F8" s="89" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="106"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="144" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:6 16384:16384" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="138" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="138"/>
-      <c r="F9" s="139" t="s">
+    <row r="10" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="106"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="91"/>
+      <c r="F10" s="95" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="106"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="91"/>
+      <c r="F11" s="95" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="106"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="91"/>
+      <c r="F12" s="95" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="106"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="91"/>
+      <c r="F13" s="95" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:6 16384:16384" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="141" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" s="141"/>
-      <c r="F10" s="145" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6 16384:16384" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="141" t="s">
-        <v>224</v>
-      </c>
-      <c r="E11" s="141"/>
-      <c r="F11" s="145" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="87"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
     <row r="14" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="87"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="58" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="83" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="91"/>
+      <c r="F15" s="95" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="6" t="s">
+    <row r="16" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="91"/>
+      <c r="F16" s="95" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="6" t="s">
+    <row r="17" spans="1:6" s="148" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="10" t="s">
-        <v>233</v>
+      <c r="E17" s="73"/>
+      <c r="F17" s="147" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="148" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="10" t="s">
-        <v>265</v>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="147" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="87"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="57" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87"/>
-      <c r="B21" s="87"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="102" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="83" t="s">
+      <c r="D22" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="61"/>
+      <c r="F22" s="109" t="s">
         <v>239</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="90" t="s">
+    </row>
+    <row r="23" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="87"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="65"/>
+      <c r="F23" s="110"/>
+    </row>
+    <row r="24" spans="1:6" s="148" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="107"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="151" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="152" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="96">
+        <v>4</v>
+      </c>
+      <c r="B25" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="91"/>
-    </row>
-    <row r="24" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="F24" s="72" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94">
-        <v>4</v>
-      </c>
-      <c r="B25" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="46" t="s">
+      <c r="E25" s="59"/>
+      <c r="F25" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="98" t="s">
+    </row>
+    <row r="26" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="46" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="46" t="s">
+      <c r="E26" s="60"/>
+      <c r="F26" s="101"/>
+    </row>
+    <row r="27" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="96"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="99"/>
-    </row>
-    <row r="27" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="46" t="s">
+      <c r="E27" s="66"/>
+      <c r="F27" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="68" t="s">
+    </row>
+    <row r="28" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="96"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="97" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="95" t="s">
+      <c r="D28" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="E28" s="59"/>
+      <c r="F28" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="98" t="s">
+    </row>
+    <row r="29" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="96"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="30" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="30" t="s">
+      <c r="E29" s="69"/>
+      <c r="F29" s="101"/>
+    </row>
+    <row r="30" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="96"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="99"/>
-    </row>
-    <row r="30" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="30" t="s">
+      <c r="E30" s="70"/>
+      <c r="F30" s="100" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="96"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="98" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="99"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="101"/>
     </row>
     <row r="32" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>5</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
       <c r="F32" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2226,13 +2245,13 @@
       <c r="B33" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="69" t="s">
-        <v>255</v>
+      <c r="C33" s="68" t="s">
+        <v>254</v>
       </c>
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
       <c r="F33" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2466,13 +2485,6 @@
     <row r="83" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C28:C31"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B6:B24"/>
@@ -2484,6 +2496,13 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2495,7 +2514,7 @@
   <dimension ref="A1:XFC162"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
@@ -2522,59 +2541,59 @@
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="89"/>
+      <c r="E1" s="108"/>
     </row>
     <row r="2" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92">
+      <c r="A2" s="111">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="127" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="116" t="s">
+      <c r="E2" s="121" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="122"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="128"/>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="117"/>
+      <c r="E3" s="122"/>
     </row>
     <row r="4" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="122"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="128"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="117"/>
+      <c r="E4" s="122"/>
     </row>
     <row r="5" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="115"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="118"/>
+      <c r="E5" s="123"/>
     </row>
     <row r="6" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="114" t="s">
+      <c r="A6" s="130"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="127" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2585,9 +2604,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="115"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2596,8 +2615,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113"/>
-      <c r="B8" s="113"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="37" t="s">
         <v>27</v>
       </c>
@@ -2607,8 +2626,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113"/>
-      <c r="B9" s="113"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="37" t="s">
         <v>31</v>
       </c>
@@ -2618,8 +2637,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="113"/>
-      <c r="B10" s="113"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="37" t="s">
         <v>32</v>
       </c>
@@ -2629,8 +2648,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="113"/>
-      <c r="B11" s="113"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="37" t="s">
         <v>34</v>
       </c>
@@ -2640,10 +2659,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="92">
+      <c r="A12" s="111">
         <v>2</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="111" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -2657,48 +2676,48 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="119" t="s">
+      <c r="A13" s="130"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="124" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E13" s="121" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="120"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="125"/>
       <c r="D14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="117"/>
+      <c r="E14" s="122"/>
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="113"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="120"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="125"/>
       <c r="D15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="117"/>
+      <c r="E15" s="122"/>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="113"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="121"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="123"/>
     </row>
     <row r="17" spans="1:5" s="41" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="39" t="s">
         <v>46</v>
       </c>
@@ -2708,10 +2727,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86">
+      <c r="A18" s="105">
         <v>3</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="105" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -2723,8 +2742,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="87"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -2734,8 +2753,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="87"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
@@ -2747,9 +2766,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="85"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="16" t="s">
         <v>57</v>
       </c>
@@ -2758,9 +2777,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="84"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
@@ -2769,9 +2788,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="87"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="83" t="s">
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="102" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2782,9 +2801,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="84"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="103"/>
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
@@ -2793,50 +2812,50 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="87"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="83" t="s">
+      <c r="A25" s="106"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="102" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="129" t="s">
+      <c r="E25" s="119" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="85"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="104"/>
       <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="130"/>
+      <c r="E26" s="120"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="87"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="85"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="104"/>
       <c r="D27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="129" t="s">
+      <c r="E27" s="119" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="84"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="130"/>
+      <c r="E28" s="120"/>
     </row>
     <row r="29" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
-      <c r="B29" s="87"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="106"/>
       <c r="C29" s="7" t="s">
         <v>76</v>
       </c>
@@ -2846,8 +2865,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="87"/>
-      <c r="B30" s="87"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="36" t="s">
         <v>79</v>
       </c>
@@ -2857,9 +2876,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="83" t="s">
+      <c r="A31" s="106"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="102" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -2870,9 +2889,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="85"/>
+      <c r="A32" s="106"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="104"/>
       <c r="D32" s="6" t="s">
         <v>83</v>
       </c>
@@ -2881,9 +2900,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="87"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="85"/>
+      <c r="A33" s="106"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="104"/>
       <c r="D33" s="6" t="s">
         <v>85</v>
       </c>
@@ -2892,9 +2911,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="84"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="103"/>
       <c r="D34" s="6" t="s">
         <v>87</v>
       </c>
@@ -2903,8 +2922,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="106"/>
       <c r="C35" s="7" t="s">
         <v>89</v>
       </c>
@@ -2914,8 +2933,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="87"/>
-      <c r="B36" s="87"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="7" t="s">
         <v>91</v>
       </c>
@@ -2927,8 +2946,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="87"/>
-      <c r="B37" s="87"/>
+      <c r="A37" s="106"/>
+      <c r="B37" s="106"/>
       <c r="C37" s="36" t="s">
         <v>94</v>
       </c>
@@ -2938,10 +2957,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="126">
+      <c r="A38" s="116">
         <v>4</v>
       </c>
-      <c r="B38" s="126" t="s">
+      <c r="B38" s="116" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -2955,9 +2974,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="127"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="95" t="s">
+      <c r="A39" s="117"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="97" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -2968,9 +2987,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="127"/>
-      <c r="B40" s="127"/>
-      <c r="C40" s="96"/>
+      <c r="A40" s="117"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="98"/>
       <c r="D40" s="42" t="s">
         <v>101</v>
       </c>
@@ -2979,9 +2998,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="127"/>
-      <c r="B41" s="127"/>
-      <c r="C41" s="97"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="99"/>
       <c r="D41" s="42" t="s">
         <v>103</v>
       </c>
@@ -2990,8 +3009,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="127"/>
-      <c r="B42" s="127"/>
+      <c r="A42" s="117"/>
+      <c r="B42" s="117"/>
       <c r="C42" s="20" t="s">
         <v>105</v>
       </c>
@@ -3001,9 +3020,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="127"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="123" t="s">
+      <c r="A43" s="117"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="113" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -3014,9 +3033,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="127"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="125"/>
+      <c r="A44" s="117"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="30" t="s">
         <v>110</v>
       </c>
@@ -3025,9 +3044,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="127"/>
-      <c r="B45" s="127"/>
-      <c r="C45" s="123" t="s">
+      <c r="A45" s="117"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="113" t="s">
         <v>112</v>
       </c>
       <c r="D45" s="30" t="s">
@@ -3038,9 +3057,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="127"/>
-      <c r="B46" s="127"/>
-      <c r="C46" s="124"/>
+      <c r="A46" s="117"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="114"/>
       <c r="D46" s="30" t="s">
         <v>116</v>
       </c>
@@ -3049,9 +3068,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="127"/>
-      <c r="B47" s="127"/>
-      <c r="C47" s="124"/>
+      <c r="A47" s="117"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="114"/>
       <c r="D47" s="30" t="s">
         <v>118</v>
       </c>
@@ -3060,9 +3079,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="127"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="125"/>
+      <c r="A48" s="117"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="115"/>
       <c r="D48" s="30" t="s">
         <v>120</v>
       </c>
@@ -3071,9 +3090,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="127"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="123" t="s">
+      <c r="A49" s="117"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="113" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -3084,9 +3103,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="127"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="125"/>
+      <c r="A50" s="117"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="115"/>
       <c r="D50" s="46" t="s">
         <v>124</v>
       </c>
@@ -3095,8 +3114,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="127"/>
-      <c r="B51" s="127"/>
+      <c r="A51" s="117"/>
+      <c r="B51" s="117"/>
       <c r="C51" s="48" t="s">
         <v>126</v>
       </c>
@@ -3106,9 +3125,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="127"/>
-      <c r="B52" s="127"/>
-      <c r="C52" s="123" t="s">
+      <c r="A52" s="117"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -3119,9 +3138,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="127"/>
-      <c r="B53" s="127"/>
-      <c r="C53" s="124"/>
+      <c r="A53" s="117"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="114"/>
       <c r="D53" s="30" t="s">
         <v>130</v>
       </c>
@@ -3130,9 +3149,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="127"/>
-      <c r="B54" s="127"/>
-      <c r="C54" s="124"/>
+      <c r="A54" s="117"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="114"/>
       <c r="D54" s="30" t="s">
         <v>132</v>
       </c>
@@ -3141,9 +3160,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="127"/>
-      <c r="B55" s="127"/>
-      <c r="C55" s="124"/>
+      <c r="A55" s="117"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="114"/>
       <c r="D55" s="30" t="s">
         <v>134</v>
       </c>
@@ -3152,9 +3171,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="127"/>
-      <c r="B56" s="127"/>
-      <c r="C56" s="124"/>
+      <c r="A56" s="117"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="114"/>
       <c r="D56" s="30" t="s">
         <v>136</v>
       </c>
@@ -3163,9 +3182,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="127"/>
-      <c r="B57" s="127"/>
-      <c r="C57" s="125"/>
+      <c r="A57" s="117"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="115"/>
       <c r="D57" s="30" t="s">
         <v>138</v>
       </c>
@@ -3174,8 +3193,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="127"/>
-      <c r="B58" s="127"/>
+      <c r="A58" s="117"/>
+      <c r="B58" s="117"/>
       <c r="C58" s="48" t="s">
         <v>140</v>
       </c>
@@ -3185,8 +3204,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="127"/>
-      <c r="B59" s="127"/>
+      <c r="A59" s="117"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="47" t="s">
         <v>142</v>
       </c>
@@ -3196,8 +3215,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="128"/>
-      <c r="B60" s="128"/>
+      <c r="A60" s="118"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="48" t="s">
         <v>144</v>
       </c>
@@ -3207,10 +3226,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="111">
+      <c r="A61" s="137">
         <v>6</v>
       </c>
-      <c r="B61" s="111" t="s">
+      <c r="B61" s="137" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="26" t="s">
@@ -3222,8 +3241,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="112"/>
-      <c r="B62" s="112"/>
+      <c r="A62" s="138"/>
+      <c r="B62" s="138"/>
       <c r="C62" s="26" t="s">
         <v>148</v>
       </c>
@@ -3233,8 +3252,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="112"/>
-      <c r="B63" s="112"/>
+      <c r="A63" s="138"/>
+      <c r="B63" s="138"/>
       <c r="C63" s="26" t="s">
         <v>150</v>
       </c>
@@ -3246,8 +3265,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="112"/>
-      <c r="B64" s="112"/>
+      <c r="A64" s="138"/>
+      <c r="B64" s="138"/>
       <c r="C64" s="26" t="s">
         <v>154</v>
       </c>
@@ -3257,10 +3276,10 @@
       </c>
     </row>
     <row r="65" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="107">
+      <c r="A65" s="134">
         <v>7</v>
       </c>
-      <c r="B65" s="107" t="s">
+      <c r="B65" s="134" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="21" t="s">
@@ -3272,8 +3291,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="108"/>
-      <c r="B66" s="108"/>
+      <c r="A66" s="135"/>
+      <c r="B66" s="135"/>
       <c r="C66" s="21" t="s">
         <v>157</v>
       </c>
@@ -3283,8 +3302,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
-      <c r="B67" s="108"/>
+      <c r="A67" s="135"/>
+      <c r="B67" s="135"/>
       <c r="C67" s="21" t="s">
         <v>159</v>
       </c>
@@ -3294,8 +3313,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
-      <c r="B68" s="108"/>
+      <c r="A68" s="135"/>
+      <c r="B68" s="135"/>
       <c r="C68" s="21" t="s">
         <v>161</v>
       </c>
@@ -3305,8 +3324,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
-      <c r="B69" s="108"/>
+      <c r="A69" s="135"/>
+      <c r="B69" s="135"/>
       <c r="C69" s="21" t="s">
         <v>162</v>
       </c>
@@ -3318,8 +3337,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
-      <c r="B70" s="108"/>
+      <c r="A70" s="135"/>
+      <c r="B70" s="135"/>
       <c r="C70" s="21" t="s">
         <v>165</v>
       </c>
@@ -3329,46 +3348,46 @@
       </c>
     </row>
     <row r="71" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
-      <c r="B71" s="108"/>
+      <c r="A71" s="135"/>
+      <c r="B71" s="135"/>
       <c r="C71" s="21" t="s">
         <v>166</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="103" t="s">
+      <c r="E71" s="131" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="108"/>
-      <c r="B72" s="108"/>
+      <c r="A72" s="135"/>
+      <c r="B72" s="135"/>
       <c r="C72" s="21" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="22"/>
-      <c r="E72" s="110"/>
+      <c r="E72" s="132"/>
     </row>
     <row r="73" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="108"/>
-      <c r="B73" s="108"/>
+      <c r="A73" s="135"/>
+      <c r="B73" s="135"/>
       <c r="C73" s="21" t="s">
         <v>169</v>
       </c>
       <c r="D73" s="22"/>
-      <c r="E73" s="110"/>
+      <c r="E73" s="132"/>
     </row>
     <row r="74" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="108"/>
-      <c r="B74" s="108"/>
+      <c r="A74" s="135"/>
+      <c r="B74" s="135"/>
       <c r="C74" s="21" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="22"/>
-      <c r="E74" s="104"/>
+      <c r="E74" s="133"/>
     </row>
     <row r="75" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="108"/>
-      <c r="B75" s="108"/>
+      <c r="A75" s="135"/>
+      <c r="B75" s="135"/>
       <c r="C75" s="21" t="s">
         <v>171</v>
       </c>
@@ -3378,30 +3397,30 @@
       </c>
     </row>
     <row r="76" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="108"/>
-      <c r="B76" s="108"/>
+      <c r="A76" s="135"/>
+      <c r="B76" s="135"/>
       <c r="C76" s="21" t="s">
         <v>173</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="103" t="s">
+      <c r="E76" s="131" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="109"/>
-      <c r="B77" s="109"/>
+      <c r="A77" s="136"/>
+      <c r="B77" s="136"/>
       <c r="C77" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D77" s="22"/>
-      <c r="E77" s="104"/>
+      <c r="E77" s="133"/>
     </row>
     <row r="78" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="107">
+      <c r="A78" s="134">
         <v>8</v>
       </c>
-      <c r="B78" s="107" t="s">
+      <c r="B78" s="134" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="21" t="s">
@@ -3413,8 +3432,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="108"/>
-      <c r="B79" s="108"/>
+      <c r="A79" s="135"/>
+      <c r="B79" s="135"/>
       <c r="C79" s="55" t="s">
         <v>178</v>
       </c>
@@ -3424,28 +3443,28 @@
       </c>
     </row>
     <row r="80" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="108"/>
-      <c r="B80" s="108"/>
+      <c r="A80" s="135"/>
+      <c r="B80" s="135"/>
       <c r="C80" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="22"/>
-      <c r="E80" s="103" t="s">
+      <c r="E80" s="131" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="108"/>
-      <c r="B81" s="108"/>
+      <c r="A81" s="135"/>
+      <c r="B81" s="135"/>
       <c r="C81" s="21" t="s">
         <v>181</v>
       </c>
       <c r="D81" s="22"/>
-      <c r="E81" s="104"/>
+      <c r="E81" s="133"/>
     </row>
     <row r="82" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="108"/>
-      <c r="B82" s="108"/>
+      <c r="A82" s="135"/>
+      <c r="B82" s="135"/>
       <c r="C82" s="21" t="s">
         <v>183</v>
       </c>
@@ -3455,8 +3474,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="108"/>
-      <c r="B83" s="108"/>
+      <c r="A83" s="135"/>
+      <c r="B83" s="135"/>
       <c r="C83" s="21" t="s">
         <v>185</v>
       </c>
@@ -3466,8 +3485,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="108"/>
-      <c r="B84" s="108"/>
+      <c r="A84" s="135"/>
+      <c r="B84" s="135"/>
       <c r="C84" s="21" t="s">
         <v>187</v>
       </c>
@@ -3477,8 +3496,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="108"/>
-      <c r="B85" s="108"/>
+      <c r="A85" s="135"/>
+      <c r="B85" s="135"/>
       <c r="C85" s="21" t="s">
         <v>189</v>
       </c>
@@ -3488,48 +3507,48 @@
       </c>
     </row>
     <row r="86" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="108"/>
-      <c r="B86" s="108"/>
+      <c r="A86" s="135"/>
+      <c r="B86" s="135"/>
       <c r="C86" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D86" s="22"/>
-      <c r="E86" s="103" t="s">
+      <c r="E86" s="131" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="108"/>
-      <c r="B87" s="108"/>
+      <c r="A87" s="135"/>
+      <c r="B87" s="135"/>
       <c r="C87" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D87" s="22"/>
-      <c r="E87" s="104"/>
+      <c r="E87" s="133"/>
     </row>
     <row r="88" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="108"/>
-      <c r="B88" s="108"/>
+      <c r="A88" s="135"/>
+      <c r="B88" s="135"/>
       <c r="C88" s="21" t="s">
         <v>194</v>
       </c>
       <c r="D88" s="22"/>
-      <c r="E88" s="105" t="s">
+      <c r="E88" s="142" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="108"/>
-      <c r="B89" s="108"/>
+      <c r="A89" s="135"/>
+      <c r="B89" s="135"/>
       <c r="C89" s="21" t="s">
         <v>196</v>
       </c>
       <c r="D89" s="22"/>
-      <c r="E89" s="106"/>
+      <c r="E89" s="143"/>
     </row>
     <row r="90" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="108"/>
-      <c r="B90" s="108"/>
+      <c r="A90" s="135"/>
+      <c r="B90" s="135"/>
       <c r="C90" s="21" t="s">
         <v>197</v>
       </c>
@@ -3539,8 +3558,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="108"/>
-      <c r="B91" s="108"/>
+      <c r="A91" s="135"/>
+      <c r="B91" s="135"/>
       <c r="C91" s="21" t="s">
         <v>199</v>
       </c>
@@ -3550,8 +3569,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="109"/>
-      <c r="B92" s="109"/>
+      <c r="A92" s="136"/>
+      <c r="B92" s="136"/>
       <c r="C92" s="21" t="s">
         <v>201</v>
       </c>
@@ -3561,45 +3580,45 @@
       </c>
     </row>
     <row r="93" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="100">
+      <c r="A93" s="139">
         <v>9</v>
       </c>
-      <c r="B93" s="100" t="s">
+      <c r="B93" s="139" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>203</v>
       </c>
       <c r="D93" s="25"/>
-      <c r="E93" s="64" t="s">
+      <c r="E93" s="63" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="101"/>
-      <c r="B94" s="101"/>
+      <c r="A94" s="140"/>
+      <c r="B94" s="140"/>
       <c r="C94" s="13" t="s">
         <v>204</v>
       </c>
       <c r="D94" s="25"/>
-      <c r="E94" s="65" t="s">
+      <c r="E94" s="64" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="101"/>
-      <c r="B95" s="101"/>
+      <c r="A95" s="140"/>
+      <c r="B95" s="140"/>
       <c r="C95" s="13" t="s">
         <v>205</v>
       </c>
       <c r="D95" s="25"/>
-      <c r="E95" s="63" t="s">
+      <c r="E95" s="62" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="101"/>
-      <c r="B96" s="101"/>
+      <c r="A96" s="140"/>
+      <c r="B96" s="140"/>
       <c r="C96" s="56" t="s">
         <v>206</v>
       </c>
@@ -3609,8 +3628,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="101"/>
-      <c r="B97" s="101"/>
+      <c r="A97" s="140"/>
+      <c r="B97" s="140"/>
       <c r="C97" s="56" t="s">
         <v>211</v>
       </c>
@@ -3622,8 +3641,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="101"/>
-      <c r="B98" s="101"/>
+      <c r="A98" s="140"/>
+      <c r="B98" s="140"/>
       <c r="C98" s="56" t="s">
         <v>214</v>
       </c>
@@ -3633,8 +3652,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="102"/>
-      <c r="B99" s="102"/>
+      <c r="A99" s="141"/>
+      <c r="B99" s="141"/>
       <c r="C99" s="13" t="s">
         <v>216</v>
       </c>
@@ -3848,6 +3867,31 @@
     <row r="162" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B78:B92"/>
+    <mergeCell ref="A78:A92"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="B38:B60"/>
     <mergeCell ref="A38:A60"/>
@@ -3861,31 +3905,6 @@
     <mergeCell ref="A18:A37"/>
     <mergeCell ref="B18:B37"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B78:B92"/>
-    <mergeCell ref="A78:A92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/attck_windows_tech.xlsx
+++ b/attck_windows_tech.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="-120" windowWidth="18420" windowHeight="7395"/>
+    <workbookView xWindow="4530" yWindow="-120" windowWidth="18420" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="276">
   <si>
     <t>ID</t>
   </si>
@@ -843,9 +843,6 @@
     <t>check event log của Powershell (-WindowStyle Hidden, -w Hidden)</t>
   </si>
   <si>
-    <t>check event log 4688 cho CreatProcess cmd.exe</t>
-  </si>
-  <si>
     <t xml:space="preserve">check theo event ID 1100 </t>
   </si>
   <si>
@@ -877,6 +874,15 @@
   </si>
   <si>
     <t>check log registry modified theo event id 4657(default không enable audit registry)</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/windows-server/identity/ad-ds/manage/component-updates/command-line-process-auditing</t>
+  </si>
+  <si>
+    <t>check event log 4688 cho CreatProcess cmd.exe (default disable)</t>
+  </si>
+  <si>
+    <t>check theo event id 4768, 4769 (chưa set up được lab)</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1178,9 +1184,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1202,16 +1205,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1222,15 +1216,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1308,6 +1293,41 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1326,13 +1346,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,16 +1373,22 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1383,6 +1415,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1452,30 +1493,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1795,9 +1814,9 @@
   <dimension ref="A1:XFD83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1821,408 +1840,410 @@
       <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-    </row>
-    <row r="2" spans="1:6 16384:16384" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91">
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+    </row>
+    <row r="2" spans="1:6 16384:16384" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84">
         <v>1</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="93" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="86" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6 16384:16384" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="72" t="s">
+    <row r="3" spans="1:6 16384:16384" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="XFD3" s="68" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6 16384:16384" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="119">
+        <v>2</v>
+      </c>
+      <c r="B4" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6 16384:16384" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="120"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="67" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="113">
+        <v>3</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="F3" s="74" t="s">
-        <v>267</v>
-      </c>
-      <c r="XFD3" s="75" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6 16384:16384" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111">
-        <v>2</v>
-      </c>
-      <c r="B4" s="111" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="86" t="s">
+    </row>
+    <row r="7" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="114"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="114"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="114"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="114"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="84"/>
+      <c r="F10" s="88" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="114"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="84"/>
+      <c r="F11" s="88" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="114"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="84"/>
+      <c r="F12" s="88" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="114"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="84"/>
+      <c r="F13" s="88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6 16384:16384" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="114"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="84"/>
+      <c r="F15" s="88" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="114"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="84" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="84"/>
+      <c r="F16" s="88" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="114"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="90" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="74" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6 16384:16384" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="105">
-        <v>3</v>
-      </c>
-      <c r="B6" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="144" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="88" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="89" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="144" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="91" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="95" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="91" t="s">
-        <v>224</v>
-      </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="95" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="91"/>
-      <c r="F12" s="95" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="95" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6 16384:16384" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="91" t="s">
-        <v>228</v>
-      </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="95" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="95" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="148" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="147" t="s">
+    <row r="18" spans="1:6" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="114"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="84"/>
+      <c r="F18" s="88" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="114"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="90" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="148" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="147" t="s">
-        <v>273</v>
-      </c>
-    </row>
     <row r="20" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="57" t="s">
+      <c r="A20" s="114"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="56" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="F20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:6" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="114"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="84"/>
+      <c r="F21" s="88" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="114"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="121" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="97"/>
+      <c r="F22" s="117" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="96" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="99"/>
+      <c r="F23" s="118"/>
+    </row>
+    <row r="24" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="115"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="94" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="102" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="109" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="110"/>
-    </row>
-    <row r="24" spans="1:6" s="148" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="107"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="150" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="151" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="152" t="s">
+      <c r="F24" s="95" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="96">
+    <row r="25" spans="1:6" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="102">
         <v>4</v>
       </c>
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="84" t="s">
         <v>241</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="100" t="s">
+      <c r="E25" s="101"/>
+      <c r="F25" s="108" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="46" t="s">
+    <row r="26" spans="1:6" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="102"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="101"/>
-    </row>
-    <row r="27" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="46" t="s">
+      <c r="E26" s="81"/>
+      <c r="F26" s="109"/>
+    </row>
+    <row r="27" spans="1:6" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="102"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="84" t="s">
         <v>244</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67" t="s">
+      <c r="E27" s="84"/>
+      <c r="F27" s="157" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="96"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="97" t="s">
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103" t="s">
         <v>246</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="100" t="s">
+      <c r="E28" s="57"/>
+      <c r="F28" s="106" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="96"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="98"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="101"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="107"/>
     </row>
     <row r="30" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="96"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="98"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="104"/>
       <c r="D30" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="100" t="s">
+      <c r="E30" s="63"/>
+      <c r="F30" s="106" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="96"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="99"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="105"/>
       <c r="D31" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="101"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="107"/>
     </row>
     <row r="32" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
@@ -2234,7 +2255,7 @@
       <c r="C32" s="26"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="50" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2245,7 +2266,7 @@
       <c r="B33" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="61" t="s">
         <v>254</v>
       </c>
       <c r="D33" s="34"/>
@@ -2541,59 +2562,59 @@
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="108"/>
+      <c r="E1" s="116"/>
     </row>
     <row r="2" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111">
+      <c r="A2" s="119">
         <v>1</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="140" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="134" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="128"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="141"/>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="122"/>
+      <c r="E3" s="135"/>
     </row>
     <row r="4" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="128"/>
+      <c r="A4" s="143"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="141"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="122"/>
+      <c r="E4" s="135"/>
     </row>
     <row r="5" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="129"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="123"/>
+      <c r="E5" s="136"/>
     </row>
     <row r="6" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="127" t="s">
+      <c r="A6" s="143"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="140" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2604,9 +2625,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="130"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="129"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="142"/>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2615,8 +2636,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="130"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="37" t="s">
         <v>27</v>
       </c>
@@ -2626,8 +2647,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="130"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="37" t="s">
         <v>31</v>
       </c>
@@ -2637,8 +2658,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
+      <c r="A10" s="143"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="37" t="s">
         <v>32</v>
       </c>
@@ -2648,8 +2669,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="130"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="37" t="s">
         <v>34</v>
       </c>
@@ -2659,10 +2680,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="111">
+      <c r="A12" s="119">
         <v>2</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="119" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -2676,48 +2697,48 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="124" t="s">
+      <c r="A13" s="143"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="137" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="121" t="s">
+      <c r="E13" s="134" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="125"/>
+      <c r="A14" s="143"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="122"/>
+      <c r="E14" s="135"/>
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="125"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="122"/>
+      <c r="E15" s="135"/>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="126"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="139"/>
       <c r="D16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="123"/>
+      <c r="E16" s="136"/>
     </row>
     <row r="17" spans="1:5" s="41" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
-      <c r="B17" s="112"/>
+      <c r="A17" s="120"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="39" t="s">
         <v>46</v>
       </c>
@@ -2727,10 +2748,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="105">
+      <c r="A18" s="113">
         <v>3</v>
       </c>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="113" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -2742,8 +2763,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -2753,8 +2774,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
@@ -2766,9 +2787,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="104"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="16" t="s">
         <v>57</v>
       </c>
@@ -2777,9 +2798,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="103"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="133"/>
       <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
@@ -2788,9 +2809,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="102" t="s">
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="131" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2801,9 +2822,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="103"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="133"/>
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
@@ -2812,50 +2833,50 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="102" t="s">
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="131" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="119" t="s">
+      <c r="E25" s="129" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="104"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="132"/>
       <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="120"/>
+      <c r="E26" s="130"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="104"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="132"/>
       <c r="D27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="119" t="s">
+      <c r="E27" s="129" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="103"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="133"/>
       <c r="D28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="120"/>
+      <c r="E28" s="130"/>
     </row>
     <row r="29" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
-      <c r="B29" s="106"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="7" t="s">
         <v>76</v>
       </c>
@@ -2865,8 +2886,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
-      <c r="B30" s="106"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="36" t="s">
         <v>79</v>
       </c>
@@ -2876,9 +2897,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="102" t="s">
+      <c r="A31" s="114"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -2889,9 +2910,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="106"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="104"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="132"/>
       <c r="D32" s="6" t="s">
         <v>83</v>
       </c>
@@ -2900,9 +2921,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="104"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="132"/>
       <c r="D33" s="6" t="s">
         <v>85</v>
       </c>
@@ -2911,9 +2932,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="103"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="133"/>
       <c r="D34" s="6" t="s">
         <v>87</v>
       </c>
@@ -2922,8 +2943,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="106"/>
-      <c r="B35" s="106"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="114"/>
       <c r="C35" s="7" t="s">
         <v>89</v>
       </c>
@@ -2933,8 +2954,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="106"/>
-      <c r="B36" s="106"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="114"/>
       <c r="C36" s="7" t="s">
         <v>91</v>
       </c>
@@ -2946,8 +2967,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="106"/>
-      <c r="B37" s="106"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="114"/>
       <c r="C37" s="36" t="s">
         <v>94</v>
       </c>
@@ -2957,10 +2978,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="116">
+      <c r="A38" s="126">
         <v>4</v>
       </c>
-      <c r="B38" s="116" t="s">
+      <c r="B38" s="126" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -2974,9 +2995,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="117"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="97" t="s">
+      <c r="A39" s="127"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="103" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -2987,9 +3008,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="117"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="98"/>
+      <c r="A40" s="127"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="104"/>
       <c r="D40" s="42" t="s">
         <v>101</v>
       </c>
@@ -2998,9 +3019,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="117"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="99"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="105"/>
       <c r="D41" s="42" t="s">
         <v>103</v>
       </c>
@@ -3009,8 +3030,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="117"/>
-      <c r="B42" s="117"/>
+      <c r="A42" s="127"/>
+      <c r="B42" s="127"/>
       <c r="C42" s="20" t="s">
         <v>105</v>
       </c>
@@ -3020,9 +3041,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="117"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="113" t="s">
+      <c r="A43" s="127"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="123" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -3033,9 +3054,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="117"/>
-      <c r="B44" s="117"/>
-      <c r="C44" s="115"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="125"/>
       <c r="D44" s="30" t="s">
         <v>110</v>
       </c>
@@ -3044,9 +3065,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="117"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="113" t="s">
+      <c r="A45" s="127"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="123" t="s">
         <v>112</v>
       </c>
       <c r="D45" s="30" t="s">
@@ -3057,9 +3078,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="117"/>
-      <c r="B46" s="117"/>
-      <c r="C46" s="114"/>
+      <c r="A46" s="127"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="124"/>
       <c r="D46" s="30" t="s">
         <v>116</v>
       </c>
@@ -3068,9 +3089,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="117"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="114"/>
+      <c r="A47" s="127"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="124"/>
       <c r="D47" s="30" t="s">
         <v>118</v>
       </c>
@@ -3079,9 +3100,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="117"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="115"/>
+      <c r="A48" s="127"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="125"/>
       <c r="D48" s="30" t="s">
         <v>120</v>
       </c>
@@ -3090,9 +3111,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="117"/>
-      <c r="B49" s="117"/>
-      <c r="C49" s="113" t="s">
+      <c r="A49" s="127"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="123" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -3103,9 +3124,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="117"/>
-      <c r="B50" s="117"/>
-      <c r="C50" s="115"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="125"/>
       <c r="D50" s="46" t="s">
         <v>124</v>
       </c>
@@ -3114,8 +3135,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="117"/>
-      <c r="B51" s="117"/>
+      <c r="A51" s="127"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="48" t="s">
         <v>126</v>
       </c>
@@ -3125,9 +3146,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="117"/>
-      <c r="B52" s="117"/>
-      <c r="C52" s="113" t="s">
+      <c r="A52" s="127"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -3138,9 +3159,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="117"/>
-      <c r="B53" s="117"/>
-      <c r="C53" s="114"/>
+      <c r="A53" s="127"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="124"/>
       <c r="D53" s="30" t="s">
         <v>130</v>
       </c>
@@ -3149,9 +3170,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="117"/>
-      <c r="B54" s="117"/>
-      <c r="C54" s="114"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="124"/>
       <c r="D54" s="30" t="s">
         <v>132</v>
       </c>
@@ -3160,9 +3181,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="117"/>
-      <c r="B55" s="117"/>
-      <c r="C55" s="114"/>
+      <c r="A55" s="127"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="124"/>
       <c r="D55" s="30" t="s">
         <v>134</v>
       </c>
@@ -3171,9 +3192,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="117"/>
-      <c r="B56" s="117"/>
-      <c r="C56" s="114"/>
+      <c r="A56" s="127"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="124"/>
       <c r="D56" s="30" t="s">
         <v>136</v>
       </c>
@@ -3182,9 +3203,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="117"/>
-      <c r="B57" s="117"/>
-      <c r="C57" s="115"/>
+      <c r="A57" s="127"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="125"/>
       <c r="D57" s="30" t="s">
         <v>138</v>
       </c>
@@ -3193,8 +3214,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="117"/>
-      <c r="B58" s="117"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="127"/>
       <c r="C58" s="48" t="s">
         <v>140</v>
       </c>
@@ -3204,8 +3225,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="117"/>
-      <c r="B59" s="117"/>
+      <c r="A59" s="127"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="47" t="s">
         <v>142</v>
       </c>
@@ -3215,8 +3236,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="118"/>
-      <c r="B60" s="118"/>
+      <c r="A60" s="128"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="48" t="s">
         <v>144</v>
       </c>
@@ -3226,10 +3247,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="137">
+      <c r="A61" s="150">
         <v>6</v>
       </c>
-      <c r="B61" s="137" t="s">
+      <c r="B61" s="150" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="26" t="s">
@@ -3241,8 +3262,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="138"/>
-      <c r="B62" s="138"/>
+      <c r="A62" s="151"/>
+      <c r="B62" s="151"/>
       <c r="C62" s="26" t="s">
         <v>148</v>
       </c>
@@ -3252,47 +3273,47 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="138"/>
-      <c r="B63" s="138"/>
+      <c r="A63" s="151"/>
+      <c r="B63" s="151"/>
       <c r="C63" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D63" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="E63" s="51" t="s">
+      <c r="E63" s="50" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="138"/>
-      <c r="B64" s="138"/>
+      <c r="A64" s="151"/>
+      <c r="B64" s="151"/>
       <c r="C64" s="26" t="s">
         <v>154</v>
       </c>
       <c r="D64" s="34"/>
-      <c r="E64" s="52" t="s">
+      <c r="E64" s="51" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="134">
+      <c r="A65" s="147">
         <v>7</v>
       </c>
-      <c r="B65" s="134" t="s">
+      <c r="B65" s="147" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>155</v>
       </c>
       <c r="D65" s="22"/>
-      <c r="E65" s="53" t="s">
+      <c r="E65" s="52" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="135"/>
-      <c r="B66" s="135"/>
+      <c r="A66" s="148"/>
+      <c r="B66" s="148"/>
       <c r="C66" s="21" t="s">
         <v>157</v>
       </c>
@@ -3302,8 +3323,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="135"/>
-      <c r="B67" s="135"/>
+      <c r="A67" s="148"/>
+      <c r="B67" s="148"/>
       <c r="C67" s="21" t="s">
         <v>159</v>
       </c>
@@ -3313,8 +3334,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="135"/>
-      <c r="B68" s="135"/>
+      <c r="A68" s="148"/>
+      <c r="B68" s="148"/>
       <c r="C68" s="21" t="s">
         <v>161</v>
       </c>
@@ -3324,8 +3345,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="135"/>
-      <c r="B69" s="135"/>
+      <c r="A69" s="148"/>
+      <c r="B69" s="148"/>
       <c r="C69" s="21" t="s">
         <v>162</v>
       </c>
@@ -3337,8 +3358,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="135"/>
-      <c r="B70" s="135"/>
+      <c r="A70" s="148"/>
+      <c r="B70" s="148"/>
       <c r="C70" s="21" t="s">
         <v>165</v>
       </c>
@@ -3348,79 +3369,79 @@
       </c>
     </row>
     <row r="71" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="135"/>
-      <c r="B71" s="135"/>
+      <c r="A71" s="148"/>
+      <c r="B71" s="148"/>
       <c r="C71" s="21" t="s">
         <v>166</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="131" t="s">
+      <c r="E71" s="144" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="135"/>
-      <c r="B72" s="135"/>
+      <c r="A72" s="148"/>
+      <c r="B72" s="148"/>
       <c r="C72" s="21" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="22"/>
-      <c r="E72" s="132"/>
+      <c r="E72" s="145"/>
     </row>
     <row r="73" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="135"/>
-      <c r="B73" s="135"/>
+      <c r="A73" s="148"/>
+      <c r="B73" s="148"/>
       <c r="C73" s="21" t="s">
         <v>169</v>
       </c>
       <c r="D73" s="22"/>
-      <c r="E73" s="132"/>
+      <c r="E73" s="145"/>
     </row>
     <row r="74" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="135"/>
-      <c r="B74" s="135"/>
+      <c r="A74" s="148"/>
+      <c r="B74" s="148"/>
       <c r="C74" s="21" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="22"/>
-      <c r="E74" s="133"/>
+      <c r="E74" s="146"/>
     </row>
     <row r="75" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="135"/>
-      <c r="B75" s="135"/>
+      <c r="A75" s="148"/>
+      <c r="B75" s="148"/>
       <c r="C75" s="21" t="s">
         <v>171</v>
       </c>
       <c r="D75" s="22"/>
-      <c r="E75" s="54" t="s">
+      <c r="E75" s="53" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="135"/>
-      <c r="B76" s="135"/>
+      <c r="A76" s="148"/>
+      <c r="B76" s="148"/>
       <c r="C76" s="21" t="s">
         <v>173</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="131" t="s">
+      <c r="E76" s="144" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="136"/>
-      <c r="B77" s="136"/>
+      <c r="A77" s="149"/>
+      <c r="B77" s="149"/>
       <c r="C77" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D77" s="22"/>
-      <c r="E77" s="133"/>
+      <c r="E77" s="146"/>
     </row>
     <row r="78" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="134">
+      <c r="A78" s="147">
         <v>8</v>
       </c>
-      <c r="B78" s="134" t="s">
+      <c r="B78" s="147" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="21" t="s">
@@ -3432,9 +3453,9 @@
       </c>
     </row>
     <row r="79" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="135"/>
-      <c r="B79" s="135"/>
-      <c r="C79" s="55" t="s">
+      <c r="A79" s="148"/>
+      <c r="B79" s="148"/>
+      <c r="C79" s="54" t="s">
         <v>178</v>
       </c>
       <c r="D79" s="22"/>
@@ -3443,28 +3464,28 @@
       </c>
     </row>
     <row r="80" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="135"/>
-      <c r="B80" s="135"/>
+      <c r="A80" s="148"/>
+      <c r="B80" s="148"/>
       <c r="C80" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="22"/>
-      <c r="E80" s="131" t="s">
+      <c r="E80" s="144" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="135"/>
-      <c r="B81" s="135"/>
+      <c r="A81" s="148"/>
+      <c r="B81" s="148"/>
       <c r="C81" s="21" t="s">
         <v>181</v>
       </c>
       <c r="D81" s="22"/>
-      <c r="E81" s="133"/>
+      <c r="E81" s="146"/>
     </row>
     <row r="82" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="135"/>
-      <c r="B82" s="135"/>
+      <c r="A82" s="148"/>
+      <c r="B82" s="148"/>
       <c r="C82" s="21" t="s">
         <v>183</v>
       </c>
@@ -3474,8 +3495,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="135"/>
-      <c r="B83" s="135"/>
+      <c r="A83" s="148"/>
+      <c r="B83" s="148"/>
       <c r="C83" s="21" t="s">
         <v>185</v>
       </c>
@@ -3485,19 +3506,19 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="135"/>
-      <c r="B84" s="135"/>
+      <c r="A84" s="148"/>
+      <c r="B84" s="148"/>
       <c r="C84" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D84" s="22"/>
-      <c r="E84" s="53" t="s">
+      <c r="E84" s="52" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="135"/>
-      <c r="B85" s="135"/>
+      <c r="A85" s="148"/>
+      <c r="B85" s="148"/>
       <c r="C85" s="21" t="s">
         <v>189</v>
       </c>
@@ -3507,48 +3528,48 @@
       </c>
     </row>
     <row r="86" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="135"/>
-      <c r="B86" s="135"/>
+      <c r="A86" s="148"/>
+      <c r="B86" s="148"/>
       <c r="C86" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D86" s="22"/>
-      <c r="E86" s="131" t="s">
+      <c r="E86" s="144" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="135"/>
-      <c r="B87" s="135"/>
+      <c r="A87" s="148"/>
+      <c r="B87" s="148"/>
       <c r="C87" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D87" s="22"/>
-      <c r="E87" s="133"/>
+      <c r="E87" s="146"/>
     </row>
     <row r="88" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="135"/>
-      <c r="B88" s="135"/>
+      <c r="A88" s="148"/>
+      <c r="B88" s="148"/>
       <c r="C88" s="21" t="s">
         <v>194</v>
       </c>
       <c r="D88" s="22"/>
-      <c r="E88" s="142" t="s">
+      <c r="E88" s="155" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="135"/>
-      <c r="B89" s="135"/>
+      <c r="A89" s="148"/>
+      <c r="B89" s="148"/>
       <c r="C89" s="21" t="s">
         <v>196</v>
       </c>
       <c r="D89" s="22"/>
-      <c r="E89" s="143"/>
+      <c r="E89" s="156"/>
     </row>
     <row r="90" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="135"/>
-      <c r="B90" s="135"/>
+      <c r="A90" s="148"/>
+      <c r="B90" s="148"/>
       <c r="C90" s="21" t="s">
         <v>197</v>
       </c>
@@ -3558,8 +3579,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="135"/>
-      <c r="B91" s="135"/>
+      <c r="A91" s="148"/>
+      <c r="B91" s="148"/>
       <c r="C91" s="21" t="s">
         <v>199</v>
       </c>
@@ -3569,8 +3590,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="136"/>
-      <c r="B92" s="136"/>
+      <c r="A92" s="149"/>
+      <c r="B92" s="149"/>
       <c r="C92" s="21" t="s">
         <v>201</v>
       </c>
@@ -3580,46 +3601,46 @@
       </c>
     </row>
     <row r="93" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="139">
+      <c r="A93" s="152">
         <v>9</v>
       </c>
-      <c r="B93" s="139" t="s">
+      <c r="B93" s="152" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>203</v>
       </c>
       <c r="D93" s="25"/>
-      <c r="E93" s="63" t="s">
+      <c r="E93" s="59" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="140"/>
-      <c r="B94" s="140"/>
+      <c r="A94" s="153"/>
+      <c r="B94" s="153"/>
       <c r="C94" s="13" t="s">
         <v>204</v>
       </c>
       <c r="D94" s="25"/>
-      <c r="E94" s="64" t="s">
+      <c r="E94" s="60" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="140"/>
-      <c r="B95" s="140"/>
+      <c r="A95" s="153"/>
+      <c r="B95" s="153"/>
       <c r="C95" s="13" t="s">
         <v>205</v>
       </c>
       <c r="D95" s="25"/>
-      <c r="E95" s="62" t="s">
+      <c r="E95" s="58" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="140"/>
-      <c r="B96" s="140"/>
-      <c r="C96" s="56" t="s">
+      <c r="A96" s="153"/>
+      <c r="B96" s="153"/>
+      <c r="C96" s="55" t="s">
         <v>206</v>
       </c>
       <c r="D96" s="25"/>
@@ -3628,9 +3649,9 @@
       </c>
     </row>
     <row r="97" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="140"/>
-      <c r="B97" s="140"/>
-      <c r="C97" s="56" t="s">
+      <c r="A97" s="153"/>
+      <c r="B97" s="153"/>
+      <c r="C97" s="55" t="s">
         <v>211</v>
       </c>
       <c r="D97" s="25" t="s">
@@ -3641,9 +3662,9 @@
       </c>
     </row>
     <row r="98" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="140"/>
-      <c r="B98" s="140"/>
-      <c r="C98" s="56" t="s">
+      <c r="A98" s="153"/>
+      <c r="B98" s="153"/>
+      <c r="C98" s="55" t="s">
         <v>214</v>
       </c>
       <c r="D98" s="25"/>
@@ -3652,8 +3673,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="141"/>
-      <c r="B99" s="141"/>
+      <c r="A99" s="154"/>
+      <c r="B99" s="154"/>
       <c r="C99" s="13" t="s">
         <v>216</v>
       </c>

--- a/attck_windows_tech.xlsx
+++ b/attck_windows_tech.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="-120" windowWidth="18420" windowHeight="7395"/>
+    <workbookView xWindow="5460" yWindow="-120" windowWidth="15630" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="3" r:id="rId1"/>
@@ -1328,16 +1328,49 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1352,43 +1385,91 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,87 +1495,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1813,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:F1"/>
     </sheetView>
@@ -1840,17 +1840,17 @@
       <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:6 16384:16384" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84">
         <v>1</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="112" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="85" t="s">
@@ -1866,7 +1866,7 @@
     </row>
     <row r="3" spans="1:6 16384:16384" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="64"/>
-      <c r="B3" s="120"/>
+      <c r="B3" s="113"/>
       <c r="C3" s="65" t="s">
         <v>36</v>
       </c>
@@ -1882,10 +1882,10 @@
       </c>
     </row>
     <row r="4" spans="1:6 16384:16384" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119">
+      <c r="A4" s="112">
         <v>2</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="112" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="77" t="s">
@@ -1900,8 +1900,8 @@
       </c>
     </row>
     <row r="5" spans="1:6 16384:16384" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="74" t="s">
         <v>221</v>
       </c>
@@ -1912,10 +1912,10 @@
       </c>
     </row>
     <row r="6" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113">
+      <c r="A6" s="106">
         <v>3</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="106" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="70" t="s">
@@ -1928,9 +1928,9 @@
       </c>
     </row>
     <row r="7" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="110" t="s">
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="103" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="81" t="s">
@@ -1942,9 +1942,9 @@
       </c>
     </row>
     <row r="8" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="111"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="81" t="s">
         <v>56</v>
       </c>
@@ -1954,9 +1954,9 @@
       </c>
     </row>
     <row r="9" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="110" t="s">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="103" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="81" t="s">
@@ -1968,9 +1968,9 @@
       </c>
     </row>
     <row r="10" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="112"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="84" t="s">
         <v>223</v>
       </c>
@@ -1980,9 +1980,9 @@
       </c>
     </row>
     <row r="11" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="112"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="84" t="s">
         <v>224</v>
       </c>
@@ -1992,9 +1992,9 @@
       </c>
     </row>
     <row r="12" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="112"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="84" t="s">
         <v>226</v>
       </c>
@@ -2004,9 +2004,9 @@
       </c>
     </row>
     <row r="13" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="111"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="84" t="s">
         <v>62</v>
       </c>
@@ -2016,8 +2016,8 @@
       </c>
     </row>
     <row r="14" spans="1:6 16384:16384" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="93" t="s">
         <v>68</v>
       </c>
@@ -2030,9 +2030,9 @@
       </c>
     </row>
     <row r="15" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="114"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="110" t="s">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="103" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="84" t="s">
@@ -2044,9 +2044,9 @@
       </c>
     </row>
     <row r="16" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="112"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="105"/>
       <c r="D16" s="84" t="s">
         <v>230</v>
       </c>
@@ -2056,9 +2056,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="111"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="104"/>
       <c r="D17" s="66" t="s">
         <v>232</v>
       </c>
@@ -2068,8 +2068,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="114"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="89" t="s">
         <v>9</v>
       </c>
@@ -2082,8 +2082,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114"/>
-      <c r="B19" s="114"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="92" t="s">
         <v>75</v>
       </c>
@@ -2094,8 +2094,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="114"/>
-      <c r="B20" s="114"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="56" t="s">
         <v>78</v>
       </c>
@@ -2108,8 +2108,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="114"/>
-      <c r="B21" s="114"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="100" t="s">
         <v>10</v>
       </c>
@@ -2122,32 +2122,32 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="114"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="121" t="s">
+      <c r="A22" s="107"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="114" t="s">
         <v>237</v>
       </c>
       <c r="D22" s="96" t="s">
         <v>238</v>
       </c>
       <c r="E22" s="97"/>
-      <c r="F22" s="117" t="s">
+      <c r="F22" s="110" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="114"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="122"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="96" t="s">
         <v>240</v>
       </c>
       <c r="E23" s="99"/>
-      <c r="F23" s="118"/>
+      <c r="F23" s="111"/>
     </row>
     <row r="24" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
-      <c r="B24" s="115"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="93" t="s">
         <v>94</v>
       </c>
@@ -2160,90 +2160,90 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="102">
+      <c r="A25" s="116">
         <v>4</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="103" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="84" t="s">
         <v>241</v>
       </c>
       <c r="E25" s="101"/>
-      <c r="F25" s="108" t="s">
+      <c r="F25" s="119" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="102"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="112"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="84" t="s">
         <v>243</v>
       </c>
       <c r="E26" s="81"/>
-      <c r="F26" s="109"/>
+      <c r="F26" s="120"/>
     </row>
     <row r="27" spans="1:6" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="102"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="111"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="104"/>
       <c r="D27" s="84" t="s">
         <v>244</v>
       </c>
       <c r="E27" s="84"/>
-      <c r="F27" s="157" t="s">
+      <c r="F27" s="102" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="102"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103" t="s">
+      <c r="A28" s="116"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="121" t="s">
         <v>246</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>247</v>
       </c>
       <c r="E28" s="57"/>
-      <c r="F28" s="106" t="s">
+      <c r="F28" s="117" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="102"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="104"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="122"/>
       <c r="D29" s="30" t="s">
         <v>249</v>
       </c>
       <c r="E29" s="62"/>
-      <c r="F29" s="107"/>
+      <c r="F29" s="118"/>
     </row>
     <row r="30" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="102"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="104"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="122"/>
       <c r="D30" s="30" t="s">
         <v>250</v>
       </c>
       <c r="E30" s="63"/>
-      <c r="F30" s="106" t="s">
+      <c r="F30" s="117" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="105"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="123"/>
       <c r="D31" s="30" t="s">
         <v>251</v>
       </c>
       <c r="E31" s="62"/>
-      <c r="F31" s="107"/>
+      <c r="F31" s="118"/>
     </row>
     <row r="32" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
@@ -2506,6 +2506,13 @@
     <row r="83" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C28:C31"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B6:B24"/>
@@ -2517,13 +2524,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2562,59 +2562,59 @@
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="116"/>
+      <c r="E1" s="109"/>
     </row>
     <row r="2" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119">
+      <c r="A2" s="112">
         <v>1</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="138" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="142" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="141"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="148"/>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="135"/>
+      <c r="E3" s="143"/>
     </row>
     <row r="4" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="143"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="141"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="135"/>
+      <c r="E4" s="143"/>
     </row>
     <row r="5" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="143"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="142"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="139"/>
       <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="136"/>
+      <c r="E5" s="144"/>
     </row>
     <row r="6" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="143"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="140" t="s">
+      <c r="A6" s="137"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="138" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2625,9 +2625,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="143"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="142"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2636,8 +2636,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="143"/>
-      <c r="B8" s="143"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="37" t="s">
         <v>27</v>
       </c>
@@ -2647,8 +2647,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="143"/>
-      <c r="B9" s="143"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="37" t="s">
         <v>31</v>
       </c>
@@ -2658,8 +2658,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="143"/>
-      <c r="B10" s="143"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="137"/>
       <c r="C10" s="37" t="s">
         <v>32</v>
       </c>
@@ -2669,8 +2669,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="143"/>
-      <c r="B11" s="143"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="37" t="s">
         <v>34</v>
       </c>
@@ -2680,10 +2680,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="119">
+      <c r="A12" s="112">
         <v>2</v>
       </c>
-      <c r="B12" s="119" t="s">
+      <c r="B12" s="112" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -2697,48 +2697,48 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="143"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="137" t="s">
+      <c r="A13" s="137"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="145" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="134" t="s">
+      <c r="E13" s="142" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="143"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="138"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="146"/>
       <c r="D14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="135"/>
+      <c r="E14" s="143"/>
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="143"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="138"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="146"/>
       <c r="D15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="135"/>
+      <c r="E15" s="143"/>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="143"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="139"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="136"/>
+      <c r="E16" s="144"/>
     </row>
     <row r="17" spans="1:5" s="41" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120"/>
-      <c r="B17" s="120"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="39" t="s">
         <v>46</v>
       </c>
@@ -2748,10 +2748,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="113">
+      <c r="A18" s="106">
         <v>3</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="106" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -2763,8 +2763,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114"/>
-      <c r="B19" s="114"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -2774,8 +2774,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="114"/>
-      <c r="B20" s="114"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
@@ -2787,9 +2787,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="114"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="132"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="149"/>
       <c r="D21" s="16" t="s">
         <v>57</v>
       </c>
@@ -2798,9 +2798,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="114"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="133"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="141"/>
       <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
@@ -2809,9 +2809,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="114"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="131" t="s">
+      <c r="A23" s="107"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="140" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2822,9 +2822,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="133"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="141"/>
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
@@ -2833,50 +2833,50 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="114"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="131" t="s">
+      <c r="A25" s="107"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="140" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="129" t="s">
+      <c r="E25" s="156" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="132"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="149"/>
       <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="130"/>
+      <c r="E26" s="157"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="114"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="132"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="149"/>
       <c r="D27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="129" t="s">
+      <c r="E27" s="156" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="114"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="133"/>
+      <c r="A28" s="107"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="141"/>
       <c r="D28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="130"/>
+      <c r="E28" s="157"/>
     </row>
     <row r="29" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="114"/>
-      <c r="B29" s="114"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="7" t="s">
         <v>76</v>
       </c>
@@ -2886,8 +2886,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="114"/>
-      <c r="B30" s="114"/>
+      <c r="A30" s="107"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="36" t="s">
         <v>79</v>
       </c>
@@ -2897,9 +2897,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="114"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="131" t="s">
+      <c r="A31" s="107"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="140" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -2910,9 +2910,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="114"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="132"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="149"/>
       <c r="D32" s="6" t="s">
         <v>83</v>
       </c>
@@ -2921,9 +2921,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="114"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="132"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="149"/>
       <c r="D33" s="6" t="s">
         <v>85</v>
       </c>
@@ -2932,9 +2932,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="114"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="133"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="141"/>
       <c r="D34" s="6" t="s">
         <v>87</v>
       </c>
@@ -2943,8 +2943,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="114"/>
-      <c r="B35" s="114"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="107"/>
       <c r="C35" s="7" t="s">
         <v>89</v>
       </c>
@@ -2954,8 +2954,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="114"/>
-      <c r="B36" s="114"/>
+      <c r="A36" s="107"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="7" t="s">
         <v>91</v>
       </c>
@@ -2967,8 +2967,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="114"/>
-      <c r="B37" s="114"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="36" t="s">
         <v>94</v>
       </c>
@@ -2978,10 +2978,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="126">
+      <c r="A38" s="153">
         <v>4</v>
       </c>
-      <c r="B38" s="126" t="s">
+      <c r="B38" s="153" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -2995,9 +2995,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="127"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="103" t="s">
+      <c r="A39" s="154"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="121" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -3008,9 +3008,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="127"/>
-      <c r="B40" s="127"/>
-      <c r="C40" s="104"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="122"/>
       <c r="D40" s="42" t="s">
         <v>101</v>
       </c>
@@ -3019,9 +3019,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="127"/>
-      <c r="B41" s="127"/>
-      <c r="C41" s="105"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="154"/>
+      <c r="C41" s="123"/>
       <c r="D41" s="42" t="s">
         <v>103</v>
       </c>
@@ -3030,8 +3030,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="127"/>
-      <c r="B42" s="127"/>
+      <c r="A42" s="154"/>
+      <c r="B42" s="154"/>
       <c r="C42" s="20" t="s">
         <v>105</v>
       </c>
@@ -3041,9 +3041,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="127"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="123" t="s">
+      <c r="A43" s="154"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="150" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -3054,9 +3054,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="127"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="125"/>
+      <c r="A44" s="154"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="152"/>
       <c r="D44" s="30" t="s">
         <v>110</v>
       </c>
@@ -3065,9 +3065,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="127"/>
-      <c r="B45" s="127"/>
-      <c r="C45" s="123" t="s">
+      <c r="A45" s="154"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="150" t="s">
         <v>112</v>
       </c>
       <c r="D45" s="30" t="s">
@@ -3078,9 +3078,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="127"/>
-      <c r="B46" s="127"/>
-      <c r="C46" s="124"/>
+      <c r="A46" s="154"/>
+      <c r="B46" s="154"/>
+      <c r="C46" s="151"/>
       <c r="D46" s="30" t="s">
         <v>116</v>
       </c>
@@ -3089,9 +3089,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="127"/>
-      <c r="B47" s="127"/>
-      <c r="C47" s="124"/>
+      <c r="A47" s="154"/>
+      <c r="B47" s="154"/>
+      <c r="C47" s="151"/>
       <c r="D47" s="30" t="s">
         <v>118</v>
       </c>
@@ -3100,9 +3100,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="127"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="125"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="154"/>
+      <c r="C48" s="152"/>
       <c r="D48" s="30" t="s">
         <v>120</v>
       </c>
@@ -3111,9 +3111,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="127"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="123" t="s">
+      <c r="A49" s="154"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="150" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -3124,9 +3124,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="127"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="125"/>
+      <c r="A50" s="154"/>
+      <c r="B50" s="154"/>
+      <c r="C50" s="152"/>
       <c r="D50" s="46" t="s">
         <v>124</v>
       </c>
@@ -3135,8 +3135,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="127"/>
-      <c r="B51" s="127"/>
+      <c r="A51" s="154"/>
+      <c r="B51" s="154"/>
       <c r="C51" s="48" t="s">
         <v>126</v>
       </c>
@@ -3146,9 +3146,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="127"/>
-      <c r="B52" s="127"/>
-      <c r="C52" s="123" t="s">
+      <c r="A52" s="154"/>
+      <c r="B52" s="154"/>
+      <c r="C52" s="150" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -3159,9 +3159,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="127"/>
-      <c r="B53" s="127"/>
-      <c r="C53" s="124"/>
+      <c r="A53" s="154"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="151"/>
       <c r="D53" s="30" t="s">
         <v>130</v>
       </c>
@@ -3170,9 +3170,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="127"/>
-      <c r="B54" s="127"/>
-      <c r="C54" s="124"/>
+      <c r="A54" s="154"/>
+      <c r="B54" s="154"/>
+      <c r="C54" s="151"/>
       <c r="D54" s="30" t="s">
         <v>132</v>
       </c>
@@ -3181,9 +3181,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="127"/>
-      <c r="B55" s="127"/>
-      <c r="C55" s="124"/>
+      <c r="A55" s="154"/>
+      <c r="B55" s="154"/>
+      <c r="C55" s="151"/>
       <c r="D55" s="30" t="s">
         <v>134</v>
       </c>
@@ -3192,9 +3192,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="127"/>
-      <c r="B56" s="127"/>
-      <c r="C56" s="124"/>
+      <c r="A56" s="154"/>
+      <c r="B56" s="154"/>
+      <c r="C56" s="151"/>
       <c r="D56" s="30" t="s">
         <v>136</v>
       </c>
@@ -3203,9 +3203,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="127"/>
-      <c r="B57" s="127"/>
-      <c r="C57" s="125"/>
+      <c r="A57" s="154"/>
+      <c r="B57" s="154"/>
+      <c r="C57" s="152"/>
       <c r="D57" s="30" t="s">
         <v>138</v>
       </c>
@@ -3214,8 +3214,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="127"/>
-      <c r="B58" s="127"/>
+      <c r="A58" s="154"/>
+      <c r="B58" s="154"/>
       <c r="C58" s="48" t="s">
         <v>140</v>
       </c>
@@ -3225,8 +3225,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="127"/>
-      <c r="B59" s="127"/>
+      <c r="A59" s="154"/>
+      <c r="B59" s="154"/>
       <c r="C59" s="47" t="s">
         <v>142</v>
       </c>
@@ -3236,8 +3236,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="128"/>
-      <c r="B60" s="128"/>
+      <c r="A60" s="155"/>
+      <c r="B60" s="155"/>
       <c r="C60" s="48" t="s">
         <v>144</v>
       </c>
@@ -3247,10 +3247,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="150">
+      <c r="A61" s="135">
         <v>6</v>
       </c>
-      <c r="B61" s="150" t="s">
+      <c r="B61" s="135" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="26" t="s">
@@ -3262,8 +3262,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="151"/>
-      <c r="B62" s="151"/>
+      <c r="A62" s="136"/>
+      <c r="B62" s="136"/>
       <c r="C62" s="26" t="s">
         <v>148</v>
       </c>
@@ -3273,8 +3273,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="151"/>
-      <c r="B63" s="151"/>
+      <c r="A63" s="136"/>
+      <c r="B63" s="136"/>
       <c r="C63" s="26" t="s">
         <v>150</v>
       </c>
@@ -3286,8 +3286,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="151"/>
-      <c r="B64" s="151"/>
+      <c r="A64" s="136"/>
+      <c r="B64" s="136"/>
       <c r="C64" s="26" t="s">
         <v>154</v>
       </c>
@@ -3297,10 +3297,10 @@
       </c>
     </row>
     <row r="65" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="147">
+      <c r="A65" s="131">
         <v>7</v>
       </c>
-      <c r="B65" s="147" t="s">
+      <c r="B65" s="131" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="21" t="s">
@@ -3312,8 +3312,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="148"/>
-      <c r="B66" s="148"/>
+      <c r="A66" s="132"/>
+      <c r="B66" s="132"/>
       <c r="C66" s="21" t="s">
         <v>157</v>
       </c>
@@ -3323,8 +3323,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="148"/>
-      <c r="B67" s="148"/>
+      <c r="A67" s="132"/>
+      <c r="B67" s="132"/>
       <c r="C67" s="21" t="s">
         <v>159</v>
       </c>
@@ -3334,8 +3334,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="148"/>
-      <c r="B68" s="148"/>
+      <c r="A68" s="132"/>
+      <c r="B68" s="132"/>
       <c r="C68" s="21" t="s">
         <v>161</v>
       </c>
@@ -3345,8 +3345,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="148"/>
-      <c r="B69" s="148"/>
+      <c r="A69" s="132"/>
+      <c r="B69" s="132"/>
       <c r="C69" s="21" t="s">
         <v>162</v>
       </c>
@@ -3358,8 +3358,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="148"/>
-      <c r="B70" s="148"/>
+      <c r="A70" s="132"/>
+      <c r="B70" s="132"/>
       <c r="C70" s="21" t="s">
         <v>165</v>
       </c>
@@ -3369,46 +3369,46 @@
       </c>
     </row>
     <row r="71" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="148"/>
-      <c r="B71" s="148"/>
+      <c r="A71" s="132"/>
+      <c r="B71" s="132"/>
       <c r="C71" s="21" t="s">
         <v>166</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="144" t="s">
+      <c r="E71" s="127" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="148"/>
-      <c r="B72" s="148"/>
+      <c r="A72" s="132"/>
+      <c r="B72" s="132"/>
       <c r="C72" s="21" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="22"/>
-      <c r="E72" s="145"/>
+      <c r="E72" s="134"/>
     </row>
     <row r="73" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="148"/>
-      <c r="B73" s="148"/>
+      <c r="A73" s="132"/>
+      <c r="B73" s="132"/>
       <c r="C73" s="21" t="s">
         <v>169</v>
       </c>
       <c r="D73" s="22"/>
-      <c r="E73" s="145"/>
+      <c r="E73" s="134"/>
     </row>
     <row r="74" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="148"/>
-      <c r="B74" s="148"/>
+      <c r="A74" s="132"/>
+      <c r="B74" s="132"/>
       <c r="C74" s="21" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="22"/>
-      <c r="E74" s="146"/>
+      <c r="E74" s="128"/>
     </row>
     <row r="75" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="148"/>
-      <c r="B75" s="148"/>
+      <c r="A75" s="132"/>
+      <c r="B75" s="132"/>
       <c r="C75" s="21" t="s">
         <v>171</v>
       </c>
@@ -3418,30 +3418,30 @@
       </c>
     </row>
     <row r="76" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="148"/>
-      <c r="B76" s="148"/>
+      <c r="A76" s="132"/>
+      <c r="B76" s="132"/>
       <c r="C76" s="21" t="s">
         <v>173</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="144" t="s">
+      <c r="E76" s="127" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="149"/>
-      <c r="B77" s="149"/>
+      <c r="A77" s="133"/>
+      <c r="B77" s="133"/>
       <c r="C77" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D77" s="22"/>
-      <c r="E77" s="146"/>
+      <c r="E77" s="128"/>
     </row>
     <row r="78" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="147">
+      <c r="A78" s="131">
         <v>8</v>
       </c>
-      <c r="B78" s="147" t="s">
+      <c r="B78" s="131" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="21" t="s">
@@ -3453,8 +3453,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="148"/>
-      <c r="B79" s="148"/>
+      <c r="A79" s="132"/>
+      <c r="B79" s="132"/>
       <c r="C79" s="54" t="s">
         <v>178</v>
       </c>
@@ -3464,28 +3464,28 @@
       </c>
     </row>
     <row r="80" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="148"/>
-      <c r="B80" s="148"/>
+      <c r="A80" s="132"/>
+      <c r="B80" s="132"/>
       <c r="C80" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="22"/>
-      <c r="E80" s="144" t="s">
+      <c r="E80" s="127" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="148"/>
-      <c r="B81" s="148"/>
+      <c r="A81" s="132"/>
+      <c r="B81" s="132"/>
       <c r="C81" s="21" t="s">
         <v>181</v>
       </c>
       <c r="D81" s="22"/>
-      <c r="E81" s="146"/>
+      <c r="E81" s="128"/>
     </row>
     <row r="82" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="148"/>
-      <c r="B82" s="148"/>
+      <c r="A82" s="132"/>
+      <c r="B82" s="132"/>
       <c r="C82" s="21" t="s">
         <v>183</v>
       </c>
@@ -3495,8 +3495,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="148"/>
-      <c r="B83" s="148"/>
+      <c r="A83" s="132"/>
+      <c r="B83" s="132"/>
       <c r="C83" s="21" t="s">
         <v>185</v>
       </c>
@@ -3506,8 +3506,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="148"/>
-      <c r="B84" s="148"/>
+      <c r="A84" s="132"/>
+      <c r="B84" s="132"/>
       <c r="C84" s="21" t="s">
         <v>187</v>
       </c>
@@ -3517,8 +3517,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="148"/>
-      <c r="B85" s="148"/>
+      <c r="A85" s="132"/>
+      <c r="B85" s="132"/>
       <c r="C85" s="21" t="s">
         <v>189</v>
       </c>
@@ -3528,48 +3528,48 @@
       </c>
     </row>
     <row r="86" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="148"/>
-      <c r="B86" s="148"/>
+      <c r="A86" s="132"/>
+      <c r="B86" s="132"/>
       <c r="C86" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D86" s="22"/>
-      <c r="E86" s="144" t="s">
+      <c r="E86" s="127" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="148"/>
-      <c r="B87" s="148"/>
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
       <c r="C87" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D87" s="22"/>
-      <c r="E87" s="146"/>
+      <c r="E87" s="128"/>
     </row>
     <row r="88" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="148"/>
-      <c r="B88" s="148"/>
+      <c r="A88" s="132"/>
+      <c r="B88" s="132"/>
       <c r="C88" s="21" t="s">
         <v>194</v>
       </c>
       <c r="D88" s="22"/>
-      <c r="E88" s="155" t="s">
+      <c r="E88" s="129" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="148"/>
-      <c r="B89" s="148"/>
+      <c r="A89" s="132"/>
+      <c r="B89" s="132"/>
       <c r="C89" s="21" t="s">
         <v>196</v>
       </c>
       <c r="D89" s="22"/>
-      <c r="E89" s="156"/>
+      <c r="E89" s="130"/>
     </row>
     <row r="90" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="148"/>
-      <c r="B90" s="148"/>
+      <c r="A90" s="132"/>
+      <c r="B90" s="132"/>
       <c r="C90" s="21" t="s">
         <v>197</v>
       </c>
@@ -3579,8 +3579,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="148"/>
-      <c r="B91" s="148"/>
+      <c r="A91" s="132"/>
+      <c r="B91" s="132"/>
       <c r="C91" s="21" t="s">
         <v>199</v>
       </c>
@@ -3590,8 +3590,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="149"/>
-      <c r="B92" s="149"/>
+      <c r="A92" s="133"/>
+      <c r="B92" s="133"/>
       <c r="C92" s="21" t="s">
         <v>201</v>
       </c>
@@ -3601,10 +3601,10 @@
       </c>
     </row>
     <row r="93" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="152">
+      <c r="A93" s="124">
         <v>9</v>
       </c>
-      <c r="B93" s="152" t="s">
+      <c r="B93" s="124" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -3616,8 +3616,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="153"/>
-      <c r="B94" s="153"/>
+      <c r="A94" s="125"/>
+      <c r="B94" s="125"/>
       <c r="C94" s="13" t="s">
         <v>204</v>
       </c>
@@ -3627,8 +3627,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="153"/>
-      <c r="B95" s="153"/>
+      <c r="A95" s="125"/>
+      <c r="B95" s="125"/>
       <c r="C95" s="13" t="s">
         <v>205</v>
       </c>
@@ -3638,8 +3638,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="153"/>
-      <c r="B96" s="153"/>
+      <c r="A96" s="125"/>
+      <c r="B96" s="125"/>
       <c r="C96" s="55" t="s">
         <v>206</v>
       </c>
@@ -3649,8 +3649,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="153"/>
-      <c r="B97" s="153"/>
+      <c r="A97" s="125"/>
+      <c r="B97" s="125"/>
       <c r="C97" s="55" t="s">
         <v>211</v>
       </c>
@@ -3662,8 +3662,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="153"/>
-      <c r="B98" s="153"/>
+      <c r="A98" s="125"/>
+      <c r="B98" s="125"/>
       <c r="C98" s="55" t="s">
         <v>214</v>
       </c>
@@ -3673,8 +3673,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="154"/>
-      <c r="B99" s="154"/>
+      <c r="A99" s="126"/>
+      <c r="B99" s="126"/>
       <c r="C99" s="13" t="s">
         <v>216</v>
       </c>
@@ -3888,31 +3888,6 @@
     <row r="162" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B78:B92"/>
-    <mergeCell ref="A78:A92"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="B38:B60"/>
     <mergeCell ref="A38:A60"/>
@@ -3926,6 +3901,31 @@
     <mergeCell ref="A18:A37"/>
     <mergeCell ref="B18:B37"/>
     <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B78:B92"/>
+    <mergeCell ref="A78:A92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/attck_windows_tech.xlsx
+++ b/attck_windows_tech.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="-120" windowWidth="15630" windowHeight="7395"/>
+    <workbookView xWindow="6390" yWindow="-120" windowWidth="15630" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="3" r:id="rId1"/>
@@ -889,7 +889,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,6 +916,14 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -977,7 +985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,9 +1051,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1202,12 +1211,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1217,18 +1220,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1263,16 +1254,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1312,193 +1293,222 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1814,9 +1824,9 @@
   <dimension ref="A1:XFD83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:F1"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1840,438 +1850,438 @@
       <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-    </row>
-    <row r="2" spans="1:6 16384:16384" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84">
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+    </row>
+    <row r="2" spans="1:6 16384:16384" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="153">
         <v>1</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="86" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="76" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6 16384:16384" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="65" t="s">
+    <row r="3" spans="1:6 16384:16384" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="154"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="157" t="s">
         <v>267</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="XFD3" s="68" t="s">
+      <c r="XFD3" s="62" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:6 16384:16384" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112">
+    <row r="4" spans="1:6 16384:16384" s="136" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="97">
         <v>2</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79" t="s">
+      <c r="E4" s="134"/>
+      <c r="F4" s="135" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:6 16384:16384" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="74" t="s">
+    <row r="5" spans="1:6 16384:16384" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="67" t="s">
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="61" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106">
+    <row r="6" spans="1:6 16384:16384" s="67" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="93">
         <v>3</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="103" t="s">
+    <row r="7" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="72" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="81" t="s">
+    <row r="8" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82" t="s">
+      <c r="E8" s="71"/>
+      <c r="F8" s="72" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="103" t="s">
+    <row r="9" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82" t="s">
+      <c r="E9" s="71"/>
+      <c r="F9" s="72" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="84" t="s">
+    <row r="10" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="88" t="s">
+      <c r="E10" s="74"/>
+      <c r="F10" s="78" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="84" t="s">
+    <row r="11" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="88" t="s">
+      <c r="E11" s="74"/>
+      <c r="F11" s="78" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="84" t="s">
+    <row r="12" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="E12" s="84"/>
-      <c r="F12" s="88" t="s">
+      <c r="E12" s="74"/>
+      <c r="F12" s="78" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="84" t="s">
+    <row r="13" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="88" t="s">
+      <c r="E13" s="74"/>
+      <c r="F13" s="78" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:6 16384:16384" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="93" t="s">
+    <row r="14" spans="1:6 16384:16384" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="94"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66" t="s">
+      <c r="D14" s="60"/>
+      <c r="E14" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="80" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="103" t="s">
+    <row r="15" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="94"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="88" t="s">
+      <c r="E15" s="74"/>
+      <c r="F15" s="78" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:6 16384:16384" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="84" t="s">
+    <row r="16" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="94"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="88" t="s">
+      <c r="E16" s="74"/>
+      <c r="F16" s="78" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="66" t="s">
+    <row r="17" spans="1:6" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="90" t="s">
+      <c r="E17" s="60"/>
+      <c r="F17" s="80" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="89" t="s">
+    <row r="18" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="88" t="s">
+      <c r="E18" s="74"/>
+      <c r="F18" s="78" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="92" t="s">
+    <row r="19" spans="1:6" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="90" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="80" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="56" t="s">
+    <row r="20" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="138"/>
+      <c r="E20" s="138" t="s">
         <v>263</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="139" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="100" t="s">
+    <row r="21" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="88" t="s">
+      <c r="E21" s="74"/>
+      <c r="F21" s="78" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="114" t="s">
+    <row r="22" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="141" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="138" t="s">
         <v>238</v>
       </c>
-      <c r="E22" s="97"/>
-      <c r="F22" s="110" t="s">
+      <c r="E22" s="142"/>
+      <c r="F22" s="143" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="96" t="s">
+    <row r="23" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="94"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="138" t="s">
         <v>240</v>
       </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="111"/>
-    </row>
-    <row r="24" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="93" t="s">
+      <c r="E23" s="145"/>
+      <c r="F23" s="146"/>
+    </row>
+    <row r="24" spans="1:6" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="95"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="94" t="s">
+      <c r="D24" s="60"/>
+      <c r="E24" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="F24" s="95" t="s">
+      <c r="F24" s="85" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="116">
+    <row r="25" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="151">
         <v>4</v>
       </c>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="103" t="s">
+      <c r="C25" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="138" t="s">
         <v>241</v>
       </c>
-      <c r="E25" s="101"/>
-      <c r="F25" s="119" t="s">
+      <c r="E25" s="142"/>
+      <c r="F25" s="143" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="116"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="84" t="s">
+    <row r="26" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="151"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="138" t="s">
         <v>243</v>
       </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="120"/>
-    </row>
-    <row r="27" spans="1:6" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="84" t="s">
+      <c r="E26" s="145"/>
+      <c r="F26" s="146"/>
+    </row>
+    <row r="27" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="151"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="138" t="s">
         <v>244</v>
       </c>
-      <c r="E27" s="84"/>
-      <c r="F27" s="102" t="s">
+      <c r="E27" s="138"/>
+      <c r="F27" s="152" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="116"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="121" t="s">
+    <row r="28" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="151"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="141" t="s">
         <v>246</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="117" t="s">
+      <c r="E28" s="142"/>
+      <c r="F28" s="143" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="30" t="s">
+    <row r="29" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="151"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="118"/>
-    </row>
-    <row r="30" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="116"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="30" t="s">
+      <c r="E29" s="148"/>
+      <c r="F29" s="146"/>
+    </row>
+    <row r="30" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="151"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="134" t="s">
         <v>250</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="117" t="s">
+      <c r="E30" s="149"/>
+      <c r="F30" s="143" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="116"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="30" t="s">
+    <row r="31" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="151"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="134" t="s">
         <v>251</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="118"/>
-    </row>
-    <row r="32" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+      <c r="E31" s="148"/>
+      <c r="F31" s="146"/>
+    </row>
+    <row r="32" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="134">
         <v>5</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="134" t="s">
         <v>252</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="50" t="s">
+      <c r="C32" s="150"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="139" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+    <row r="33" spans="1:6" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="69">
         <v>6</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="155" t="s">
         <v>254</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="27" t="s">
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="156" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2505,14 +2515,7 @@
     <row r="82" x14ac:dyDescent="0.25"/>
     <row r="83" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C28:C31"/>
+  <mergeCells count="19">
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B6:B24"/>
@@ -2524,9 +2527,20 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C28:C31"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2535,7 +2549,7 @@
   <dimension ref="A1:XFC162"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
@@ -2562,59 +2576,59 @@
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="109"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112">
+      <c r="A2" s="97">
         <v>1</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="116" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="142" t="s">
+      <c r="E2" s="110" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="148"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="117"/>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="143"/>
+      <c r="E3" s="111"/>
     </row>
     <row r="4" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="137"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="148"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="143"/>
+      <c r="E4" s="111"/>
     </row>
     <row r="5" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="137"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="139"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="144"/>
+      <c r="E5" s="112"/>
     </row>
     <row r="6" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="137"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="138" t="s">
+      <c r="A6" s="119"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="116" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2625,9 +2639,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2636,8 +2650,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="137"/>
-      <c r="B8" s="137"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="37" t="s">
         <v>27</v>
       </c>
@@ -2647,8 +2661,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
-      <c r="B9" s="137"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="37" t="s">
         <v>31</v>
       </c>
@@ -2658,8 +2672,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="137"/>
-      <c r="B10" s="137"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="37" t="s">
         <v>32</v>
       </c>
@@ -2669,8 +2683,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="137"/>
-      <c r="B11" s="137"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="37" t="s">
         <v>34</v>
       </c>
@@ -2680,10 +2694,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112">
+      <c r="A12" s="97">
         <v>2</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -2697,48 +2711,48 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="137"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="145" t="s">
+      <c r="A13" s="119"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="113" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="142" t="s">
+      <c r="E13" s="110" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="137"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="146"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="143"/>
+      <c r="E14" s="111"/>
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="137"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="146"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="143"/>
+      <c r="E15" s="111"/>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="147"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="144"/>
+      <c r="E16" s="112"/>
     </row>
     <row r="17" spans="1:5" s="41" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="113"/>
-      <c r="B17" s="113"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="39" t="s">
         <v>46</v>
       </c>
@@ -2748,10 +2762,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106">
+      <c r="A18" s="93">
         <v>3</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="93" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -2763,8 +2777,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
-      <c r="B19" s="107"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -2774,8 +2788,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
-      <c r="B20" s="107"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
@@ -2787,9 +2801,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="149"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="16" t="s">
         <v>57</v>
       </c>
@@ -2798,9 +2812,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="141"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
@@ -2809,9 +2823,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="140" t="s">
+      <c r="A23" s="94"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="107" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2822,9 +2836,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="107"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="141"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
@@ -2833,50 +2847,50 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="107"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="140" t="s">
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="107" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="156" t="s">
+      <c r="E25" s="105" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="107"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="149"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="157"/>
+      <c r="E26" s="106"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="107"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="149"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="156" t="s">
+      <c r="E27" s="105" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="107"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="141"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="157"/>
+      <c r="E28" s="106"/>
     </row>
     <row r="29" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="107"/>
-      <c r="B29" s="107"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="7" t="s">
         <v>76</v>
       </c>
@@ -2886,8 +2900,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="107"/>
-      <c r="B30" s="107"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="36" t="s">
         <v>79</v>
       </c>
@@ -2897,9 +2911,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="107"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="140" t="s">
+      <c r="A31" s="94"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="107" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -2910,9 +2924,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="107"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="149"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="6" t="s">
         <v>83</v>
       </c>
@@ -2921,9 +2935,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="149"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="108"/>
       <c r="D33" s="6" t="s">
         <v>85</v>
       </c>
@@ -2932,9 +2946,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="107"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="141"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="6" t="s">
         <v>87</v>
       </c>
@@ -2943,8 +2957,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="107"/>
-      <c r="B35" s="107"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="7" t="s">
         <v>89</v>
       </c>
@@ -2954,8 +2968,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="107"/>
-      <c r="B36" s="107"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="7" t="s">
         <v>91</v>
       </c>
@@ -2967,8 +2981,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="107"/>
-      <c r="B37" s="107"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="36" t="s">
         <v>94</v>
       </c>
@@ -2978,10 +2992,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="153">
+      <c r="A38" s="102">
         <v>4</v>
       </c>
-      <c r="B38" s="153" t="s">
+      <c r="B38" s="102" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -2995,9 +3009,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="154"/>
-      <c r="B39" s="154"/>
-      <c r="C39" s="121" t="s">
+      <c r="A39" s="103"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="90" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -3008,9 +3022,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="154"/>
-      <c r="B40" s="154"/>
-      <c r="C40" s="122"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="42" t="s">
         <v>101</v>
       </c>
@@ -3019,9 +3033,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="154"/>
-      <c r="B41" s="154"/>
-      <c r="C41" s="123"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="42" t="s">
         <v>103</v>
       </c>
@@ -3030,8 +3044,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="154"/>
-      <c r="B42" s="154"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="20" t="s">
         <v>105</v>
       </c>
@@ -3041,9 +3055,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="154"/>
-      <c r="B43" s="154"/>
-      <c r="C43" s="150" t="s">
+      <c r="A43" s="103"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="99" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -3054,9 +3068,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="154"/>
-      <c r="B44" s="154"/>
-      <c r="C44" s="152"/>
+      <c r="A44" s="103"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="101"/>
       <c r="D44" s="30" t="s">
         <v>110</v>
       </c>
@@ -3065,9 +3079,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="154"/>
-      <c r="B45" s="154"/>
-      <c r="C45" s="150" t="s">
+      <c r="A45" s="103"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="99" t="s">
         <v>112</v>
       </c>
       <c r="D45" s="30" t="s">
@@ -3078,9 +3092,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="154"/>
-      <c r="B46" s="154"/>
-      <c r="C46" s="151"/>
+      <c r="A46" s="103"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="100"/>
       <c r="D46" s="30" t="s">
         <v>116</v>
       </c>
@@ -3089,9 +3103,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="154"/>
-      <c r="B47" s="154"/>
-      <c r="C47" s="151"/>
+      <c r="A47" s="103"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="30" t="s">
         <v>118</v>
       </c>
@@ -3100,9 +3114,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="154"/>
-      <c r="B48" s="154"/>
-      <c r="C48" s="152"/>
+      <c r="A48" s="103"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="101"/>
       <c r="D48" s="30" t="s">
         <v>120</v>
       </c>
@@ -3111,9 +3125,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="154"/>
-      <c r="B49" s="154"/>
-      <c r="C49" s="150" t="s">
+      <c r="A49" s="103"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="99" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -3124,9 +3138,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="154"/>
-      <c r="B50" s="154"/>
-      <c r="C50" s="152"/>
+      <c r="A50" s="103"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="101"/>
       <c r="D50" s="46" t="s">
         <v>124</v>
       </c>
@@ -3135,8 +3149,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="154"/>
-      <c r="B51" s="154"/>
+      <c r="A51" s="103"/>
+      <c r="B51" s="103"/>
       <c r="C51" s="48" t="s">
         <v>126</v>
       </c>
@@ -3146,9 +3160,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="154"/>
-      <c r="B52" s="154"/>
-      <c r="C52" s="150" t="s">
+      <c r="A52" s="103"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="99" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -3159,9 +3173,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="154"/>
-      <c r="B53" s="154"/>
-      <c r="C53" s="151"/>
+      <c r="A53" s="103"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="100"/>
       <c r="D53" s="30" t="s">
         <v>130</v>
       </c>
@@ -3170,9 +3184,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="154"/>
-      <c r="B54" s="154"/>
-      <c r="C54" s="151"/>
+      <c r="A54" s="103"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="100"/>
       <c r="D54" s="30" t="s">
         <v>132</v>
       </c>
@@ -3181,9 +3195,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="154"/>
-      <c r="B55" s="154"/>
-      <c r="C55" s="151"/>
+      <c r="A55" s="103"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="100"/>
       <c r="D55" s="30" t="s">
         <v>134</v>
       </c>
@@ -3192,9 +3206,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="154"/>
-      <c r="B56" s="154"/>
-      <c r="C56" s="151"/>
+      <c r="A56" s="103"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="100"/>
       <c r="D56" s="30" t="s">
         <v>136</v>
       </c>
@@ -3203,9 +3217,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="154"/>
-      <c r="B57" s="154"/>
-      <c r="C57" s="152"/>
+      <c r="A57" s="103"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="101"/>
       <c r="D57" s="30" t="s">
         <v>138</v>
       </c>
@@ -3214,8 +3228,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="154"/>
-      <c r="B58" s="154"/>
+      <c r="A58" s="103"/>
+      <c r="B58" s="103"/>
       <c r="C58" s="48" t="s">
         <v>140</v>
       </c>
@@ -3225,8 +3239,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="154"/>
-      <c r="B59" s="154"/>
+      <c r="A59" s="103"/>
+      <c r="B59" s="103"/>
       <c r="C59" s="47" t="s">
         <v>142</v>
       </c>
@@ -3236,8 +3250,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="155"/>
-      <c r="B60" s="155"/>
+      <c r="A60" s="104"/>
+      <c r="B60" s="104"/>
       <c r="C60" s="48" t="s">
         <v>144</v>
       </c>
@@ -3247,10 +3261,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="135">
+      <c r="A61" s="126">
         <v>6</v>
       </c>
-      <c r="B61" s="135" t="s">
+      <c r="B61" s="126" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="26" t="s">
@@ -3262,8 +3276,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="136"/>
-      <c r="B62" s="136"/>
+      <c r="A62" s="127"/>
+      <c r="B62" s="127"/>
       <c r="C62" s="26" t="s">
         <v>148</v>
       </c>
@@ -3273,8 +3287,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="136"/>
-      <c r="B63" s="136"/>
+      <c r="A63" s="127"/>
+      <c r="B63" s="127"/>
       <c r="C63" s="26" t="s">
         <v>150</v>
       </c>
@@ -3286,8 +3300,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="136"/>
-      <c r="B64" s="136"/>
+      <c r="A64" s="127"/>
+      <c r="B64" s="127"/>
       <c r="C64" s="26" t="s">
         <v>154</v>
       </c>
@@ -3297,10 +3311,10 @@
       </c>
     </row>
     <row r="65" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="131">
+      <c r="A65" s="123">
         <v>7</v>
       </c>
-      <c r="B65" s="131" t="s">
+      <c r="B65" s="123" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="21" t="s">
@@ -3312,8 +3326,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="132"/>
-      <c r="B66" s="132"/>
+      <c r="A66" s="124"/>
+      <c r="B66" s="124"/>
       <c r="C66" s="21" t="s">
         <v>157</v>
       </c>
@@ -3323,8 +3337,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="132"/>
-      <c r="B67" s="132"/>
+      <c r="A67" s="124"/>
+      <c r="B67" s="124"/>
       <c r="C67" s="21" t="s">
         <v>159</v>
       </c>
@@ -3334,8 +3348,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="132"/>
-      <c r="B68" s="132"/>
+      <c r="A68" s="124"/>
+      <c r="B68" s="124"/>
       <c r="C68" s="21" t="s">
         <v>161</v>
       </c>
@@ -3345,8 +3359,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="132"/>
-      <c r="B69" s="132"/>
+      <c r="A69" s="124"/>
+      <c r="B69" s="124"/>
       <c r="C69" s="21" t="s">
         <v>162</v>
       </c>
@@ -3358,8 +3372,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="132"/>
-      <c r="B70" s="132"/>
+      <c r="A70" s="124"/>
+      <c r="B70" s="124"/>
       <c r="C70" s="21" t="s">
         <v>165</v>
       </c>
@@ -3369,46 +3383,46 @@
       </c>
     </row>
     <row r="71" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="132"/>
-      <c r="B71" s="132"/>
+      <c r="A71" s="124"/>
+      <c r="B71" s="124"/>
       <c r="C71" s="21" t="s">
         <v>166</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="127" t="s">
+      <c r="E71" s="120" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="132"/>
-      <c r="B72" s="132"/>
+      <c r="A72" s="124"/>
+      <c r="B72" s="124"/>
       <c r="C72" s="21" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="22"/>
-      <c r="E72" s="134"/>
+      <c r="E72" s="121"/>
     </row>
     <row r="73" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="132"/>
-      <c r="B73" s="132"/>
+      <c r="A73" s="124"/>
+      <c r="B73" s="124"/>
       <c r="C73" s="21" t="s">
         <v>169</v>
       </c>
       <c r="D73" s="22"/>
-      <c r="E73" s="134"/>
+      <c r="E73" s="121"/>
     </row>
     <row r="74" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="132"/>
-      <c r="B74" s="132"/>
+      <c r="A74" s="124"/>
+      <c r="B74" s="124"/>
       <c r="C74" s="21" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="22"/>
-      <c r="E74" s="128"/>
+      <c r="E74" s="122"/>
     </row>
     <row r="75" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="132"/>
-      <c r="B75" s="132"/>
+      <c r="A75" s="124"/>
+      <c r="B75" s="124"/>
       <c r="C75" s="21" t="s">
         <v>171</v>
       </c>
@@ -3418,30 +3432,30 @@
       </c>
     </row>
     <row r="76" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="132"/>
-      <c r="B76" s="132"/>
+      <c r="A76" s="124"/>
+      <c r="B76" s="124"/>
       <c r="C76" s="21" t="s">
         <v>173</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="127" t="s">
+      <c r="E76" s="120" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="133"/>
-      <c r="B77" s="133"/>
+      <c r="A77" s="125"/>
+      <c r="B77" s="125"/>
       <c r="C77" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D77" s="22"/>
-      <c r="E77" s="128"/>
+      <c r="E77" s="122"/>
     </row>
     <row r="78" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="131">
+      <c r="A78" s="123">
         <v>8</v>
       </c>
-      <c r="B78" s="131" t="s">
+      <c r="B78" s="123" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="21" t="s">
@@ -3453,8 +3467,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="132"/>
-      <c r="B79" s="132"/>
+      <c r="A79" s="124"/>
+      <c r="B79" s="124"/>
       <c r="C79" s="54" t="s">
         <v>178</v>
       </c>
@@ -3464,28 +3478,28 @@
       </c>
     </row>
     <row r="80" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="132"/>
-      <c r="B80" s="132"/>
+      <c r="A80" s="124"/>
+      <c r="B80" s="124"/>
       <c r="C80" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="22"/>
-      <c r="E80" s="127" t="s">
+      <c r="E80" s="120" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="132"/>
-      <c r="B81" s="132"/>
+      <c r="A81" s="124"/>
+      <c r="B81" s="124"/>
       <c r="C81" s="21" t="s">
         <v>181</v>
       </c>
       <c r="D81" s="22"/>
-      <c r="E81" s="128"/>
+      <c r="E81" s="122"/>
     </row>
     <row r="82" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="132"/>
-      <c r="B82" s="132"/>
+      <c r="A82" s="124"/>
+      <c r="B82" s="124"/>
       <c r="C82" s="21" t="s">
         <v>183</v>
       </c>
@@ -3495,8 +3509,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="132"/>
-      <c r="B83" s="132"/>
+      <c r="A83" s="124"/>
+      <c r="B83" s="124"/>
       <c r="C83" s="21" t="s">
         <v>185</v>
       </c>
@@ -3506,8 +3520,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="132"/>
-      <c r="B84" s="132"/>
+      <c r="A84" s="124"/>
+      <c r="B84" s="124"/>
       <c r="C84" s="21" t="s">
         <v>187</v>
       </c>
@@ -3517,8 +3531,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="132"/>
-      <c r="B85" s="132"/>
+      <c r="A85" s="124"/>
+      <c r="B85" s="124"/>
       <c r="C85" s="21" t="s">
         <v>189</v>
       </c>
@@ -3528,48 +3542,48 @@
       </c>
     </row>
     <row r="86" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="132"/>
-      <c r="B86" s="132"/>
+      <c r="A86" s="124"/>
+      <c r="B86" s="124"/>
       <c r="C86" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D86" s="22"/>
-      <c r="E86" s="127" t="s">
+      <c r="E86" s="120" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="132"/>
-      <c r="B87" s="132"/>
+      <c r="A87" s="124"/>
+      <c r="B87" s="124"/>
       <c r="C87" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D87" s="22"/>
-      <c r="E87" s="128"/>
+      <c r="E87" s="122"/>
     </row>
     <row r="88" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="132"/>
-      <c r="B88" s="132"/>
+      <c r="A88" s="124"/>
+      <c r="B88" s="124"/>
       <c r="C88" s="21" t="s">
         <v>194</v>
       </c>
       <c r="D88" s="22"/>
-      <c r="E88" s="129" t="s">
+      <c r="E88" s="131" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="132"/>
-      <c r="B89" s="132"/>
+      <c r="A89" s="124"/>
+      <c r="B89" s="124"/>
       <c r="C89" s="21" t="s">
         <v>196</v>
       </c>
       <c r="D89" s="22"/>
-      <c r="E89" s="130"/>
+      <c r="E89" s="132"/>
     </row>
     <row r="90" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="132"/>
-      <c r="B90" s="132"/>
+      <c r="A90" s="124"/>
+      <c r="B90" s="124"/>
       <c r="C90" s="21" t="s">
         <v>197</v>
       </c>
@@ -3579,8 +3593,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="132"/>
-      <c r="B91" s="132"/>
+      <c r="A91" s="124"/>
+      <c r="B91" s="124"/>
       <c r="C91" s="21" t="s">
         <v>199</v>
       </c>
@@ -3590,8 +3604,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="133"/>
-      <c r="B92" s="133"/>
+      <c r="A92" s="125"/>
+      <c r="B92" s="125"/>
       <c r="C92" s="21" t="s">
         <v>201</v>
       </c>
@@ -3601,45 +3615,45 @@
       </c>
     </row>
     <row r="93" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="124">
+      <c r="A93" s="128">
         <v>9</v>
       </c>
-      <c r="B93" s="124" t="s">
+      <c r="B93" s="128" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>203</v>
       </c>
       <c r="D93" s="25"/>
-      <c r="E93" s="59" t="s">
+      <c r="E93" s="57" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="125"/>
-      <c r="B94" s="125"/>
+      <c r="A94" s="129"/>
+      <c r="B94" s="129"/>
       <c r="C94" s="13" t="s">
         <v>204</v>
       </c>
       <c r="D94" s="25"/>
-      <c r="E94" s="60" t="s">
+      <c r="E94" s="58" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="125"/>
-      <c r="B95" s="125"/>
+      <c r="A95" s="129"/>
+      <c r="B95" s="129"/>
       <c r="C95" s="13" t="s">
         <v>205</v>
       </c>
       <c r="D95" s="25"/>
-      <c r="E95" s="58" t="s">
+      <c r="E95" s="56" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="125"/>
-      <c r="B96" s="125"/>
+      <c r="A96" s="129"/>
+      <c r="B96" s="129"/>
       <c r="C96" s="55" t="s">
         <v>206</v>
       </c>
@@ -3649,8 +3663,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="125"/>
-      <c r="B97" s="125"/>
+      <c r="A97" s="129"/>
+      <c r="B97" s="129"/>
       <c r="C97" s="55" t="s">
         <v>211</v>
       </c>
@@ -3662,8 +3676,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="125"/>
-      <c r="B98" s="125"/>
+      <c r="A98" s="129"/>
+      <c r="B98" s="129"/>
       <c r="C98" s="55" t="s">
         <v>214</v>
       </c>
@@ -3673,8 +3687,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="126"/>
-      <c r="B99" s="126"/>
+      <c r="A99" s="130"/>
+      <c r="B99" s="130"/>
       <c r="C99" s="13" t="s">
         <v>216</v>
       </c>
@@ -3888,6 +3902,31 @@
     <row r="162" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B78:B92"/>
+    <mergeCell ref="A78:A92"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="B38:B60"/>
     <mergeCell ref="A38:A60"/>
@@ -3901,31 +3940,6 @@
     <mergeCell ref="A18:A37"/>
     <mergeCell ref="B18:B37"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B78:B92"/>
-    <mergeCell ref="A78:A92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/attck_windows_tech.xlsx
+++ b/attck_windows_tech.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="-120" windowWidth="15630" windowHeight="7395"/>
+    <workbookView xWindow="7320" yWindow="-120" windowWidth="15630" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="3" r:id="rId1"/>
@@ -1296,24 +1296,62 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1326,10 +1364,112 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1356,153 +1496,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1850,17 +1850,17 @@
       <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:6 16384:16384" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153">
+      <c r="A2" s="117">
         <v>1</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="113" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="75" t="s">
@@ -1875,13 +1875,13 @@
       </c>
     </row>
     <row r="3" spans="1:6 16384:16384" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="154"/>
-      <c r="B3" s="98"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="59" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="60"/>
-      <c r="E3" s="157" t="s">
+      <c r="E3" s="103" t="s">
         <v>267</v>
       </c>
       <c r="F3" s="61" t="s">
@@ -1891,27 +1891,27 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:6 16384:16384" s="136" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97">
+    <row r="4" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="113">
         <v>2</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135" t="s">
+      <c r="E4" s="88"/>
+      <c r="F4" s="89" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:6 16384:16384" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="68" t="s">
         <v>221</v>
       </c>
@@ -1922,10 +1922,10 @@
       </c>
     </row>
     <row r="6" spans="1:6 16384:16384" s="67" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93">
+      <c r="A6" s="107">
         <v>3</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="107" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="64" t="s">
@@ -1938,9 +1938,9 @@
       </c>
     </row>
     <row r="7" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="87" t="s">
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="71" t="s">
@@ -1952,9 +1952,9 @@
       </c>
     </row>
     <row r="8" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="89"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="71" t="s">
         <v>56</v>
       </c>
@@ -1964,9 +1964,9 @@
       </c>
     </row>
     <row r="9" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="87" t="s">
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="104" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="71" t="s">
@@ -1978,9 +1978,9 @@
       </c>
     </row>
     <row r="10" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="88"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="74" t="s">
         <v>223</v>
       </c>
@@ -1990,9 +1990,9 @@
       </c>
     </row>
     <row r="11" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="88"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="74" t="s">
         <v>224</v>
       </c>
@@ -2002,9 +2002,9 @@
       </c>
     </row>
     <row r="12" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="88"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="74" t="s">
         <v>226</v>
       </c>
@@ -2014,9 +2014,9 @@
       </c>
     </row>
     <row r="13" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="89"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="74" t="s">
         <v>62</v>
       </c>
@@ -2026,8 +2026,8 @@
       </c>
     </row>
     <row r="14" spans="1:6 16384:16384" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="83" t="s">
         <v>68</v>
       </c>
@@ -2040,9 +2040,9 @@
       </c>
     </row>
     <row r="15" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="87" t="s">
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="104" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="74" t="s">
@@ -2054,9 +2054,9 @@
       </c>
     </row>
     <row r="16" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="88"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="74" t="s">
         <v>230</v>
       </c>
@@ -2066,9 +2066,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="89"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="60" t="s">
         <v>232</v>
       </c>
@@ -2078,8 +2078,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="79" t="s">
         <v>9</v>
       </c>
@@ -2092,8 +2092,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="82" t="s">
         <v>75</v>
       </c>
@@ -2103,23 +2103,23 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="137" t="s">
+    <row r="20" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138" t="s">
+      <c r="D20" s="92"/>
+      <c r="E20" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="F20" s="139" t="s">
+      <c r="F20" s="93" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="86" t="s">
         <v>10</v>
       </c>
@@ -2131,33 +2131,33 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="141" t="s">
+    <row r="22" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="115" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="138" t="s">
+      <c r="D22" s="92" t="s">
         <v>238</v>
       </c>
-      <c r="E22" s="142"/>
-      <c r="F22" s="143" t="s">
+      <c r="E22" s="95"/>
+      <c r="F22" s="111" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="138" t="s">
+    <row r="23" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="E23" s="145"/>
-      <c r="F23" s="146"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="112"/>
     </row>
     <row r="24" spans="1:6" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="95"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="83" t="s">
         <v>94</v>
       </c>
@@ -2169,103 +2169,103 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="151">
+    <row r="25" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="119">
         <v>4</v>
       </c>
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="141" t="s">
+      <c r="C25" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="138" t="s">
+      <c r="D25" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="E25" s="142"/>
-      <c r="F25" s="143" t="s">
+      <c r="E25" s="95"/>
+      <c r="F25" s="111" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="151"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="138" t="s">
+    <row r="26" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="E26" s="145"/>
-      <c r="F26" s="146"/>
-    </row>
-    <row r="27" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="151"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="138" t="s">
+      <c r="E26" s="96"/>
+      <c r="F26" s="112"/>
+    </row>
+    <row r="27" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="119"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="E27" s="138"/>
-      <c r="F27" s="152" t="s">
+      <c r="E27" s="92"/>
+      <c r="F27" s="100" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="151"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="141" t="s">
+    <row r="28" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="119"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="115" t="s">
         <v>246</v>
       </c>
-      <c r="D28" s="138" t="s">
+      <c r="D28" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="E28" s="142"/>
-      <c r="F28" s="143" t="s">
+      <c r="E28" s="95"/>
+      <c r="F28" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="151"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="134" t="s">
+    <row r="29" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="88" t="s">
         <v>249</v>
       </c>
-      <c r="E29" s="148"/>
-      <c r="F29" s="146"/>
-    </row>
-    <row r="30" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="151"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="134" t="s">
+      <c r="E29" s="97"/>
+      <c r="F29" s="112"/>
+    </row>
+    <row r="30" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="119"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="88" t="s">
         <v>250</v>
       </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="143" t="s">
+      <c r="E30" s="98"/>
+      <c r="F30" s="111" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="151"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="134" t="s">
+    <row r="31" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="119"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="E31" s="148"/>
-      <c r="F31" s="146"/>
-    </row>
-    <row r="32" spans="1:6" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="134">
+      <c r="E31" s="97"/>
+      <c r="F31" s="112"/>
+    </row>
+    <row r="32" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="88">
         <v>5</v>
       </c>
-      <c r="B32" s="134" t="s">
+      <c r="B32" s="88" t="s">
         <v>252</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="139" t="s">
+      <c r="C32" s="99"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="93" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2276,12 +2276,12 @@
       <c r="B33" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="155" t="s">
+      <c r="C33" s="101" t="s">
         <v>254</v>
       </c>
       <c r="D33" s="69"/>
       <c r="E33" s="69"/>
-      <c r="F33" s="156" t="s">
+      <c r="F33" s="102" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2516,6 +2516,13 @@
     <row r="83" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C28:C31"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B6:B24"/>
@@ -2528,13 +2535,6 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
@@ -2576,59 +2576,59 @@
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="96"/>
+      <c r="E1" s="110"/>
     </row>
     <row r="2" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97">
+      <c r="A2" s="113">
         <v>1</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="135" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="139" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="117"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="145"/>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="111"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="117"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="145"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="111"/>
+      <c r="E4" s="140"/>
     </row>
     <row r="5" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="118"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="112"/>
+      <c r="E5" s="141"/>
     </row>
     <row r="6" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="116" t="s">
+      <c r="A6" s="134"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2639,9 +2639,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="119"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="118"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2650,8 +2650,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
-      <c r="B8" s="119"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="37" t="s">
         <v>27</v>
       </c>
@@ -2661,8 +2661,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119"/>
-      <c r="B9" s="119"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="37" t="s">
         <v>31</v>
       </c>
@@ -2672,8 +2672,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="134"/>
       <c r="C10" s="37" t="s">
         <v>32</v>
       </c>
@@ -2683,8 +2683,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
-      <c r="B11" s="119"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="37" t="s">
         <v>34</v>
       </c>
@@ -2694,10 +2694,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97">
+      <c r="A12" s="113">
         <v>2</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="113" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -2711,48 +2711,48 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="113" t="s">
+      <c r="A13" s="134"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="142" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="139" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="119"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="114"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="111"/>
+      <c r="E14" s="140"/>
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="119"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="114"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="143"/>
       <c r="D15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="111"/>
+      <c r="E15" s="140"/>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="115"/>
+      <c r="A16" s="134"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="112"/>
+      <c r="E16" s="141"/>
     </row>
     <row r="17" spans="1:5" s="41" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="98"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="39" t="s">
         <v>46</v>
       </c>
@@ -2762,10 +2762,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93">
+      <c r="A18" s="107">
         <v>3</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="107" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -2777,8 +2777,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -2788,8 +2788,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
@@ -2801,9 +2801,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="108"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="16" t="s">
         <v>57</v>
       </c>
@@ -2812,9 +2812,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="109"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="138"/>
       <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
@@ -2823,9 +2823,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="107" t="s">
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="137" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2836,9 +2836,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="109"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="138"/>
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
@@ -2847,50 +2847,50 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="107" t="s">
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="137" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="105" t="s">
+      <c r="E25" s="153" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="108"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="146"/>
       <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="106"/>
+      <c r="E26" s="154"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="108"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="146"/>
       <c r="D27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="105" t="s">
+      <c r="E27" s="153" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="109"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="138"/>
       <c r="D28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="106"/>
+      <c r="E28" s="154"/>
     </row>
     <row r="29" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="7" t="s">
         <v>76</v>
       </c>
@@ -2900,8 +2900,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="108"/>
       <c r="C30" s="36" t="s">
         <v>79</v>
       </c>
@@ -2911,9 +2911,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="107" t="s">
+      <c r="A31" s="108"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="137" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -2924,9 +2924,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="108"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="146"/>
       <c r="D32" s="6" t="s">
         <v>83</v>
       </c>
@@ -2935,9 +2935,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="108"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="146"/>
       <c r="D33" s="6" t="s">
         <v>85</v>
       </c>
@@ -2946,9 +2946,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="109"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="138"/>
       <c r="D34" s="6" t="s">
         <v>87</v>
       </c>
@@ -2957,8 +2957,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="7" t="s">
         <v>89</v>
       </c>
@@ -2968,8 +2968,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="94"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="7" t="s">
         <v>91</v>
       </c>
@@ -2981,8 +2981,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="94"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="36" t="s">
         <v>94</v>
       </c>
@@ -2992,10 +2992,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="102">
+      <c r="A38" s="150">
         <v>4</v>
       </c>
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="150" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -3009,9 +3009,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="103"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="90" t="s">
+      <c r="A39" s="151"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="155" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -3022,9 +3022,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="103"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="91"/>
+      <c r="A40" s="151"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="156"/>
       <c r="D40" s="42" t="s">
         <v>101</v>
       </c>
@@ -3033,9 +3033,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="103"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="92"/>
+      <c r="A41" s="151"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="157"/>
       <c r="D41" s="42" t="s">
         <v>103</v>
       </c>
@@ -3044,8 +3044,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="103"/>
-      <c r="B42" s="103"/>
+      <c r="A42" s="151"/>
+      <c r="B42" s="151"/>
       <c r="C42" s="20" t="s">
         <v>105</v>
       </c>
@@ -3055,9 +3055,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="103"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="99" t="s">
+      <c r="A43" s="151"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="147" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -3068,9 +3068,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="103"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="101"/>
+      <c r="A44" s="151"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="149"/>
       <c r="D44" s="30" t="s">
         <v>110</v>
       </c>
@@ -3079,9 +3079,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="103"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="99" t="s">
+      <c r="A45" s="151"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="147" t="s">
         <v>112</v>
       </c>
       <c r="D45" s="30" t="s">
@@ -3092,9 +3092,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="103"/>
-      <c r="B46" s="103"/>
-      <c r="C46" s="100"/>
+      <c r="A46" s="151"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="148"/>
       <c r="D46" s="30" t="s">
         <v>116</v>
       </c>
@@ -3103,9 +3103,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="103"/>
-      <c r="B47" s="103"/>
-      <c r="C47" s="100"/>
+      <c r="A47" s="151"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="148"/>
       <c r="D47" s="30" t="s">
         <v>118</v>
       </c>
@@ -3114,9 +3114,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="103"/>
-      <c r="B48" s="103"/>
-      <c r="C48" s="101"/>
+      <c r="A48" s="151"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="149"/>
       <c r="D48" s="30" t="s">
         <v>120</v>
       </c>
@@ -3125,9 +3125,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="103"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="99" t="s">
+      <c r="A49" s="151"/>
+      <c r="B49" s="151"/>
+      <c r="C49" s="147" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -3138,9 +3138,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="103"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="101"/>
+      <c r="A50" s="151"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="149"/>
       <c r="D50" s="46" t="s">
         <v>124</v>
       </c>
@@ -3149,8 +3149,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="103"/>
-      <c r="B51" s="103"/>
+      <c r="A51" s="151"/>
+      <c r="B51" s="151"/>
       <c r="C51" s="48" t="s">
         <v>126</v>
       </c>
@@ -3160,9 +3160,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="103"/>
-      <c r="B52" s="103"/>
-      <c r="C52" s="99" t="s">
+      <c r="A52" s="151"/>
+      <c r="B52" s="151"/>
+      <c r="C52" s="147" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -3173,9 +3173,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="103"/>
-      <c r="B53" s="103"/>
-      <c r="C53" s="100"/>
+      <c r="A53" s="151"/>
+      <c r="B53" s="151"/>
+      <c r="C53" s="148"/>
       <c r="D53" s="30" t="s">
         <v>130</v>
       </c>
@@ -3184,9 +3184,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="103"/>
-      <c r="B54" s="103"/>
-      <c r="C54" s="100"/>
+      <c r="A54" s="151"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="148"/>
       <c r="D54" s="30" t="s">
         <v>132</v>
       </c>
@@ -3195,9 +3195,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="103"/>
-      <c r="B55" s="103"/>
-      <c r="C55" s="100"/>
+      <c r="A55" s="151"/>
+      <c r="B55" s="151"/>
+      <c r="C55" s="148"/>
       <c r="D55" s="30" t="s">
         <v>134</v>
       </c>
@@ -3206,9 +3206,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="103"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="100"/>
+      <c r="A56" s="151"/>
+      <c r="B56" s="151"/>
+      <c r="C56" s="148"/>
       <c r="D56" s="30" t="s">
         <v>136</v>
       </c>
@@ -3217,9 +3217,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="103"/>
-      <c r="B57" s="103"/>
-      <c r="C57" s="101"/>
+      <c r="A57" s="151"/>
+      <c r="B57" s="151"/>
+      <c r="C57" s="149"/>
       <c r="D57" s="30" t="s">
         <v>138</v>
       </c>
@@ -3228,8 +3228,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="103"/>
-      <c r="B58" s="103"/>
+      <c r="A58" s="151"/>
+      <c r="B58" s="151"/>
       <c r="C58" s="48" t="s">
         <v>140</v>
       </c>
@@ -3239,8 +3239,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="103"/>
-      <c r="B59" s="103"/>
+      <c r="A59" s="151"/>
+      <c r="B59" s="151"/>
       <c r="C59" s="47" t="s">
         <v>142</v>
       </c>
@@ -3250,8 +3250,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="104"/>
-      <c r="B60" s="104"/>
+      <c r="A60" s="152"/>
+      <c r="B60" s="152"/>
       <c r="C60" s="48" t="s">
         <v>144</v>
       </c>
@@ -3261,10 +3261,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="126">
+      <c r="A61" s="132">
         <v>6</v>
       </c>
-      <c r="B61" s="126" t="s">
+      <c r="B61" s="132" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="26" t="s">
@@ -3276,8 +3276,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="127"/>
-      <c r="B62" s="127"/>
+      <c r="A62" s="133"/>
+      <c r="B62" s="133"/>
       <c r="C62" s="26" t="s">
         <v>148</v>
       </c>
@@ -3287,8 +3287,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="127"/>
-      <c r="B63" s="127"/>
+      <c r="A63" s="133"/>
+      <c r="B63" s="133"/>
       <c r="C63" s="26" t="s">
         <v>150</v>
       </c>
@@ -3300,8 +3300,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="127"/>
-      <c r="B64" s="127"/>
+      <c r="A64" s="133"/>
+      <c r="B64" s="133"/>
       <c r="C64" s="26" t="s">
         <v>154</v>
       </c>
@@ -3311,10 +3311,10 @@
       </c>
     </row>
     <row r="65" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="123">
+      <c r="A65" s="128">
         <v>7</v>
       </c>
-      <c r="B65" s="123" t="s">
+      <c r="B65" s="128" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="21" t="s">
@@ -3326,8 +3326,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="124"/>
-      <c r="B66" s="124"/>
+      <c r="A66" s="129"/>
+      <c r="B66" s="129"/>
       <c r="C66" s="21" t="s">
         <v>157</v>
       </c>
@@ -3337,8 +3337,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="124"/>
-      <c r="B67" s="124"/>
+      <c r="A67" s="129"/>
+      <c r="B67" s="129"/>
       <c r="C67" s="21" t="s">
         <v>159</v>
       </c>
@@ -3348,8 +3348,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="124"/>
-      <c r="B68" s="124"/>
+      <c r="A68" s="129"/>
+      <c r="B68" s="129"/>
       <c r="C68" s="21" t="s">
         <v>161</v>
       </c>
@@ -3359,8 +3359,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="124"/>
-      <c r="B69" s="124"/>
+      <c r="A69" s="129"/>
+      <c r="B69" s="129"/>
       <c r="C69" s="21" t="s">
         <v>162</v>
       </c>
@@ -3372,8 +3372,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="124"/>
-      <c r="B70" s="124"/>
+      <c r="A70" s="129"/>
+      <c r="B70" s="129"/>
       <c r="C70" s="21" t="s">
         <v>165</v>
       </c>
@@ -3383,46 +3383,46 @@
       </c>
     </row>
     <row r="71" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="124"/>
-      <c r="B71" s="124"/>
+      <c r="A71" s="129"/>
+      <c r="B71" s="129"/>
       <c r="C71" s="21" t="s">
         <v>166</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="120" t="s">
+      <c r="E71" s="124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="124"/>
-      <c r="B72" s="124"/>
+      <c r="A72" s="129"/>
+      <c r="B72" s="129"/>
       <c r="C72" s="21" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="22"/>
-      <c r="E72" s="121"/>
+      <c r="E72" s="131"/>
     </row>
     <row r="73" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="124"/>
-      <c r="B73" s="124"/>
+      <c r="A73" s="129"/>
+      <c r="B73" s="129"/>
       <c r="C73" s="21" t="s">
         <v>169</v>
       </c>
       <c r="D73" s="22"/>
-      <c r="E73" s="121"/>
+      <c r="E73" s="131"/>
     </row>
     <row r="74" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="124"/>
-      <c r="B74" s="124"/>
+      <c r="A74" s="129"/>
+      <c r="B74" s="129"/>
       <c r="C74" s="21" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="22"/>
-      <c r="E74" s="122"/>
+      <c r="E74" s="125"/>
     </row>
     <row r="75" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="124"/>
-      <c r="B75" s="124"/>
+      <c r="A75" s="129"/>
+      <c r="B75" s="129"/>
       <c r="C75" s="21" t="s">
         <v>171</v>
       </c>
@@ -3432,30 +3432,30 @@
       </c>
     </row>
     <row r="76" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="124"/>
-      <c r="B76" s="124"/>
+      <c r="A76" s="129"/>
+      <c r="B76" s="129"/>
       <c r="C76" s="21" t="s">
         <v>173</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="120" t="s">
+      <c r="E76" s="124" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="125"/>
-      <c r="B77" s="125"/>
+      <c r="A77" s="130"/>
+      <c r="B77" s="130"/>
       <c r="C77" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D77" s="22"/>
-      <c r="E77" s="122"/>
+      <c r="E77" s="125"/>
     </row>
     <row r="78" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="123">
+      <c r="A78" s="128">
         <v>8</v>
       </c>
-      <c r="B78" s="123" t="s">
+      <c r="B78" s="128" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="21" t="s">
@@ -3467,8 +3467,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="124"/>
-      <c r="B79" s="124"/>
+      <c r="A79" s="129"/>
+      <c r="B79" s="129"/>
       <c r="C79" s="54" t="s">
         <v>178</v>
       </c>
@@ -3478,28 +3478,28 @@
       </c>
     </row>
     <row r="80" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="124"/>
-      <c r="B80" s="124"/>
+      <c r="A80" s="129"/>
+      <c r="B80" s="129"/>
       <c r="C80" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="22"/>
-      <c r="E80" s="120" t="s">
+      <c r="E80" s="124" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="124"/>
-      <c r="B81" s="124"/>
+      <c r="A81" s="129"/>
+      <c r="B81" s="129"/>
       <c r="C81" s="21" t="s">
         <v>181</v>
       </c>
       <c r="D81" s="22"/>
-      <c r="E81" s="122"/>
+      <c r="E81" s="125"/>
     </row>
     <row r="82" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="124"/>
-      <c r="B82" s="124"/>
+      <c r="A82" s="129"/>
+      <c r="B82" s="129"/>
       <c r="C82" s="21" t="s">
         <v>183</v>
       </c>
@@ -3509,8 +3509,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="124"/>
-      <c r="B83" s="124"/>
+      <c r="A83" s="129"/>
+      <c r="B83" s="129"/>
       <c r="C83" s="21" t="s">
         <v>185</v>
       </c>
@@ -3520,8 +3520,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="124"/>
-      <c r="B84" s="124"/>
+      <c r="A84" s="129"/>
+      <c r="B84" s="129"/>
       <c r="C84" s="21" t="s">
         <v>187</v>
       </c>
@@ -3531,8 +3531,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="124"/>
-      <c r="B85" s="124"/>
+      <c r="A85" s="129"/>
+      <c r="B85" s="129"/>
       <c r="C85" s="21" t="s">
         <v>189</v>
       </c>
@@ -3542,48 +3542,48 @@
       </c>
     </row>
     <row r="86" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="124"/>
-      <c r="B86" s="124"/>
+      <c r="A86" s="129"/>
+      <c r="B86" s="129"/>
       <c r="C86" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D86" s="22"/>
-      <c r="E86" s="120" t="s">
+      <c r="E86" s="124" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="124"/>
-      <c r="B87" s="124"/>
+      <c r="A87" s="129"/>
+      <c r="B87" s="129"/>
       <c r="C87" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D87" s="22"/>
-      <c r="E87" s="122"/>
+      <c r="E87" s="125"/>
     </row>
     <row r="88" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="124"/>
-      <c r="B88" s="124"/>
+      <c r="A88" s="129"/>
+      <c r="B88" s="129"/>
       <c r="C88" s="21" t="s">
         <v>194</v>
       </c>
       <c r="D88" s="22"/>
-      <c r="E88" s="131" t="s">
+      <c r="E88" s="126" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="124"/>
-      <c r="B89" s="124"/>
+      <c r="A89" s="129"/>
+      <c r="B89" s="129"/>
       <c r="C89" s="21" t="s">
         <v>196</v>
       </c>
       <c r="D89" s="22"/>
-      <c r="E89" s="132"/>
+      <c r="E89" s="127"/>
     </row>
     <row r="90" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="124"/>
-      <c r="B90" s="124"/>
+      <c r="A90" s="129"/>
+      <c r="B90" s="129"/>
       <c r="C90" s="21" t="s">
         <v>197</v>
       </c>
@@ -3593,8 +3593,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="124"/>
-      <c r="B91" s="124"/>
+      <c r="A91" s="129"/>
+      <c r="B91" s="129"/>
       <c r="C91" s="21" t="s">
         <v>199</v>
       </c>
@@ -3604,8 +3604,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="125"/>
-      <c r="B92" s="125"/>
+      <c r="A92" s="130"/>
+      <c r="B92" s="130"/>
       <c r="C92" s="21" t="s">
         <v>201</v>
       </c>
@@ -3615,10 +3615,10 @@
       </c>
     </row>
     <row r="93" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="128">
+      <c r="A93" s="121">
         <v>9</v>
       </c>
-      <c r="B93" s="128" t="s">
+      <c r="B93" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -3630,8 +3630,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="129"/>
-      <c r="B94" s="129"/>
+      <c r="A94" s="122"/>
+      <c r="B94" s="122"/>
       <c r="C94" s="13" t="s">
         <v>204</v>
       </c>
@@ -3641,8 +3641,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="129"/>
-      <c r="B95" s="129"/>
+      <c r="A95" s="122"/>
+      <c r="B95" s="122"/>
       <c r="C95" s="13" t="s">
         <v>205</v>
       </c>
@@ -3652,8 +3652,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="129"/>
-      <c r="B96" s="129"/>
+      <c r="A96" s="122"/>
+      <c r="B96" s="122"/>
       <c r="C96" s="55" t="s">
         <v>206</v>
       </c>
@@ -3663,8 +3663,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="129"/>
-      <c r="B97" s="129"/>
+      <c r="A97" s="122"/>
+      <c r="B97" s="122"/>
       <c r="C97" s="55" t="s">
         <v>211</v>
       </c>
@@ -3676,8 +3676,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="129"/>
-      <c r="B98" s="129"/>
+      <c r="A98" s="122"/>
+      <c r="B98" s="122"/>
       <c r="C98" s="55" t="s">
         <v>214</v>
       </c>
@@ -3687,8 +3687,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="130"/>
-      <c r="B99" s="130"/>
+      <c r="A99" s="123"/>
+      <c r="B99" s="123"/>
       <c r="C99" s="13" t="s">
         <v>216</v>
       </c>
@@ -3902,31 +3902,6 @@
     <row r="162" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B78:B92"/>
-    <mergeCell ref="A78:A92"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="B38:B60"/>
     <mergeCell ref="A38:A60"/>
@@ -3940,6 +3915,31 @@
     <mergeCell ref="A18:A37"/>
     <mergeCell ref="B18:B37"/>
     <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B78:B92"/>
+    <mergeCell ref="A78:A92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/attck_windows_tech.xlsx
+++ b/attck_windows_tech.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-120" windowWidth="15630" windowHeight="7395"/>
+    <workbookView xWindow="8250" yWindow="-120" windowWidth="15630" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="274">
   <si>
     <t>ID</t>
   </si>
@@ -817,12 +817,6 @@
   </si>
   <si>
     <t>check các command powershell đã được sử dụng để discovery trong power shell event log</t>
-  </si>
-  <si>
-    <t>Taint Shared Content</t>
-  </si>
-  <si>
-    <t>check tất cả các .LNK file và hidden file trong shared network directories</t>
   </si>
   <si>
     <t>WMI logs</t>
@@ -929,7 +923,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -986,6 +980,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,7 +1056,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1296,16 +1296,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1325,43 +1318,31 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1370,29 +1351,134 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,106 +1490,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1826,7 +1841,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22:F23"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1850,14 +1865,14 @@
       <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
     </row>
     <row r="2" spans="1:6 16384:16384" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117">
+      <c r="A2" s="115">
         <v>1</v>
       </c>
       <c r="B2" s="113" t="s">
@@ -1875,38 +1890,38 @@
       </c>
     </row>
     <row r="3" spans="1:6 16384:16384" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="114"/>
       <c r="C3" s="59" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="60"/>
-      <c r="E3" s="103" t="s">
-        <v>267</v>
+      <c r="E3" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="XFD3" s="62" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6 16384:16384" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6 16384:16384" s="157" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="113">
         <v>2</v>
       </c>
       <c r="B4" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="155" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89" t="s">
-        <v>270</v>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:6 16384:16384" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1918,14 +1933,14 @@
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:6 16384:16384" s="67" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107">
+      <c r="A6" s="109">
         <v>3</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="109" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="64" t="s">
@@ -1934,13 +1949,13 @@
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
       <c r="F6" s="66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="104" t="s">
+      <c r="A7" s="110"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="106" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="71" t="s">
@@ -1948,25 +1963,25 @@
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="72" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="105"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="71" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="72" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="104" t="s">
+      <c r="A9" s="110"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="106" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="71" t="s">
@@ -1974,25 +1989,25 @@
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="72" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="106"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="74" t="s">
         <v>223</v>
       </c>
       <c r="E10" s="74"/>
       <c r="F10" s="78" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="106"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="74" t="s">
         <v>224</v>
       </c>
@@ -2002,9 +2017,9 @@
       </c>
     </row>
     <row r="12" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="106"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="74" t="s">
         <v>226</v>
       </c>
@@ -2014,35 +2029,35 @@
       </c>
     </row>
     <row r="13" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="105"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="74"/>
       <c r="F13" s="78" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:6 16384:16384" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="83" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="60"/>
       <c r="E14" s="60" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F14" s="80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="104" t="s">
+      <c r="A15" s="110"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="106" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="74" t="s">
@@ -2054,9 +2069,9 @@
       </c>
     </row>
     <row r="16" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="106"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="74" t="s">
         <v>230</v>
       </c>
@@ -2066,20 +2081,20 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="105"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="60" t="s">
         <v>232</v>
       </c>
       <c r="E17" s="60"/>
       <c r="F17" s="80" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="79" t="s">
         <v>9</v>
       </c>
@@ -2092,34 +2107,34 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
-      <c r="B19" s="108"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="82" t="s">
         <v>75</v>
       </c>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
       <c r="F19" s="80" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="91" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="110"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="F20" s="93" t="s">
-        <v>264</v>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="90" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="86" t="s">
         <v>10</v>
       </c>
@@ -2131,264 +2146,250 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="115" t="s">
+    <row r="22" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="110"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="111" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="92" t="s">
+      <c r="E22" s="98"/>
+      <c r="F22" s="158" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="110"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="74" t="s">
         <v>240</v>
       </c>
-      <c r="E23" s="96"/>
-      <c r="F23" s="112"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="159"/>
     </row>
     <row r="24" spans="1:6" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="109"/>
-      <c r="B24" s="109"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="83" t="s">
         <v>94</v>
       </c>
       <c r="D24" s="60"/>
       <c r="E24" s="84" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F24" s="85" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="119">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="100">
         <v>4</v>
       </c>
-      <c r="B25" s="119" t="s">
+      <c r="B25" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="D25" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="E25" s="95"/>
-      <c r="F25" s="111" t="s">
+      <c r="E25" s="92"/>
+      <c r="F25" s="104" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="119"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="92" t="s">
+    <row r="26" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="100"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="89" t="s">
         <v>243</v>
       </c>
-      <c r="E26" s="96"/>
-      <c r="F26" s="112"/>
-    </row>
-    <row r="27" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="119"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="92" t="s">
+      <c r="E26" s="93"/>
+      <c r="F26" s="105"/>
+    </row>
+    <row r="27" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="100"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="E27" s="92"/>
-      <c r="F27" s="100" t="s">
+      <c r="E27" s="89"/>
+      <c r="F27" s="96" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="119"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="115" t="s">
+    <row r="28" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="100"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="E28" s="95"/>
-      <c r="F28" s="111" t="s">
+      <c r="E28" s="92"/>
+      <c r="F28" s="104" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="88" t="s">
+    <row r="29" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="100"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="E29" s="97"/>
-      <c r="F29" s="112"/>
-    </row>
-    <row r="30" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="119"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="88" t="s">
+      <c r="E29" s="94"/>
+      <c r="F29" s="105"/>
+    </row>
+    <row r="30" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="100"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="160" t="s">
         <v>250</v>
       </c>
-      <c r="E30" s="98"/>
-      <c r="F30" s="111" t="s">
+      <c r="E30" s="161"/>
+      <c r="F30" s="158" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="119"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="88" t="s">
+    <row r="31" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="100"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="160" t="s">
         <v>251</v>
       </c>
-      <c r="E31" s="97"/>
-      <c r="F31" s="112"/>
-    </row>
-    <row r="32" spans="1:6" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="88">
+      <c r="E31" s="162"/>
+      <c r="F31" s="159"/>
+    </row>
+    <row r="32" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="87">
         <v>5</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="93" t="s">
+      <c r="C32" s="95"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="90" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69">
-        <v>6</v>
-      </c>
-      <c r="B33" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="101" t="s">
-        <v>254</v>
-      </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="102" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
-        <v>9</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="27"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
       <c r="D48" s="3"/>
@@ -2479,20 +2480,8 @@
       <c r="E60" s="3"/>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="11"/>
-    </row>
+    <row r="61" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2500,8 +2489,8 @@
     <row r="67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="68" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" x14ac:dyDescent="0.25"/>
+    <row r="71" x14ac:dyDescent="0.25"/>
     <row r="72" x14ac:dyDescent="0.25"/>
     <row r="73" x14ac:dyDescent="0.25"/>
     <row r="74" x14ac:dyDescent="0.25"/>
@@ -2516,13 +2505,6 @@
     <row r="83" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C28:C31"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B6:B24"/>
@@ -2535,6 +2517,13 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
@@ -2576,10 +2565,10 @@
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="110"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="113">
@@ -2588,47 +2577,47 @@
       <c r="B2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="137" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="139" t="s">
+      <c r="E2" s="131" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="145"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="138"/>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="140"/>
+      <c r="E3" s="132"/>
     </row>
     <row r="4" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="145"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="140"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="134"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="136"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="139"/>
       <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="141"/>
+      <c r="E5" s="133"/>
     </row>
     <row r="6" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="135" t="s">
+      <c r="A6" s="140"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="137" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2639,9 +2628,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="134"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="136"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2650,8 +2639,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
-      <c r="B8" s="134"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="37" t="s">
         <v>27</v>
       </c>
@@ -2661,8 +2650,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="134"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="37" t="s">
         <v>31</v>
       </c>
@@ -2672,8 +2661,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="134"/>
-      <c r="B10" s="134"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="37" t="s">
         <v>32</v>
       </c>
@@ -2683,8 +2672,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="134"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="140"/>
       <c r="C11" s="37" t="s">
         <v>34</v>
       </c>
@@ -2711,44 +2700,44 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="142" t="s">
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="134" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="139" t="s">
+      <c r="E13" s="131" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="134"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="143"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="140"/>
+      <c r="E14" s="132"/>
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="134"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="143"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="135"/>
       <c r="D15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="140"/>
+      <c r="E15" s="132"/>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="134"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="144"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="136"/>
       <c r="D16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="141"/>
+      <c r="E16" s="133"/>
     </row>
     <row r="17" spans="1:5" s="41" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="114"/>
@@ -2762,10 +2751,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107">
+      <c r="A18" s="109">
         <v>3</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="109" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -2777,8 +2766,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
-      <c r="B19" s="108"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -2788,8 +2777,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="108"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
@@ -2801,9 +2790,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="146"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="129"/>
       <c r="D21" s="16" t="s">
         <v>57</v>
       </c>
@@ -2812,9 +2801,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="138"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="130"/>
       <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
@@ -2823,9 +2812,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="137" t="s">
+      <c r="A23" s="110"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="128" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2836,9 +2825,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="138"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
@@ -2847,50 +2836,50 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="137" t="s">
+      <c r="A25" s="110"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="128" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="153" t="s">
+      <c r="E25" s="123" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="146"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="129"/>
       <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="154"/>
+      <c r="E26" s="124"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="146"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="129"/>
       <c r="D27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="153" t="s">
+      <c r="E27" s="123" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="138"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="130"/>
       <c r="D28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="154"/>
+      <c r="E28" s="124"/>
     </row>
     <row r="29" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
-      <c r="B29" s="108"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="110"/>
       <c r="C29" s="7" t="s">
         <v>76</v>
       </c>
@@ -2900,8 +2889,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
-      <c r="B30" s="108"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="110"/>
       <c r="C30" s="36" t="s">
         <v>79</v>
       </c>
@@ -2911,9 +2900,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="137" t="s">
+      <c r="A31" s="110"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="128" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -2924,9 +2913,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="146"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="129"/>
       <c r="D32" s="6" t="s">
         <v>83</v>
       </c>
@@ -2935,9 +2924,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="108"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="146"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="129"/>
       <c r="D33" s="6" t="s">
         <v>85</v>
       </c>
@@ -2946,9 +2935,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="138"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="130"/>
       <c r="D34" s="6" t="s">
         <v>87</v>
       </c>
@@ -2957,8 +2946,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
-      <c r="B35" s="108"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="110"/>
       <c r="C35" s="7" t="s">
         <v>89</v>
       </c>
@@ -2968,8 +2957,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="108"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="7" t="s">
         <v>91</v>
       </c>
@@ -2981,8 +2970,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
-      <c r="B37" s="108"/>
+      <c r="A37" s="110"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="36" t="s">
         <v>94</v>
       </c>
@@ -2992,10 +2981,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="150">
+      <c r="A38" s="120">
         <v>4</v>
       </c>
-      <c r="B38" s="150" t="s">
+      <c r="B38" s="120" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -3009,9 +2998,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="151"/>
-      <c r="B39" s="151"/>
-      <c r="C39" s="155" t="s">
+      <c r="A39" s="121"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="125" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -3022,9 +3011,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="151"/>
-      <c r="B40" s="151"/>
-      <c r="C40" s="156"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="126"/>
       <c r="D40" s="42" t="s">
         <v>101</v>
       </c>
@@ -3033,9 +3022,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="151"/>
-      <c r="B41" s="151"/>
-      <c r="C41" s="157"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="127"/>
       <c r="D41" s="42" t="s">
         <v>103</v>
       </c>
@@ -3044,8 +3033,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="151"/>
-      <c r="B42" s="151"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="121"/>
       <c r="C42" s="20" t="s">
         <v>105</v>
       </c>
@@ -3055,9 +3044,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="151"/>
-      <c r="B43" s="151"/>
-      <c r="C43" s="147" t="s">
+      <c r="A43" s="121"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="117" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -3068,9 +3057,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="151"/>
-      <c r="B44" s="151"/>
-      <c r="C44" s="149"/>
+      <c r="A44" s="121"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="119"/>
       <c r="D44" s="30" t="s">
         <v>110</v>
       </c>
@@ -3079,9 +3068,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="151"/>
-      <c r="B45" s="151"/>
-      <c r="C45" s="147" t="s">
+      <c r="A45" s="121"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="117" t="s">
         <v>112</v>
       </c>
       <c r="D45" s="30" t="s">
@@ -3092,9 +3081,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="151"/>
-      <c r="B46" s="151"/>
-      <c r="C46" s="148"/>
+      <c r="A46" s="121"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="118"/>
       <c r="D46" s="30" t="s">
         <v>116</v>
       </c>
@@ -3103,9 +3092,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="151"/>
-      <c r="B47" s="151"/>
-      <c r="C47" s="148"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="30" t="s">
         <v>118</v>
       </c>
@@ -3114,9 +3103,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="151"/>
-      <c r="B48" s="151"/>
-      <c r="C48" s="149"/>
+      <c r="A48" s="121"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="119"/>
       <c r="D48" s="30" t="s">
         <v>120</v>
       </c>
@@ -3125,9 +3114,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="151"/>
-      <c r="B49" s="151"/>
-      <c r="C49" s="147" t="s">
+      <c r="A49" s="121"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="117" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -3138,9 +3127,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="151"/>
-      <c r="B50" s="151"/>
-      <c r="C50" s="149"/>
+      <c r="A50" s="121"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="119"/>
       <c r="D50" s="46" t="s">
         <v>124</v>
       </c>
@@ -3149,8 +3138,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="151"/>
-      <c r="B51" s="151"/>
+      <c r="A51" s="121"/>
+      <c r="B51" s="121"/>
       <c r="C51" s="48" t="s">
         <v>126</v>
       </c>
@@ -3160,9 +3149,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="151"/>
-      <c r="B52" s="151"/>
-      <c r="C52" s="147" t="s">
+      <c r="A52" s="121"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="117" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -3173,9 +3162,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="151"/>
-      <c r="B53" s="151"/>
-      <c r="C53" s="148"/>
+      <c r="A53" s="121"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="118"/>
       <c r="D53" s="30" t="s">
         <v>130</v>
       </c>
@@ -3184,9 +3173,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="151"/>
-      <c r="B54" s="151"/>
-      <c r="C54" s="148"/>
+      <c r="A54" s="121"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="118"/>
       <c r="D54" s="30" t="s">
         <v>132</v>
       </c>
@@ -3195,9 +3184,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="151"/>
-      <c r="B55" s="151"/>
-      <c r="C55" s="148"/>
+      <c r="A55" s="121"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="118"/>
       <c r="D55" s="30" t="s">
         <v>134</v>
       </c>
@@ -3206,9 +3195,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="151"/>
-      <c r="B56" s="151"/>
-      <c r="C56" s="148"/>
+      <c r="A56" s="121"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="118"/>
       <c r="D56" s="30" t="s">
         <v>136</v>
       </c>
@@ -3217,9 +3206,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="151"/>
-      <c r="B57" s="151"/>
-      <c r="C57" s="149"/>
+      <c r="A57" s="121"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="119"/>
       <c r="D57" s="30" t="s">
         <v>138</v>
       </c>
@@ -3228,8 +3217,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="151"/>
-      <c r="B58" s="151"/>
+      <c r="A58" s="121"/>
+      <c r="B58" s="121"/>
       <c r="C58" s="48" t="s">
         <v>140</v>
       </c>
@@ -3239,8 +3228,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="151"/>
-      <c r="B59" s="151"/>
+      <c r="A59" s="121"/>
+      <c r="B59" s="121"/>
       <c r="C59" s="47" t="s">
         <v>142</v>
       </c>
@@ -3250,8 +3239,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="152"/>
-      <c r="B60" s="152"/>
+      <c r="A60" s="122"/>
+      <c r="B60" s="122"/>
       <c r="C60" s="48" t="s">
         <v>144</v>
       </c>
@@ -3261,10 +3250,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="132">
+      <c r="A61" s="147">
         <v>6</v>
       </c>
-      <c r="B61" s="132" t="s">
+      <c r="B61" s="147" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="26" t="s">
@@ -3276,8 +3265,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="133"/>
-      <c r="B62" s="133"/>
+      <c r="A62" s="148"/>
+      <c r="B62" s="148"/>
       <c r="C62" s="26" t="s">
         <v>148</v>
       </c>
@@ -3287,8 +3276,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="133"/>
-      <c r="B63" s="133"/>
+      <c r="A63" s="148"/>
+      <c r="B63" s="148"/>
       <c r="C63" s="26" t="s">
         <v>150</v>
       </c>
@@ -3300,8 +3289,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="133"/>
-      <c r="B64" s="133"/>
+      <c r="A64" s="148"/>
+      <c r="B64" s="148"/>
       <c r="C64" s="26" t="s">
         <v>154</v>
       </c>
@@ -3311,10 +3300,10 @@
       </c>
     </row>
     <row r="65" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="128">
+      <c r="A65" s="144">
         <v>7</v>
       </c>
-      <c r="B65" s="128" t="s">
+      <c r="B65" s="144" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="21" t="s">
@@ -3326,8 +3315,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="129"/>
-      <c r="B66" s="129"/>
+      <c r="A66" s="145"/>
+      <c r="B66" s="145"/>
       <c r="C66" s="21" t="s">
         <v>157</v>
       </c>
@@ -3337,8 +3326,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="129"/>
-      <c r="B67" s="129"/>
+      <c r="A67" s="145"/>
+      <c r="B67" s="145"/>
       <c r="C67" s="21" t="s">
         <v>159</v>
       </c>
@@ -3348,8 +3337,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="129"/>
-      <c r="B68" s="129"/>
+      <c r="A68" s="145"/>
+      <c r="B68" s="145"/>
       <c r="C68" s="21" t="s">
         <v>161</v>
       </c>
@@ -3359,8 +3348,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="129"/>
-      <c r="B69" s="129"/>
+      <c r="A69" s="145"/>
+      <c r="B69" s="145"/>
       <c r="C69" s="21" t="s">
         <v>162</v>
       </c>
@@ -3372,8 +3361,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="129"/>
-      <c r="B70" s="129"/>
+      <c r="A70" s="145"/>
+      <c r="B70" s="145"/>
       <c r="C70" s="21" t="s">
         <v>165</v>
       </c>
@@ -3383,46 +3372,46 @@
       </c>
     </row>
     <row r="71" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="129"/>
-      <c r="B71" s="129"/>
+      <c r="A71" s="145"/>
+      <c r="B71" s="145"/>
       <c r="C71" s="21" t="s">
         <v>166</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="124" t="s">
+      <c r="E71" s="141" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="129"/>
-      <c r="B72" s="129"/>
+      <c r="A72" s="145"/>
+      <c r="B72" s="145"/>
       <c r="C72" s="21" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="22"/>
-      <c r="E72" s="131"/>
+      <c r="E72" s="142"/>
     </row>
     <row r="73" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="129"/>
-      <c r="B73" s="129"/>
+      <c r="A73" s="145"/>
+      <c r="B73" s="145"/>
       <c r="C73" s="21" t="s">
         <v>169</v>
       </c>
       <c r="D73" s="22"/>
-      <c r="E73" s="131"/>
+      <c r="E73" s="142"/>
     </row>
     <row r="74" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="129"/>
-      <c r="B74" s="129"/>
+      <c r="A74" s="145"/>
+      <c r="B74" s="145"/>
       <c r="C74" s="21" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="22"/>
-      <c r="E74" s="125"/>
+      <c r="E74" s="143"/>
     </row>
     <row r="75" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="129"/>
-      <c r="B75" s="129"/>
+      <c r="A75" s="145"/>
+      <c r="B75" s="145"/>
       <c r="C75" s="21" t="s">
         <v>171</v>
       </c>
@@ -3432,30 +3421,30 @@
       </c>
     </row>
     <row r="76" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="129"/>
-      <c r="B76" s="129"/>
+      <c r="A76" s="145"/>
+      <c r="B76" s="145"/>
       <c r="C76" s="21" t="s">
         <v>173</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="124" t="s">
+      <c r="E76" s="141" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="130"/>
-      <c r="B77" s="130"/>
+      <c r="A77" s="146"/>
+      <c r="B77" s="146"/>
       <c r="C77" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D77" s="22"/>
-      <c r="E77" s="125"/>
+      <c r="E77" s="143"/>
     </row>
     <row r="78" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="128">
+      <c r="A78" s="144">
         <v>8</v>
       </c>
-      <c r="B78" s="128" t="s">
+      <c r="B78" s="144" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="21" t="s">
@@ -3467,8 +3456,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="129"/>
-      <c r="B79" s="129"/>
+      <c r="A79" s="145"/>
+      <c r="B79" s="145"/>
       <c r="C79" s="54" t="s">
         <v>178</v>
       </c>
@@ -3478,28 +3467,28 @@
       </c>
     </row>
     <row r="80" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="129"/>
-      <c r="B80" s="129"/>
+      <c r="A80" s="145"/>
+      <c r="B80" s="145"/>
       <c r="C80" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="22"/>
-      <c r="E80" s="124" t="s">
+      <c r="E80" s="141" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="129"/>
-      <c r="B81" s="129"/>
+      <c r="A81" s="145"/>
+      <c r="B81" s="145"/>
       <c r="C81" s="21" t="s">
         <v>181</v>
       </c>
       <c r="D81" s="22"/>
-      <c r="E81" s="125"/>
+      <c r="E81" s="143"/>
     </row>
     <row r="82" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="129"/>
-      <c r="B82" s="129"/>
+      <c r="A82" s="145"/>
+      <c r="B82" s="145"/>
       <c r="C82" s="21" t="s">
         <v>183</v>
       </c>
@@ -3509,8 +3498,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="129"/>
-      <c r="B83" s="129"/>
+      <c r="A83" s="145"/>
+      <c r="B83" s="145"/>
       <c r="C83" s="21" t="s">
         <v>185</v>
       </c>
@@ -3520,8 +3509,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="129"/>
-      <c r="B84" s="129"/>
+      <c r="A84" s="145"/>
+      <c r="B84" s="145"/>
       <c r="C84" s="21" t="s">
         <v>187</v>
       </c>
@@ -3531,8 +3520,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="129"/>
-      <c r="B85" s="129"/>
+      <c r="A85" s="145"/>
+      <c r="B85" s="145"/>
       <c r="C85" s="21" t="s">
         <v>189</v>
       </c>
@@ -3542,48 +3531,48 @@
       </c>
     </row>
     <row r="86" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="129"/>
-      <c r="B86" s="129"/>
+      <c r="A86" s="145"/>
+      <c r="B86" s="145"/>
       <c r="C86" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D86" s="22"/>
-      <c r="E86" s="124" t="s">
+      <c r="E86" s="141" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="129"/>
-      <c r="B87" s="129"/>
+      <c r="A87" s="145"/>
+      <c r="B87" s="145"/>
       <c r="C87" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D87" s="22"/>
-      <c r="E87" s="125"/>
+      <c r="E87" s="143"/>
     </row>
     <row r="88" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="129"/>
-      <c r="B88" s="129"/>
+      <c r="A88" s="145"/>
+      <c r="B88" s="145"/>
       <c r="C88" s="21" t="s">
         <v>194</v>
       </c>
       <c r="D88" s="22"/>
-      <c r="E88" s="126" t="s">
+      <c r="E88" s="152" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="129"/>
-      <c r="B89" s="129"/>
+      <c r="A89" s="145"/>
+      <c r="B89" s="145"/>
       <c r="C89" s="21" t="s">
         <v>196</v>
       </c>
       <c r="D89" s="22"/>
-      <c r="E89" s="127"/>
+      <c r="E89" s="153"/>
     </row>
     <row r="90" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="129"/>
-      <c r="B90" s="129"/>
+      <c r="A90" s="145"/>
+      <c r="B90" s="145"/>
       <c r="C90" s="21" t="s">
         <v>197</v>
       </c>
@@ -3593,8 +3582,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="129"/>
-      <c r="B91" s="129"/>
+      <c r="A91" s="145"/>
+      <c r="B91" s="145"/>
       <c r="C91" s="21" t="s">
         <v>199</v>
       </c>
@@ -3604,8 +3593,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="130"/>
-      <c r="B92" s="130"/>
+      <c r="A92" s="146"/>
+      <c r="B92" s="146"/>
       <c r="C92" s="21" t="s">
         <v>201</v>
       </c>
@@ -3615,10 +3604,10 @@
       </c>
     </row>
     <row r="93" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="121">
+      <c r="A93" s="149">
         <v>9</v>
       </c>
-      <c r="B93" s="121" t="s">
+      <c r="B93" s="149" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -3630,8 +3619,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="122"/>
-      <c r="B94" s="122"/>
+      <c r="A94" s="150"/>
+      <c r="B94" s="150"/>
       <c r="C94" s="13" t="s">
         <v>204</v>
       </c>
@@ -3641,8 +3630,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="122"/>
-      <c r="B95" s="122"/>
+      <c r="A95" s="150"/>
+      <c r="B95" s="150"/>
       <c r="C95" s="13" t="s">
         <v>205</v>
       </c>
@@ -3652,8 +3641,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="122"/>
-      <c r="B96" s="122"/>
+      <c r="A96" s="150"/>
+      <c r="B96" s="150"/>
       <c r="C96" s="55" t="s">
         <v>206</v>
       </c>
@@ -3663,8 +3652,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="122"/>
-      <c r="B97" s="122"/>
+      <c r="A97" s="150"/>
+      <c r="B97" s="150"/>
       <c r="C97" s="55" t="s">
         <v>211</v>
       </c>
@@ -3676,8 +3665,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="122"/>
-      <c r="B98" s="122"/>
+      <c r="A98" s="150"/>
+      <c r="B98" s="150"/>
       <c r="C98" s="55" t="s">
         <v>214</v>
       </c>
@@ -3687,8 +3676,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="123"/>
-      <c r="B99" s="123"/>
+      <c r="A99" s="151"/>
+      <c r="B99" s="151"/>
       <c r="C99" s="13" t="s">
         <v>216</v>
       </c>
@@ -3902,6 +3891,31 @@
     <row r="162" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B78:B92"/>
+    <mergeCell ref="A78:A92"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="B38:B60"/>
     <mergeCell ref="A38:A60"/>
@@ -3915,31 +3929,6 @@
     <mergeCell ref="A18:A37"/>
     <mergeCell ref="B18:B37"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B78:B92"/>
-    <mergeCell ref="A78:A92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/attck_windows_tech.xlsx
+++ b/attck_windows_tech.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreatHuntingToolBuilding\CheckATTCK\CheckATTCKTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VCS\DetectATTCK\CheckATTCKTools\CheckATTCKTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCBBC94-485A-495C-84AB-5562E34EA148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="-120" windowWidth="15630" windowHeight="7395"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="281">
   <si>
     <t>ID</t>
   </si>
@@ -732,9 +733,6 @@
     <t>Disable or Modify System Firewall</t>
   </si>
   <si>
-    <t>check theo event ID 5025, 5034</t>
-  </si>
-  <si>
     <t>Impair Command History Logging</t>
   </si>
   <si>
@@ -819,9 +817,6 @@
     <t>check các command powershell đã được sử dụng để discovery trong power shell event log</t>
   </si>
   <si>
-    <t>WMI logs</t>
-  </si>
-  <si>
     <t>check WMI log</t>
   </si>
   <si>
@@ -849,18 +844,9 @@
     <t>Nhúng script bên trong XSL file</t>
   </si>
   <si>
-    <t xml:space="preserve">check WMI log (Không có log nếu ko enable logging tại HKEY_LOCAL_MACHINE\SOFTWARE\Microsoft\WBEM\CIMOM /v Logging) </t>
-  </si>
-  <si>
     <t>https://docs.microsoft.com/en-us/windows/win32/wmisdk/logging-wmi-activity</t>
   </si>
   <si>
-    <t>check theo event ID 4670  (Default không enable audit object thì sẽ không có event log và nếu enable thì phải enable cho từng file)</t>
-  </si>
-  <si>
-    <t>check theo event id 5136, 5137, 5138, 5139, 5141 (chưa có cách phân biệt policy attacker và qtri viên) (default ko enable audit)</t>
-  </si>
-  <si>
     <t>Get-ADUser john -Properties sidhistory, event id 4765. 4766 (Chưa setup được lab)</t>
   </si>
   <si>
@@ -877,12 +863,48 @@
   </si>
   <si>
     <t>check theo event id 4768, 4769 (chưa set up được lab)</t>
+  </si>
+  <si>
+    <t>Khi detect phải kết hợp event log  dựa trên các hành vi của user sau khi đăng nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Không có log nếu ko enable logging tại HKEY_LOCAL_MACHINE\SOFTWARE\Microsoft\WBEM\CIMOM /v Logging, sau win Vistar ko còn được sp) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check WMI log </t>
+  </si>
+  <si>
+    <t>(chưa có cách phân biệt policy attacker và qtri viên) (default ko enable audit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check theo event id 5136, 5137, 5138, 5139, 5141 </t>
+  </si>
+  <si>
+    <t>(Default không enable audit object thì sẽ không có event log và nếu enable thì phải enable cho từng file)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check theo event ID 4670 </t>
+  </si>
+  <si>
+    <t>check theo event ID 4946, 4947, 4948, 4950, 4954, 4956, 5025, 5034 or file pfirewall.log</t>
+  </si>
+  <si>
+    <t>https://www.howtogeek.com/220204/how-to-track-firewall-activity-with-the-windows-firewall-log; https://www.eventsentry.com/kb/429</t>
+  </si>
+  <si>
+    <t>Default log Firewall bị disable</t>
+  </si>
+  <si>
+    <t>Có quá nhiều event, dấu hiệu để lọc là các event chứa blank field</t>
+  </si>
+  <si>
+    <t>check event id 24, 25, 1149</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -990,7 +1012,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1050,13 +1072,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1229,9 +1264,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1315,9 +1347,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1327,6 +1356,43 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1351,37 +1417,82 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1417,107 +1528,51 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1835,13 +1890,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XFD84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="XFC3" sqref="XFC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1852,10 +1907,12 @@
     <col min="4" max="5" width="33.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="76.140625" style="12" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" hidden="1"/>
+    <col min="8" max="16382" width="9.140625" hidden="1"/>
+    <col min="16383" max="16383" width="79.28515625" style="162" customWidth="1"/>
+    <col min="16384" max="16384" width="9.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6 16384:16384" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6 16382:16383" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -1865,531 +1922,590 @@
       <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-    </row>
-    <row r="2" spans="1:6 16384:16384" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115">
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="XFC1" s="158"/>
+    </row>
+    <row r="2" spans="1:6 16382:16383" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="109">
         <v>1</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="76" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="75" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="3" spans="1:6 16384:16384" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116"/>
-      <c r="B3" s="114"/>
+      <c r="XFB2" s="154"/>
+    </row>
+    <row r="3" spans="1:6 16382:16383" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="110"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="59" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="60"/>
-      <c r="E3" s="97" t="s">
-        <v>265</v>
+      <c r="E3" s="95" t="s">
+        <v>262</v>
       </c>
       <c r="F3" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="XFB3" s="155"/>
+      <c r="XFC3" s="163" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6 16382:16383" s="99" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="107">
+        <v>2</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="XFB4" s="156"/>
+    </row>
+    <row r="5" spans="1:6 16382:16383" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="XFB5" s="157"/>
+      <c r="XFC5" s="69" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6 16382:16383" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="103">
+        <v>3</v>
+      </c>
+      <c r="B6" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="XFC6" s="67" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="XFC7" s="159"/>
+    </row>
+    <row r="8" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="70"/>
+      <c r="F8" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="XFC8" s="159"/>
+    </row>
+    <row r="9" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="XFC9" s="159"/>
+    </row>
+    <row r="10" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="73"/>
+      <c r="F10" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="XFC10" s="159"/>
+    </row>
+    <row r="11" spans="1:6 16382:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="XFC11" s="164" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="73"/>
+      <c r="F12" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="XFC12" s="159"/>
+    </row>
+    <row r="13" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="73"/>
+      <c r="F13" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="XFC13" s="159"/>
+    </row>
+    <row r="14" spans="1:6 16382:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="79" t="s">
+        <v>267</v>
+      </c>
+      <c r="XFC14" s="160"/>
+    </row>
+    <row r="15" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="104"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" s="73"/>
+      <c r="F15" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="XFC15" s="159"/>
+    </row>
+    <row r="16" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="104"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="73"/>
+      <c r="F16" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="XFC16" s="159"/>
+    </row>
+    <row r="17" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="79" t="s">
         <v>264</v>
       </c>
-      <c r="XFD3" s="62" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6 16384:16384" s="157" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113">
-        <v>2</v>
-      </c>
-      <c r="B4" s="113" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="154" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="155" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6 16384:16384" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="61" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6 16384:16384" s="67" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="109">
-        <v>3</v>
-      </c>
-      <c r="B6" s="109" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="78" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="78" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="74" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="78" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="78" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6 16384:16384" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="F14" s="80" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="78" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6 16384:16384" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="74" t="s">
-        <v>230</v>
-      </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="78" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="60" t="s">
+      <c r="XFC17" s="160"/>
+    </row>
+    <row r="18" spans="1:6 16383:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="80" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="74" t="s">
+      <c r="E18" s="73"/>
+      <c r="F18" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="78" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="82" t="s">
+      <c r="XFC18" s="159"/>
+    </row>
+    <row r="19" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="81" t="s">
         <v>75</v>
       </c>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
-      <c r="F19" s="80" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="88" t="s">
+      <c r="F19" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="XFC19" s="160"/>
+    </row>
+    <row r="20" spans="1:6 16383:16383" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89" t="s">
+      <c r="D20" s="88"/>
+      <c r="E20" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="XFC20" s="161"/>
+    </row>
+    <row r="21" spans="1:6 16383:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="XFC21" s="159"/>
+    </row>
+    <row r="22" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="171" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="165"/>
+      <c r="F22" s="166" t="s">
+        <v>268</v>
+      </c>
+      <c r="XFC22" s="171" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="169"/>
+      <c r="XFC23" s="172"/>
+    </row>
+    <row r="24" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="105"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="60"/>
+      <c r="E24" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="F20" s="90" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="78" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="106" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" s="74" t="s">
+      <c r="F24" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="XFC24" s="160"/>
+    </row>
+    <row r="25" spans="1:6 16383:16383" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="111">
+        <v>4</v>
+      </c>
+      <c r="B25" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" s="91"/>
+      <c r="F25" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="XFC25" s="161"/>
+    </row>
+    <row r="26" spans="1:6 16383:16383" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="92"/>
+      <c r="F26" s="116"/>
+      <c r="XFC26" s="161"/>
+    </row>
+    <row r="27" spans="1:6 16383:16383" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" s="88"/>
+      <c r="F27" s="94" t="s">
+        <v>244</v>
+      </c>
+      <c r="XFC27" s="161"/>
+    </row>
+    <row r="28" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="111"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="171" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="165"/>
+      <c r="F28" s="166" t="s">
+        <v>247</v>
+      </c>
+      <c r="XFC28" s="167" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" s="168"/>
+      <c r="F29" s="169"/>
+      <c r="XFC29" s="170"/>
+    </row>
+    <row r="30" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" s="174"/>
+      <c r="F30" s="166" t="s">
         <v>238</v>
       </c>
-      <c r="E22" s="98"/>
-      <c r="F22" s="158" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="159"/>
-    </row>
-    <row r="24" spans="1:6" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="84" t="s">
-        <v>263</v>
-      </c>
-      <c r="F24" s="85" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="100">
-        <v>4</v>
-      </c>
-      <c r="B25" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="89" t="s">
-        <v>241</v>
-      </c>
-      <c r="E25" s="92"/>
-      <c r="F25" s="104" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="100"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="89" t="s">
-        <v>243</v>
-      </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="105"/>
-    </row>
-    <row r="27" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="100"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="89" t="s">
-        <v>244</v>
-      </c>
-      <c r="E27" s="89"/>
-      <c r="F27" s="96" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="100"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="101" t="s">
-        <v>246</v>
-      </c>
-      <c r="D28" s="89" t="s">
-        <v>247</v>
-      </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="104" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="100"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="87" t="s">
-        <v>249</v>
-      </c>
-      <c r="E29" s="94"/>
-      <c r="F29" s="105"/>
-    </row>
-    <row r="30" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="100"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="160" t="s">
+      <c r="XFC30" s="171" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="E30" s="161"/>
-      <c r="F30" s="158" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="100"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="160" t="s">
+      <c r="E31" s="168"/>
+      <c r="F31" s="169"/>
+      <c r="XFC31" s="172"/>
+    </row>
+    <row r="32" spans="1:6 16383:16383" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="86">
+        <v>5</v>
+      </c>
+      <c r="B32" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="E31" s="162"/>
-      <c r="F31" s="159"/>
-    </row>
-    <row r="32" spans="1:6" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="87">
+      <c r="C32" s="93"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="XFC32" s="161"/>
+    </row>
+    <row r="33" spans="1:6 16383:16383" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="86">
         <v>5</v>
       </c>
-      <c r="B32" s="87" t="s">
-        <v>252</v>
-      </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="90" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="86"/>
+      <c r="F33" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="XFC33" s="93"/>
+    </row>
+    <row r="34" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
       <c r="D48" s="3"/>
@@ -2480,7 +2596,13 @@
       <c r="E60" s="3"/>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="11"/>
+    </row>
     <row r="62" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2489,7 +2611,7 @@
     <row r="67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="68" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="71" x14ac:dyDescent="0.25"/>
     <row r="72" x14ac:dyDescent="0.25"/>
     <row r="73" x14ac:dyDescent="0.25"/>
@@ -2503,8 +2625,19 @@
     <row r="81" x14ac:dyDescent="0.25"/>
     <row r="82" x14ac:dyDescent="0.25"/>
     <row r="83" x14ac:dyDescent="0.25"/>
+    <row r="84" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
+    <mergeCell ref="XFC22:XFC23"/>
+    <mergeCell ref="XFC30:XFC31"/>
+    <mergeCell ref="XFC28:XFC29"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C28:C31"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B6:B24"/>
@@ -2517,24 +2650,19 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{DD8F9265-69D8-4360-8E9D-6B924F393B6D}"/>
+    <hyperlink ref="E11" r:id="rId3" display="https://www.howtogeek.com/220204/how-to-track-firewall-activity-with-the-windows-firewall-log/" xr:uid="{0B0EE775-990C-463F-8B8A-60C94637DCBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFC162"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2565,59 +2693,59 @@
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="112"/>
+      <c r="E1" s="106"/>
     </row>
     <row r="2" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113">
+      <c r="A2" s="107">
         <v>1</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="131" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="131" t="s">
+      <c r="E2" s="135" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="138"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="141"/>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="132"/>
+      <c r="E3" s="136"/>
     </row>
     <row r="4" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="138"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="141"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="132"/>
+      <c r="E4" s="136"/>
     </row>
     <row r="5" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="139"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="133"/>
+      <c r="E5" s="137"/>
     </row>
     <row r="6" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="137" t="s">
+      <c r="A6" s="130"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="131" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2628,9 +2756,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="140"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2639,8 +2767,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
-      <c r="B8" s="140"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="37" t="s">
         <v>27</v>
       </c>
@@ -2650,8 +2778,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="140"/>
-      <c r="B9" s="140"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="37" t="s">
         <v>31</v>
       </c>
@@ -2661,8 +2789,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
-      <c r="B10" s="140"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="37" t="s">
         <v>32</v>
       </c>
@@ -2672,8 +2800,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="140"/>
-      <c r="B11" s="140"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="37" t="s">
         <v>34</v>
       </c>
@@ -2683,10 +2811,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="113">
+      <c r="A12" s="107">
         <v>2</v>
       </c>
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -2700,48 +2828,48 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="140"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="134" t="s">
+      <c r="A13" s="130"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="138" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="131" t="s">
+      <c r="E13" s="135" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="135"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="139"/>
       <c r="D14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="132"/>
+      <c r="E14" s="136"/>
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="140"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="135"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="139"/>
       <c r="D15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="132"/>
+      <c r="E15" s="136"/>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="136"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="133"/>
+      <c r="E16" s="137"/>
     </row>
     <row r="17" spans="1:5" s="41" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="114"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="39" t="s">
         <v>46</v>
       </c>
@@ -2751,10 +2879,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="109">
+      <c r="A18" s="103">
         <v>3</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="103" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -2766,8 +2894,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -2777,8 +2905,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
@@ -2790,9 +2918,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="129"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="16" t="s">
         <v>57</v>
       </c>
@@ -2801,9 +2929,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="130"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
@@ -2812,9 +2940,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="128" t="s">
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="133" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2825,9 +2953,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="130"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
@@ -2836,50 +2964,50 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="128" t="s">
+      <c r="A25" s="104"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="133" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="123" t="s">
+      <c r="E25" s="149" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="129"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="142"/>
       <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="124"/>
+      <c r="E26" s="150"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="129"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="142"/>
       <c r="D27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="123" t="s">
+      <c r="E27" s="149" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="130"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="124"/>
+      <c r="E28" s="150"/>
     </row>
     <row r="29" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="110"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="7" t="s">
         <v>76</v>
       </c>
@@ -2889,8 +3017,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
-      <c r="B30" s="110"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="36" t="s">
         <v>79</v>
       </c>
@@ -2900,9 +3028,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="128" t="s">
+      <c r="A31" s="104"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="133" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -2913,9 +3041,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="110"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="129"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="142"/>
       <c r="D32" s="6" t="s">
         <v>83</v>
       </c>
@@ -2924,9 +3052,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="110"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="129"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="142"/>
       <c r="D33" s="6" t="s">
         <v>85</v>
       </c>
@@ -2935,9 +3063,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="110"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="130"/>
+      <c r="A34" s="104"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="134"/>
       <c r="D34" s="6" t="s">
         <v>87</v>
       </c>
@@ -2946,8 +3074,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="110"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="104"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="7" t="s">
         <v>89</v>
       </c>
@@ -2957,8 +3085,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="110"/>
-      <c r="B36" s="110"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="7" t="s">
         <v>91</v>
       </c>
@@ -2970,8 +3098,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="110"/>
-      <c r="B37" s="110"/>
+      <c r="A37" s="104"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="36" t="s">
         <v>94</v>
       </c>
@@ -2981,10 +3109,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="120">
+      <c r="A38" s="146">
         <v>4</v>
       </c>
-      <c r="B38" s="120" t="s">
+      <c r="B38" s="146" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -2998,9 +3126,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="125" t="s">
+      <c r="A39" s="147"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="151" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -3011,9 +3139,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="121"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="126"/>
+      <c r="A40" s="147"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="152"/>
       <c r="D40" s="42" t="s">
         <v>101</v>
       </c>
@@ -3022,9 +3150,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="127"/>
+      <c r="A41" s="147"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="153"/>
       <c r="D41" s="42" t="s">
         <v>103</v>
       </c>
@@ -3033,8 +3161,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="121"/>
-      <c r="B42" s="121"/>
+      <c r="A42" s="147"/>
+      <c r="B42" s="147"/>
       <c r="C42" s="20" t="s">
         <v>105</v>
       </c>
@@ -3044,9 +3172,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="121"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="117" t="s">
+      <c r="A43" s="147"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="143" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -3057,9 +3185,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="121"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="119"/>
+      <c r="A44" s="147"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="145"/>
       <c r="D44" s="30" t="s">
         <v>110</v>
       </c>
@@ -3068,9 +3196,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="121"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="117" t="s">
+      <c r="A45" s="147"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="143" t="s">
         <v>112</v>
       </c>
       <c r="D45" s="30" t="s">
@@ -3081,9 +3209,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="121"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="118"/>
+      <c r="A46" s="147"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="144"/>
       <c r="D46" s="30" t="s">
         <v>116</v>
       </c>
@@ -3092,9 +3220,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="121"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="118"/>
+      <c r="A47" s="147"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="144"/>
       <c r="D47" s="30" t="s">
         <v>118</v>
       </c>
@@ -3103,9 +3231,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="121"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="119"/>
+      <c r="A48" s="147"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="145"/>
       <c r="D48" s="30" t="s">
         <v>120</v>
       </c>
@@ -3114,9 +3242,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="121"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="117" t="s">
+      <c r="A49" s="147"/>
+      <c r="B49" s="147"/>
+      <c r="C49" s="143" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -3127,9 +3255,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="121"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="119"/>
+      <c r="A50" s="147"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="145"/>
       <c r="D50" s="46" t="s">
         <v>124</v>
       </c>
@@ -3138,8 +3266,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="121"/>
-      <c r="B51" s="121"/>
+      <c r="A51" s="147"/>
+      <c r="B51" s="147"/>
       <c r="C51" s="48" t="s">
         <v>126</v>
       </c>
@@ -3149,9 +3277,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="121"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="117" t="s">
+      <c r="A52" s="147"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="143" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -3162,9 +3290,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="121"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="118"/>
+      <c r="A53" s="147"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="144"/>
       <c r="D53" s="30" t="s">
         <v>130</v>
       </c>
@@ -3173,9 +3301,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="121"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="118"/>
+      <c r="A54" s="147"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="144"/>
       <c r="D54" s="30" t="s">
         <v>132</v>
       </c>
@@ -3184,9 +3312,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="121"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="118"/>
+      <c r="A55" s="147"/>
+      <c r="B55" s="147"/>
+      <c r="C55" s="144"/>
       <c r="D55" s="30" t="s">
         <v>134</v>
       </c>
@@ -3195,9 +3323,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="121"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="118"/>
+      <c r="A56" s="147"/>
+      <c r="B56" s="147"/>
+      <c r="C56" s="144"/>
       <c r="D56" s="30" t="s">
         <v>136</v>
       </c>
@@ -3206,9 +3334,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="121"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="119"/>
+      <c r="A57" s="147"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="145"/>
       <c r="D57" s="30" t="s">
         <v>138</v>
       </c>
@@ -3217,8 +3345,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="121"/>
-      <c r="B58" s="121"/>
+      <c r="A58" s="147"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="48" t="s">
         <v>140</v>
       </c>
@@ -3228,8 +3356,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="121"/>
-      <c r="B59" s="121"/>
+      <c r="A59" s="147"/>
+      <c r="B59" s="147"/>
       <c r="C59" s="47" t="s">
         <v>142</v>
       </c>
@@ -3239,8 +3367,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="122"/>
-      <c r="B60" s="122"/>
+      <c r="A60" s="148"/>
+      <c r="B60" s="148"/>
       <c r="C60" s="48" t="s">
         <v>144</v>
       </c>
@@ -3250,10 +3378,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="147">
+      <c r="A61" s="128">
         <v>6</v>
       </c>
-      <c r="B61" s="147" t="s">
+      <c r="B61" s="128" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="26" t="s">
@@ -3265,8 +3393,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="148"/>
-      <c r="B62" s="148"/>
+      <c r="A62" s="129"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="26" t="s">
         <v>148</v>
       </c>
@@ -3276,8 +3404,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="148"/>
-      <c r="B63" s="148"/>
+      <c r="A63" s="129"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="26" t="s">
         <v>150</v>
       </c>
@@ -3289,8 +3417,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="148"/>
-      <c r="B64" s="148"/>
+      <c r="A64" s="129"/>
+      <c r="B64" s="129"/>
       <c r="C64" s="26" t="s">
         <v>154</v>
       </c>
@@ -3300,10 +3428,10 @@
       </c>
     </row>
     <row r="65" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="144">
+      <c r="A65" s="124">
         <v>7</v>
       </c>
-      <c r="B65" s="144" t="s">
+      <c r="B65" s="124" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="21" t="s">
@@ -3315,8 +3443,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="145"/>
-      <c r="B66" s="145"/>
+      <c r="A66" s="125"/>
+      <c r="B66" s="125"/>
       <c r="C66" s="21" t="s">
         <v>157</v>
       </c>
@@ -3326,8 +3454,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="145"/>
-      <c r="B67" s="145"/>
+      <c r="A67" s="125"/>
+      <c r="B67" s="125"/>
       <c r="C67" s="21" t="s">
         <v>159</v>
       </c>
@@ -3337,8 +3465,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="145"/>
-      <c r="B68" s="145"/>
+      <c r="A68" s="125"/>
+      <c r="B68" s="125"/>
       <c r="C68" s="21" t="s">
         <v>161</v>
       </c>
@@ -3348,8 +3476,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="145"/>
-      <c r="B69" s="145"/>
+      <c r="A69" s="125"/>
+      <c r="B69" s="125"/>
       <c r="C69" s="21" t="s">
         <v>162</v>
       </c>
@@ -3361,8 +3489,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="145"/>
-      <c r="B70" s="145"/>
+      <c r="A70" s="125"/>
+      <c r="B70" s="125"/>
       <c r="C70" s="21" t="s">
         <v>165</v>
       </c>
@@ -3372,46 +3500,46 @@
       </c>
     </row>
     <row r="71" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="145"/>
-      <c r="B71" s="145"/>
+      <c r="A71" s="125"/>
+      <c r="B71" s="125"/>
       <c r="C71" s="21" t="s">
         <v>166</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="141" t="s">
+      <c r="E71" s="120" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="145"/>
-      <c r="B72" s="145"/>
+      <c r="A72" s="125"/>
+      <c r="B72" s="125"/>
       <c r="C72" s="21" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="22"/>
-      <c r="E72" s="142"/>
+      <c r="E72" s="127"/>
     </row>
     <row r="73" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="145"/>
-      <c r="B73" s="145"/>
+      <c r="A73" s="125"/>
+      <c r="B73" s="125"/>
       <c r="C73" s="21" t="s">
         <v>169</v>
       </c>
       <c r="D73" s="22"/>
-      <c r="E73" s="142"/>
+      <c r="E73" s="127"/>
     </row>
     <row r="74" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="145"/>
-      <c r="B74" s="145"/>
+      <c r="A74" s="125"/>
+      <c r="B74" s="125"/>
       <c r="C74" s="21" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="22"/>
-      <c r="E74" s="143"/>
+      <c r="E74" s="121"/>
     </row>
     <row r="75" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="145"/>
-      <c r="B75" s="145"/>
+      <c r="A75" s="125"/>
+      <c r="B75" s="125"/>
       <c r="C75" s="21" t="s">
         <v>171</v>
       </c>
@@ -3421,30 +3549,30 @@
       </c>
     </row>
     <row r="76" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="145"/>
-      <c r="B76" s="145"/>
+      <c r="A76" s="125"/>
+      <c r="B76" s="125"/>
       <c r="C76" s="21" t="s">
         <v>173</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="141" t="s">
+      <c r="E76" s="120" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="146"/>
-      <c r="B77" s="146"/>
+      <c r="A77" s="126"/>
+      <c r="B77" s="126"/>
       <c r="C77" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D77" s="22"/>
-      <c r="E77" s="143"/>
+      <c r="E77" s="121"/>
     </row>
     <row r="78" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="144">
+      <c r="A78" s="124">
         <v>8</v>
       </c>
-      <c r="B78" s="144" t="s">
+      <c r="B78" s="124" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="21" t="s">
@@ -3456,8 +3584,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="145"/>
-      <c r="B79" s="145"/>
+      <c r="A79" s="125"/>
+      <c r="B79" s="125"/>
       <c r="C79" s="54" t="s">
         <v>178</v>
       </c>
@@ -3467,28 +3595,28 @@
       </c>
     </row>
     <row r="80" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="145"/>
-      <c r="B80" s="145"/>
+      <c r="A80" s="125"/>
+      <c r="B80" s="125"/>
       <c r="C80" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="22"/>
-      <c r="E80" s="141" t="s">
+      <c r="E80" s="120" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="145"/>
-      <c r="B81" s="145"/>
+      <c r="A81" s="125"/>
+      <c r="B81" s="125"/>
       <c r="C81" s="21" t="s">
         <v>181</v>
       </c>
       <c r="D81" s="22"/>
-      <c r="E81" s="143"/>
+      <c r="E81" s="121"/>
     </row>
     <row r="82" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="145"/>
-      <c r="B82" s="145"/>
+      <c r="A82" s="125"/>
+      <c r="B82" s="125"/>
       <c r="C82" s="21" t="s">
         <v>183</v>
       </c>
@@ -3498,8 +3626,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="145"/>
-      <c r="B83" s="145"/>
+      <c r="A83" s="125"/>
+      <c r="B83" s="125"/>
       <c r="C83" s="21" t="s">
         <v>185</v>
       </c>
@@ -3509,8 +3637,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="145"/>
-      <c r="B84" s="145"/>
+      <c r="A84" s="125"/>
+      <c r="B84" s="125"/>
       <c r="C84" s="21" t="s">
         <v>187</v>
       </c>
@@ -3520,8 +3648,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="145"/>
-      <c r="B85" s="145"/>
+      <c r="A85" s="125"/>
+      <c r="B85" s="125"/>
       <c r="C85" s="21" t="s">
         <v>189</v>
       </c>
@@ -3531,48 +3659,48 @@
       </c>
     </row>
     <row r="86" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="145"/>
-      <c r="B86" s="145"/>
+      <c r="A86" s="125"/>
+      <c r="B86" s="125"/>
       <c r="C86" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D86" s="22"/>
-      <c r="E86" s="141" t="s">
+      <c r="E86" s="120" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="145"/>
-      <c r="B87" s="145"/>
+      <c r="A87" s="125"/>
+      <c r="B87" s="125"/>
       <c r="C87" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D87" s="22"/>
-      <c r="E87" s="143"/>
+      <c r="E87" s="121"/>
     </row>
     <row r="88" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="145"/>
-      <c r="B88" s="145"/>
+      <c r="A88" s="125"/>
+      <c r="B88" s="125"/>
       <c r="C88" s="21" t="s">
         <v>194</v>
       </c>
       <c r="D88" s="22"/>
-      <c r="E88" s="152" t="s">
+      <c r="E88" s="122" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="145"/>
-      <c r="B89" s="145"/>
+      <c r="A89" s="125"/>
+      <c r="B89" s="125"/>
       <c r="C89" s="21" t="s">
         <v>196</v>
       </c>
       <c r="D89" s="22"/>
-      <c r="E89" s="153"/>
+      <c r="E89" s="123"/>
     </row>
     <row r="90" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="145"/>
-      <c r="B90" s="145"/>
+      <c r="A90" s="125"/>
+      <c r="B90" s="125"/>
       <c r="C90" s="21" t="s">
         <v>197</v>
       </c>
@@ -3582,8 +3710,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="145"/>
-      <c r="B91" s="145"/>
+      <c r="A91" s="125"/>
+      <c r="B91" s="125"/>
       <c r="C91" s="21" t="s">
         <v>199</v>
       </c>
@@ -3593,8 +3721,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="146"/>
-      <c r="B92" s="146"/>
+      <c r="A92" s="126"/>
+      <c r="B92" s="126"/>
       <c r="C92" s="21" t="s">
         <v>201</v>
       </c>
@@ -3604,10 +3732,10 @@
       </c>
     </row>
     <row r="93" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="149">
+      <c r="A93" s="117">
         <v>9</v>
       </c>
-      <c r="B93" s="149" t="s">
+      <c r="B93" s="117" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -3619,8 +3747,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="150"/>
-      <c r="B94" s="150"/>
+      <c r="A94" s="118"/>
+      <c r="B94" s="118"/>
       <c r="C94" s="13" t="s">
         <v>204</v>
       </c>
@@ -3630,8 +3758,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="150"/>
-      <c r="B95" s="150"/>
+      <c r="A95" s="118"/>
+      <c r="B95" s="118"/>
       <c r="C95" s="13" t="s">
         <v>205</v>
       </c>
@@ -3641,8 +3769,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="150"/>
-      <c r="B96" s="150"/>
+      <c r="A96" s="118"/>
+      <c r="B96" s="118"/>
       <c r="C96" s="55" t="s">
         <v>206</v>
       </c>
@@ -3652,8 +3780,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="150"/>
-      <c r="B97" s="150"/>
+      <c r="A97" s="118"/>
+      <c r="B97" s="118"/>
       <c r="C97" s="55" t="s">
         <v>211</v>
       </c>
@@ -3665,8 +3793,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="150"/>
-      <c r="B98" s="150"/>
+      <c r="A98" s="118"/>
+      <c r="B98" s="118"/>
       <c r="C98" s="55" t="s">
         <v>214</v>
       </c>
@@ -3676,8 +3804,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="151"/>
-      <c r="B99" s="151"/>
+      <c r="A99" s="119"/>
+      <c r="B99" s="119"/>
       <c r="C99" s="13" t="s">
         <v>216</v>
       </c>
@@ -3891,31 +4019,6 @@
     <row r="162" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B78:B92"/>
-    <mergeCell ref="A78:A92"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="B38:B60"/>
     <mergeCell ref="A38:A60"/>
@@ -3929,6 +4032,31 @@
     <mergeCell ref="A18:A37"/>
     <mergeCell ref="B18:B37"/>
     <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B78:B92"/>
+    <mergeCell ref="A78:A92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/attck_windows_tech.xlsx
+++ b/attck_windows_tech.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VCS\DetectATTCK\CheckATTCKTools\CheckATTCKTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreatHuntingToolBuilding\CheckATTCK\CheckATTCKTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCBBC94-485A-495C-84AB-5562E34EA148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="284">
   <si>
     <t>ID</t>
   </si>
@@ -715,9 +714,6 @@
     <t>PowerShell</t>
   </si>
   <si>
-    <t>đã có powershell windows event log -&gt; bổ sung thêm file ConsoleHost.txt</t>
-  </si>
-  <si>
     <t>SID-History Injection</t>
   </si>
   <si>
@@ -899,12 +895,24 @@
   </si>
   <si>
     <t>check event id 24, 25, 1149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t>May co dang bat AV ko (status: ON, OFF, LastUpdate)</t>
+  </si>
+  <si>
+    <t>Event ID check rule</t>
+  </si>
+  <si>
+    <t>check voi cac log khac</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -945,7 +953,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1008,6 +1016,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,7 +1111,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1255,35 +1275,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1306,53 +1301,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1366,213 +1331,298 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1890,13 +1940,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="XFC3" sqref="XFC3"/>
+      <selection pane="bottomLeft" activeCell="XFC28" sqref="XFC28:XFC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1908,7 +1958,7 @@
     <col min="6" max="6" width="76.140625" style="12" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="16382" width="9.140625" hidden="1"/>
-    <col min="16383" max="16383" width="79.28515625" style="162" customWidth="1"/>
+    <col min="16383" max="16383" width="79.28515625" style="87" customWidth="1"/>
     <col min="16384" max="16384" width="9.42578125" hidden="1"/>
   </cols>
   <sheetData>
@@ -1922,490 +1972,500 @@
       <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="XFC1" s="158"/>
-    </row>
-    <row r="2" spans="1:6 16382:16383" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="XFC1" s="83"/>
+    </row>
+    <row r="2" spans="1:6 16382:16383" s="67" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="110">
         <v>1</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="75" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="XFB2" s="81"/>
+    </row>
+    <row r="3" spans="1:6 16382:16383" s="163" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="111"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="160" t="s">
+        <v>270</v>
+      </c>
+      <c r="XFB3" s="161"/>
+      <c r="XFC3" s="162" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6 16382:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="108">
+        <v>2</v>
+      </c>
+      <c r="B4" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="XFB2" s="154"/>
-    </row>
-    <row r="3" spans="1:6 16382:16383" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="95" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="79" t="s">
         <v>262</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="XFB4" s="82"/>
+    </row>
+    <row r="5" spans="1:6 16382:16383" s="168" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="XFB5" s="167"/>
+      <c r="XFC5" s="168" t="s">
         <v>271</v>
       </c>
-      <c r="XFB3" s="155"/>
-      <c r="XFC3" s="163" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6 16382:16383" s="99" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107">
-        <v>2</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98" t="s">
+    </row>
+    <row r="6" spans="1:6 16382:16383" s="166" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="104">
+        <v>3</v>
+      </c>
+      <c r="B6" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="164" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="165" t="s">
+        <v>274</v>
+      </c>
+      <c r="XFC6" s="77" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6 16382:16383" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="XFC7" s="84"/>
+    </row>
+    <row r="8" spans="1:6 16382:16383" s="171" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="169" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="169"/>
+      <c r="F8" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="XFC8" s="172"/>
+    </row>
+    <row r="9" spans="1:6 16382:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="155" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="155"/>
+      <c r="F9" s="165" t="s">
+        <v>254</v>
+      </c>
+      <c r="XFC9" s="173" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6 16382:16383" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="68" t="s">
+        <v>257</v>
+      </c>
+      <c r="XFC10" s="84"/>
+    </row>
+    <row r="11" spans="1:6 16382:16383" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="105"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>275</v>
+      </c>
+      <c r="XFC11" s="88" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6 16382:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="105"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="150" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="150"/>
+      <c r="F12" s="174" t="s">
+        <v>225</v>
+      </c>
+      <c r="XFC12" s="173" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6 16382:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="105"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="150" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="150"/>
+      <c r="F13" s="174" t="s">
+        <v>255</v>
+      </c>
+      <c r="XFC13" s="173" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6 16382:16383" s="179" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="176"/>
+      <c r="E14" s="177" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="178" t="s">
+        <v>266</v>
+      </c>
+      <c r="XFC14" s="180"/>
+    </row>
+    <row r="15" spans="1:6 16382:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="105"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="150" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="150"/>
+      <c r="F15" s="174" t="s">
+        <v>227</v>
+      </c>
+      <c r="XFC15" s="173" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6 16382:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="105"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="150" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="150"/>
+      <c r="F16" s="174" t="s">
+        <v>229</v>
+      </c>
+      <c r="XFC16" s="173" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6 16383:16383" s="179" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="105"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="176" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="176"/>
+      <c r="F17" s="178" t="s">
         <v>263</v>
       </c>
-      <c r="XFB4" s="156"/>
-    </row>
-    <row r="5" spans="1:6 16382:16383" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="XFB5" s="157"/>
-      <c r="XFC5" s="69" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6 16382:16383" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103">
-        <v>3</v>
-      </c>
-      <c r="B6" s="103" t="s">
+      <c r="XFC17" s="180"/>
+    </row>
+    <row r="18" spans="1:6 16383:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="105"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="181" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="150" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="150"/>
+      <c r="F18" s="174" t="s">
+        <v>232</v>
+      </c>
+      <c r="XFC18" s="173"/>
+    </row>
+    <row r="19" spans="1:6 16383:16383" s="179" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="105"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="182" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="178" t="s">
+        <v>264</v>
+      </c>
+      <c r="XFC19" s="180"/>
+    </row>
+    <row r="20" spans="1:6 16383:16383" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>259</v>
+      </c>
+      <c r="XFC20" s="85"/>
+    </row>
+    <row r="21" spans="1:6 16383:16383" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="XFC21" s="84"/>
+    </row>
+    <row r="22" spans="1:6 16383:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="149" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="150" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152" t="s">
+        <v>267</v>
+      </c>
+      <c r="XFC22" s="149" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6 16383:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="150" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="155"/>
+      <c r="F23" s="156"/>
+      <c r="XFC23" s="154"/>
+    </row>
+    <row r="24" spans="1:6 16383:16383" s="179" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="106"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="175" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="176"/>
+      <c r="E24" s="183" t="s">
+        <v>260</v>
+      </c>
+      <c r="F24" s="184" t="s">
+        <v>252</v>
+      </c>
+      <c r="XFC24" s="180"/>
+    </row>
+    <row r="25" spans="1:6 16383:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="97">
+        <v>4</v>
+      </c>
+      <c r="B25" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="150" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" s="151"/>
+      <c r="F25" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="XFC25" s="173"/>
+    </row>
+    <row r="26" spans="1:6 16383:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="97"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="185"/>
+      <c r="D26" s="150" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="155"/>
+      <c r="F26" s="156"/>
+      <c r="XFC26" s="173"/>
+    </row>
+    <row r="27" spans="1:6 16383:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="97"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="150" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="150"/>
+      <c r="F27" s="186" t="s">
+        <v>243</v>
+      </c>
+      <c r="XFC27" s="173"/>
+    </row>
+    <row r="28" spans="1:6 16383:16383" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="97"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="E28" s="89"/>
+      <c r="F28" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="XFC28" s="95" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6 16383:16383" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="97"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="90"/>
+      <c r="F29" s="99"/>
+      <c r="XFC29" s="96"/>
+    </row>
+    <row r="30" spans="1:6 16383:16383" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="97"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" s="92"/>
+      <c r="F30" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="XFC30" s="93" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6 16383:16383" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="97"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="E31" s="90"/>
+      <c r="F31" s="99"/>
+      <c r="XFC31" s="94"/>
+    </row>
+    <row r="32" spans="1:6 16383:16383" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="72">
         <v>5</v>
       </c>
-      <c r="C6" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65" t="s">
-        <v>275</v>
-      </c>
-      <c r="XFC6" s="67" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71" t="s">
-        <v>257</v>
-      </c>
-      <c r="XFC7" s="159"/>
-    </row>
-    <row r="8" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="71" t="s">
-        <v>254</v>
-      </c>
-      <c r="XFC8" s="159"/>
-    </row>
-    <row r="9" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="71" t="s">
-        <v>255</v>
-      </c>
-      <c r="XFC9" s="159"/>
-    </row>
-    <row r="10" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="XFC10" s="159"/>
-    </row>
-    <row r="11" spans="1:6 16382:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="E11" s="95" t="s">
-        <v>277</v>
-      </c>
-      <c r="F11" s="79" t="s">
-        <v>276</v>
-      </c>
-      <c r="XFC11" s="164" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="XFC12" s="159"/>
-    </row>
-    <row r="13" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="XFC13" s="159"/>
-    </row>
-    <row r="14" spans="1:6 16382:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="95" t="s">
-        <v>266</v>
-      </c>
-      <c r="F14" s="79" t="s">
-        <v>267</v>
-      </c>
-      <c r="XFC14" s="160"/>
-    </row>
-    <row r="15" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="77" t="s">
-        <v>228</v>
-      </c>
-      <c r="XFC15" s="159"/>
-    </row>
-    <row r="16" spans="1:6 16382:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="XFC16" s="159"/>
-    </row>
-    <row r="17" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="79" t="s">
-        <v>264</v>
-      </c>
-      <c r="XFC17" s="160"/>
-    </row>
-    <row r="18" spans="1:6 16383:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="77" t="s">
-        <v>233</v>
-      </c>
-      <c r="XFC18" s="159"/>
-    </row>
-    <row r="19" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="XFC19" s="160"/>
-    </row>
-    <row r="20" spans="1:6 16383:16383" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88" t="s">
-        <v>259</v>
-      </c>
-      <c r="F20" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="XFC20" s="161"/>
-    </row>
-    <row r="21" spans="1:6 16383:16383" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="XFC21" s="159"/>
-    </row>
-    <row r="22" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="171" t="s">
-        <v>236</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="E22" s="165"/>
-      <c r="F22" s="166" t="s">
-        <v>268</v>
-      </c>
-      <c r="XFC22" s="171" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="169"/>
-      <c r="XFC23" s="172"/>
-    </row>
-    <row r="24" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="83" t="s">
-        <v>261</v>
-      </c>
-      <c r="F24" s="84" t="s">
-        <v>253</v>
-      </c>
-      <c r="XFC24" s="160"/>
-    </row>
-    <row r="25" spans="1:6 16383:16383" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="111">
-        <v>4</v>
-      </c>
-      <c r="B25" s="111" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="115" t="s">
-        <v>241</v>
-      </c>
-      <c r="XFC25" s="161"/>
-    </row>
-    <row r="26" spans="1:6 16383:16383" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="92"/>
-      <c r="F26" s="116"/>
-      <c r="XFC26" s="161"/>
-    </row>
-    <row r="27" spans="1:6 16383:16383" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="111"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="88" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="XFC27" s="161"/>
-    </row>
-    <row r="28" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="111"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="171" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="E28" s="165"/>
-      <c r="F28" s="166" t="s">
-        <v>247</v>
-      </c>
-      <c r="XFC28" s="167" t="s">
+      <c r="B32" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="75"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="XFC32" s="86"/>
+    </row>
+    <row r="33" spans="1:6 16383:16383" s="179" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="187">
+        <v>5</v>
+      </c>
+      <c r="B33" s="187" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="188" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="187" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="187"/>
+      <c r="F33" s="178" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="29" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="E29" s="168"/>
-      <c r="F29" s="169"/>
-      <c r="XFC29" s="170"/>
-    </row>
-    <row r="30" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="E30" s="174"/>
-      <c r="F30" s="166" t="s">
-        <v>238</v>
-      </c>
-      <c r="XFC30" s="171" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6 16383:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="68" t="s">
-        <v>250</v>
-      </c>
-      <c r="E31" s="168"/>
-      <c r="F31" s="169"/>
-      <c r="XFC31" s="172"/>
-    </row>
-    <row r="32" spans="1:6 16383:16383" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86">
-        <v>5</v>
-      </c>
-      <c r="B32" s="86" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="XFC32" s="161"/>
-    </row>
-    <row r="33" spans="1:6 16383:16383" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="86">
-        <v>5</v>
-      </c>
-      <c r="B33" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E33" s="86"/>
-      <c r="F33" s="89" t="s">
-        <v>280</v>
-      </c>
-      <c r="XFC33" s="93"/>
+      <c r="XFC33" s="188"/>
     </row>
     <row r="34" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
@@ -2628,16 +2688,6 @@
     <row r="84" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="XFC22:XFC23"/>
-    <mergeCell ref="XFC30:XFC31"/>
-    <mergeCell ref="XFC28:XFC29"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C28:C31"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B6:B24"/>
@@ -2650,11 +2700,21 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="XFC22:XFC23"/>
+    <mergeCell ref="XFC30:XFC31"/>
+    <mergeCell ref="XFC28:XFC29"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E14" r:id="rId2" xr:uid="{DD8F9265-69D8-4360-8E9D-6B924F393B6D}"/>
-    <hyperlink ref="E11" r:id="rId3" display="https://www.howtogeek.com/220204/how-to-track-firewall-activity-with-the-windows-firewall-log/" xr:uid="{0B0EE775-990C-463F-8B8A-60C94637DCBB}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E14" r:id="rId2"/>
+    <hyperlink ref="E11" r:id="rId3" display="https://www.howtogeek.com/220204/how-to-track-firewall-activity-with-the-windows-firewall-log/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2662,11 +2722,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC162"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
@@ -2693,59 +2753,59 @@
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="106"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107">
+      <c r="A2" s="108">
         <v>1</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="132" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="135" t="s">
+      <c r="E2" s="126" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="141"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="133"/>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="136"/>
+      <c r="E3" s="127"/>
     </row>
     <row r="4" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="141"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="136"/>
+      <c r="E4" s="127"/>
     </row>
     <row r="5" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="132"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="137"/>
+      <c r="E5" s="128"/>
     </row>
     <row r="6" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="131" t="s">
+      <c r="A6" s="135"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="132" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2756,9 +2816,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="130"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="132"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2767,8 +2827,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="130"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="37" t="s">
         <v>27</v>
       </c>
@@ -2778,8 +2838,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="130"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="37" t="s">
         <v>31</v>
       </c>
@@ -2789,8 +2849,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="135"/>
       <c r="C10" s="37" t="s">
         <v>32</v>
       </c>
@@ -2800,8 +2860,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="130"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="37" t="s">
         <v>34</v>
       </c>
@@ -2811,10 +2871,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107">
+      <c r="A12" s="108">
         <v>2</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="108" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -2828,48 +2888,48 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="138" t="s">
+      <c r="A13" s="135"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="129" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="135" t="s">
+      <c r="E13" s="126" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="139"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="130"/>
       <c r="D14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="136"/>
+      <c r="E14" s="127"/>
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="139"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="136"/>
+      <c r="E15" s="127"/>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="140"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="137"/>
+      <c r="E16" s="128"/>
     </row>
     <row r="17" spans="1:5" s="41" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="39" t="s">
         <v>46</v>
       </c>
@@ -2879,10 +2939,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103">
+      <c r="A18" s="104">
         <v>3</v>
       </c>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="104" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -2894,8 +2954,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -2905,8 +2965,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
@@ -2918,9 +2978,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="142"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="124"/>
       <c r="D21" s="16" t="s">
         <v>57</v>
       </c>
@@ -2929,9 +2989,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="134"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="125"/>
       <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
@@ -2940,9 +3000,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="133" t="s">
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="123" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2953,9 +3013,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="134"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
@@ -2964,50 +3024,50 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="133" t="s">
+      <c r="A25" s="105"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="123" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="149" t="s">
+      <c r="E25" s="118" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="142"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="124"/>
       <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="150"/>
+      <c r="E26" s="119"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="142"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="124"/>
       <c r="D27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="149" t="s">
+      <c r="E27" s="118" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="134"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="125"/>
       <c r="D28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="150"/>
+      <c r="E28" s="119"/>
     </row>
     <row r="29" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="7" t="s">
         <v>76</v>
       </c>
@@ -3017,8 +3077,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="104"/>
-      <c r="B30" s="104"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="105"/>
       <c r="C30" s="36" t="s">
         <v>79</v>
       </c>
@@ -3028,9 +3088,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="104"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="133" t="s">
+      <c r="A31" s="105"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="123" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -3041,9 +3101,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="104"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="142"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="124"/>
       <c r="D32" s="6" t="s">
         <v>83</v>
       </c>
@@ -3052,9 +3112,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="104"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="142"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="124"/>
       <c r="D33" s="6" t="s">
         <v>85</v>
       </c>
@@ -3063,9 +3123,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="104"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="134"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="125"/>
       <c r="D34" s="6" t="s">
         <v>87</v>
       </c>
@@ -3074,8 +3134,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="104"/>
-      <c r="B35" s="104"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="105"/>
       <c r="C35" s="7" t="s">
         <v>89</v>
       </c>
@@ -3085,8 +3145,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="104"/>
-      <c r="B36" s="104"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="7" t="s">
         <v>91</v>
       </c>
@@ -3098,8 +3158,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="104"/>
-      <c r="B37" s="104"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="36" t="s">
         <v>94</v>
       </c>
@@ -3109,10 +3169,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="146">
+      <c r="A38" s="115">
         <v>4</v>
       </c>
-      <c r="B38" s="146" t="s">
+      <c r="B38" s="115" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -3126,9 +3186,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="147"/>
-      <c r="B39" s="147"/>
-      <c r="C39" s="151" t="s">
+      <c r="A39" s="116"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="120" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -3139,9 +3199,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="147"/>
-      <c r="B40" s="147"/>
-      <c r="C40" s="152"/>
+      <c r="A40" s="116"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="121"/>
       <c r="D40" s="42" t="s">
         <v>101</v>
       </c>
@@ -3150,9 +3210,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="147"/>
-      <c r="B41" s="147"/>
-      <c r="C41" s="153"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="122"/>
       <c r="D41" s="42" t="s">
         <v>103</v>
       </c>
@@ -3161,8 +3221,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="147"/>
-      <c r="B42" s="147"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="20" t="s">
         <v>105</v>
       </c>
@@ -3172,9 +3232,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="147"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="143" t="s">
+      <c r="A43" s="116"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="112" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -3185,9 +3245,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="147"/>
-      <c r="B44" s="147"/>
-      <c r="C44" s="145"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="114"/>
       <c r="D44" s="30" t="s">
         <v>110</v>
       </c>
@@ -3196,9 +3256,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="147"/>
-      <c r="B45" s="147"/>
-      <c r="C45" s="143" t="s">
+      <c r="A45" s="116"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="112" t="s">
         <v>112</v>
       </c>
       <c r="D45" s="30" t="s">
@@ -3209,9 +3269,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="147"/>
-      <c r="B46" s="147"/>
-      <c r="C46" s="144"/>
+      <c r="A46" s="116"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="30" t="s">
         <v>116</v>
       </c>
@@ -3220,9 +3280,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="147"/>
-      <c r="B47" s="147"/>
-      <c r="C47" s="144"/>
+      <c r="A47" s="116"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="30" t="s">
         <v>118</v>
       </c>
@@ -3231,9 +3291,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="147"/>
-      <c r="B48" s="147"/>
-      <c r="C48" s="145"/>
+      <c r="A48" s="116"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="114"/>
       <c r="D48" s="30" t="s">
         <v>120</v>
       </c>
@@ -3242,9 +3302,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="147"/>
-      <c r="B49" s="147"/>
-      <c r="C49" s="143" t="s">
+      <c r="A49" s="116"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="112" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -3255,9 +3315,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="147"/>
-      <c r="B50" s="147"/>
-      <c r="C50" s="145"/>
+      <c r="A50" s="116"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="114"/>
       <c r="D50" s="46" t="s">
         <v>124</v>
       </c>
@@ -3266,8 +3326,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="147"/>
-      <c r="B51" s="147"/>
+      <c r="A51" s="116"/>
+      <c r="B51" s="116"/>
       <c r="C51" s="48" t="s">
         <v>126</v>
       </c>
@@ -3277,9 +3337,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="147"/>
-      <c r="B52" s="147"/>
-      <c r="C52" s="143" t="s">
+      <c r="A52" s="116"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="112" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -3290,9 +3350,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="147"/>
-      <c r="B53" s="147"/>
-      <c r="C53" s="144"/>
+      <c r="A53" s="116"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="113"/>
       <c r="D53" s="30" t="s">
         <v>130</v>
       </c>
@@ -3301,9 +3361,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="147"/>
-      <c r="B54" s="147"/>
-      <c r="C54" s="144"/>
+      <c r="A54" s="116"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="113"/>
       <c r="D54" s="30" t="s">
         <v>132</v>
       </c>
@@ -3312,9 +3372,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="147"/>
-      <c r="B55" s="147"/>
-      <c r="C55" s="144"/>
+      <c r="A55" s="116"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="113"/>
       <c r="D55" s="30" t="s">
         <v>134</v>
       </c>
@@ -3323,9 +3383,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="147"/>
-      <c r="B56" s="147"/>
-      <c r="C56" s="144"/>
+      <c r="A56" s="116"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="113"/>
       <c r="D56" s="30" t="s">
         <v>136</v>
       </c>
@@ -3334,9 +3394,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="147"/>
-      <c r="B57" s="147"/>
-      <c r="C57" s="145"/>
+      <c r="A57" s="116"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="114"/>
       <c r="D57" s="30" t="s">
         <v>138</v>
       </c>
@@ -3345,8 +3405,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="147"/>
-      <c r="B58" s="147"/>
+      <c r="A58" s="116"/>
+      <c r="B58" s="116"/>
       <c r="C58" s="48" t="s">
         <v>140</v>
       </c>
@@ -3356,8 +3416,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="147"/>
-      <c r="B59" s="147"/>
+      <c r="A59" s="116"/>
+      <c r="B59" s="116"/>
       <c r="C59" s="47" t="s">
         <v>142</v>
       </c>
@@ -3367,8 +3427,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="148"/>
-      <c r="B60" s="148"/>
+      <c r="A60" s="117"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="48" t="s">
         <v>144</v>
       </c>
@@ -3378,10 +3438,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="128">
+      <c r="A61" s="142">
         <v>6</v>
       </c>
-      <c r="B61" s="128" t="s">
+      <c r="B61" s="142" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="26" t="s">
@@ -3393,8 +3453,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="129"/>
-      <c r="B62" s="129"/>
+      <c r="A62" s="143"/>
+      <c r="B62" s="143"/>
       <c r="C62" s="26" t="s">
         <v>148</v>
       </c>
@@ -3404,8 +3464,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="129"/>
-      <c r="B63" s="129"/>
+      <c r="A63" s="143"/>
+      <c r="B63" s="143"/>
       <c r="C63" s="26" t="s">
         <v>150</v>
       </c>
@@ -3417,8 +3477,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="129"/>
-      <c r="B64" s="129"/>
+      <c r="A64" s="143"/>
+      <c r="B64" s="143"/>
       <c r="C64" s="26" t="s">
         <v>154</v>
       </c>
@@ -3428,10 +3488,10 @@
       </c>
     </row>
     <row r="65" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="124">
+      <c r="A65" s="139">
         <v>7</v>
       </c>
-      <c r="B65" s="124" t="s">
+      <c r="B65" s="139" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="21" t="s">
@@ -3443,8 +3503,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="125"/>
-      <c r="B66" s="125"/>
+      <c r="A66" s="140"/>
+      <c r="B66" s="140"/>
       <c r="C66" s="21" t="s">
         <v>157</v>
       </c>
@@ -3454,8 +3514,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="125"/>
-      <c r="B67" s="125"/>
+      <c r="A67" s="140"/>
+      <c r="B67" s="140"/>
       <c r="C67" s="21" t="s">
         <v>159</v>
       </c>
@@ -3465,8 +3525,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="125"/>
-      <c r="B68" s="125"/>
+      <c r="A68" s="140"/>
+      <c r="B68" s="140"/>
       <c r="C68" s="21" t="s">
         <v>161</v>
       </c>
@@ -3476,8 +3536,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="125"/>
-      <c r="B69" s="125"/>
+      <c r="A69" s="140"/>
+      <c r="B69" s="140"/>
       <c r="C69" s="21" t="s">
         <v>162</v>
       </c>
@@ -3489,8 +3549,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="125"/>
-      <c r="B70" s="125"/>
+      <c r="A70" s="140"/>
+      <c r="B70" s="140"/>
       <c r="C70" s="21" t="s">
         <v>165</v>
       </c>
@@ -3500,46 +3560,46 @@
       </c>
     </row>
     <row r="71" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="125"/>
-      <c r="B71" s="125"/>
+      <c r="A71" s="140"/>
+      <c r="B71" s="140"/>
       <c r="C71" s="21" t="s">
         <v>166</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="120" t="s">
+      <c r="E71" s="136" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="125"/>
-      <c r="B72" s="125"/>
+      <c r="A72" s="140"/>
+      <c r="B72" s="140"/>
       <c r="C72" s="21" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="22"/>
-      <c r="E72" s="127"/>
+      <c r="E72" s="137"/>
     </row>
     <row r="73" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="125"/>
-      <c r="B73" s="125"/>
+      <c r="A73" s="140"/>
+      <c r="B73" s="140"/>
       <c r="C73" s="21" t="s">
         <v>169</v>
       </c>
       <c r="D73" s="22"/>
-      <c r="E73" s="127"/>
+      <c r="E73" s="137"/>
     </row>
     <row r="74" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="125"/>
-      <c r="B74" s="125"/>
+      <c r="A74" s="140"/>
+      <c r="B74" s="140"/>
       <c r="C74" s="21" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="22"/>
-      <c r="E74" s="121"/>
+      <c r="E74" s="138"/>
     </row>
     <row r="75" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="125"/>
-      <c r="B75" s="125"/>
+      <c r="A75" s="140"/>
+      <c r="B75" s="140"/>
       <c r="C75" s="21" t="s">
         <v>171</v>
       </c>
@@ -3549,30 +3609,30 @@
       </c>
     </row>
     <row r="76" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="125"/>
-      <c r="B76" s="125"/>
+      <c r="A76" s="140"/>
+      <c r="B76" s="140"/>
       <c r="C76" s="21" t="s">
         <v>173</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="120" t="s">
+      <c r="E76" s="136" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="126"/>
-      <c r="B77" s="126"/>
+      <c r="A77" s="141"/>
+      <c r="B77" s="141"/>
       <c r="C77" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D77" s="22"/>
-      <c r="E77" s="121"/>
+      <c r="E77" s="138"/>
     </row>
     <row r="78" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="124">
+      <c r="A78" s="139">
         <v>8</v>
       </c>
-      <c r="B78" s="124" t="s">
+      <c r="B78" s="139" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="21" t="s">
@@ -3584,8 +3644,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="125"/>
-      <c r="B79" s="125"/>
+      <c r="A79" s="140"/>
+      <c r="B79" s="140"/>
       <c r="C79" s="54" t="s">
         <v>178</v>
       </c>
@@ -3595,28 +3655,28 @@
       </c>
     </row>
     <row r="80" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="125"/>
-      <c r="B80" s="125"/>
+      <c r="A80" s="140"/>
+      <c r="B80" s="140"/>
       <c r="C80" s="21" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="22"/>
-      <c r="E80" s="120" t="s">
+      <c r="E80" s="136" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="125"/>
-      <c r="B81" s="125"/>
+      <c r="A81" s="140"/>
+      <c r="B81" s="140"/>
       <c r="C81" s="21" t="s">
         <v>181</v>
       </c>
       <c r="D81" s="22"/>
-      <c r="E81" s="121"/>
+      <c r="E81" s="138"/>
     </row>
     <row r="82" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="125"/>
-      <c r="B82" s="125"/>
+      <c r="A82" s="140"/>
+      <c r="B82" s="140"/>
       <c r="C82" s="21" t="s">
         <v>183</v>
       </c>
@@ -3626,8 +3686,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="125"/>
-      <c r="B83" s="125"/>
+      <c r="A83" s="140"/>
+      <c r="B83" s="140"/>
       <c r="C83" s="21" t="s">
         <v>185</v>
       </c>
@@ -3637,8 +3697,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="125"/>
-      <c r="B84" s="125"/>
+      <c r="A84" s="140"/>
+      <c r="B84" s="140"/>
       <c r="C84" s="21" t="s">
         <v>187</v>
       </c>
@@ -3648,8 +3708,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="125"/>
-      <c r="B85" s="125"/>
+      <c r="A85" s="140"/>
+      <c r="B85" s="140"/>
       <c r="C85" s="21" t="s">
         <v>189</v>
       </c>
@@ -3659,48 +3719,48 @@
       </c>
     </row>
     <row r="86" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="125"/>
-      <c r="B86" s="125"/>
+      <c r="A86" s="140"/>
+      <c r="B86" s="140"/>
       <c r="C86" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D86" s="22"/>
-      <c r="E86" s="120" t="s">
+      <c r="E86" s="136" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="125"/>
-      <c r="B87" s="125"/>
+      <c r="A87" s="140"/>
+      <c r="B87" s="140"/>
       <c r="C87" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D87" s="22"/>
-      <c r="E87" s="121"/>
+      <c r="E87" s="138"/>
     </row>
     <row r="88" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="125"/>
-      <c r="B88" s="125"/>
+      <c r="A88" s="140"/>
+      <c r="B88" s="140"/>
       <c r="C88" s="21" t="s">
         <v>194</v>
       </c>
       <c r="D88" s="22"/>
-      <c r="E88" s="122" t="s">
+      <c r="E88" s="147" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="125"/>
-      <c r="B89" s="125"/>
+      <c r="A89" s="140"/>
+      <c r="B89" s="140"/>
       <c r="C89" s="21" t="s">
         <v>196</v>
       </c>
       <c r="D89" s="22"/>
-      <c r="E89" s="123"/>
+      <c r="E89" s="148"/>
     </row>
     <row r="90" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="125"/>
-      <c r="B90" s="125"/>
+      <c r="A90" s="140"/>
+      <c r="B90" s="140"/>
       <c r="C90" s="21" t="s">
         <v>197</v>
       </c>
@@ -3710,8 +3770,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="125"/>
-      <c r="B91" s="125"/>
+      <c r="A91" s="140"/>
+      <c r="B91" s="140"/>
       <c r="C91" s="21" t="s">
         <v>199</v>
       </c>
@@ -3721,8 +3781,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="126"/>
-      <c r="B92" s="126"/>
+      <c r="A92" s="141"/>
+      <c r="B92" s="141"/>
       <c r="C92" s="21" t="s">
         <v>201</v>
       </c>
@@ -3732,10 +3792,10 @@
       </c>
     </row>
     <row r="93" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="117">
+      <c r="A93" s="144">
         <v>9</v>
       </c>
-      <c r="B93" s="117" t="s">
+      <c r="B93" s="144" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -3747,8 +3807,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="118"/>
-      <c r="B94" s="118"/>
+      <c r="A94" s="145"/>
+      <c r="B94" s="145"/>
       <c r="C94" s="13" t="s">
         <v>204</v>
       </c>
@@ -3758,8 +3818,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="118"/>
-      <c r="B95" s="118"/>
+      <c r="A95" s="145"/>
+      <c r="B95" s="145"/>
       <c r="C95" s="13" t="s">
         <v>205</v>
       </c>
@@ -3769,8 +3829,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="118"/>
-      <c r="B96" s="118"/>
+      <c r="A96" s="145"/>
+      <c r="B96" s="145"/>
       <c r="C96" s="55" t="s">
         <v>206</v>
       </c>
@@ -3780,8 +3840,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="118"/>
-      <c r="B97" s="118"/>
+      <c r="A97" s="145"/>
+      <c r="B97" s="145"/>
       <c r="C97" s="55" t="s">
         <v>211</v>
       </c>
@@ -3793,8 +3853,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="118"/>
-      <c r="B98" s="118"/>
+      <c r="A98" s="145"/>
+      <c r="B98" s="145"/>
       <c r="C98" s="55" t="s">
         <v>214</v>
       </c>
@@ -3804,8 +3864,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="119"/>
-      <c r="B99" s="119"/>
+      <c r="A99" s="146"/>
+      <c r="B99" s="146"/>
       <c r="C99" s="13" t="s">
         <v>216</v>
       </c>
@@ -4019,6 +4079,31 @@
     <row r="162" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B78:B92"/>
+    <mergeCell ref="A78:A92"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="B38:B60"/>
     <mergeCell ref="A38:A60"/>
@@ -4032,31 +4117,6 @@
     <mergeCell ref="A18:A37"/>
     <mergeCell ref="B18:B37"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B78:B92"/>
-    <mergeCell ref="A78:A92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/attck_windows_tech.xlsx
+++ b/attck_windows_tech.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreatHuntingToolBuilding\CheckATTCK\CheckATTCKTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VCS\DetectATTCK\CheckATTCKTools\CheckATTCKTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C367BE2-768F-44B9-81BF-5B018009AE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="285">
   <si>
     <t>ID</t>
   </si>
@@ -908,11 +909,14 @@
   <si>
     <t>check voi cac log khac</t>
   </si>
+  <si>
+    <t>PS Log start với 6 event ID 600 cho các Provider: Registry, Alias, Environment, FileSystem, Function, Variable. Và event id 400 để start và 403 để stop (ko có khi gặp error và sẽ sinh ra event error có đủ trạng thái như log bình thường)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1003,12 +1007,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1028,6 +1026,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,7 +1115,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1275,12 +1279,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1301,113 +1299,250 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1443,157 +1578,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1601,28 +1592,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1940,13 +1925,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="XFC28" sqref="XFC28:XFC29"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1958,7 +1943,7 @@
     <col min="6" max="6" width="76.140625" style="12" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="16382" width="9.140625" hidden="1"/>
-    <col min="16383" max="16383" width="79.28515625" style="87" customWidth="1"/>
+    <col min="16383" max="16383" width="79.28515625" style="80" customWidth="1"/>
     <col min="16384" max="16384" width="9.42578125" hidden="1"/>
   </cols>
   <sheetData>
@@ -1972,500 +1957,503 @@
       <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="XFC1" s="83"/>
-    </row>
-    <row r="2" spans="1:6 16382:16383" s="67" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110">
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="XFC1" s="170"/>
+    </row>
+    <row r="2" spans="1:6 16382:16383" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="129">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="66" t="s">
+      <c r="E2" s="62"/>
+      <c r="F2" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="XFB2" s="81"/>
-    </row>
-    <row r="3" spans="1:6 16382:16383" s="163" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="157" t="s">
+      <c r="XFB2" s="76"/>
+      <c r="XFC2" s="171" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6 16382:16383" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="130"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159" t="s">
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="F3" s="160" t="s">
+      <c r="F3" s="88" t="s">
         <v>270</v>
       </c>
-      <c r="XFB3" s="161"/>
-      <c r="XFC3" s="162" t="s">
+      <c r="XFB3" s="89"/>
+      <c r="XFC3" s="90" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:6 16382:16383" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108">
+    <row r="4" spans="1:6 16382:16383" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="125">
         <v>2</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79" t="s">
+      <c r="E4" s="73"/>
+      <c r="F4" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="XFB4" s="82"/>
-    </row>
-    <row r="5" spans="1:6 16382:16383" s="168" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="77" t="s">
+      <c r="XFB4" s="77"/>
+    </row>
+    <row r="5" spans="1:6 16382:16383" s="96" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="XFB5" s="167"/>
-      <c r="XFC5" s="168" t="s">
+      <c r="XFB5" s="95"/>
+      <c r="XFC5" s="96" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:6 16382:16383" s="166" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104">
+    <row r="6" spans="1:6 16382:16383" s="94" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="119">
         <v>3</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="165" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="XFC6" s="77" t="s">
+      <c r="XFC6" s="72" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:6 16382:16383" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="101" t="s">
+    <row r="7" spans="1:6 16382:16383" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="120"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="XFC7" s="84"/>
-    </row>
-    <row r="8" spans="1:6 16382:16383" s="171" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="169" t="s">
+      <c r="XFC7" s="78"/>
+    </row>
+    <row r="8" spans="1:6 16382:16383" s="99" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="120"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="169"/>
-      <c r="F8" s="170" t="s">
+      <c r="E8" s="97"/>
+      <c r="F8" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="XFC8" s="172"/>
-    </row>
-    <row r="9" spans="1:6 16382:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="101" t="s">
+      <c r="XFC8" s="100"/>
+    </row>
+    <row r="9" spans="1:6 16382:16383" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="120"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="155" t="s">
+      <c r="D9" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="155"/>
-      <c r="F9" s="165" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="XFC9" s="173" t="s">
+      <c r="XFC9" s="101" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:6 16382:16383" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="64" t="s">
+    <row r="10" spans="1:6 16382:16383" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="120"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="68" t="s">
+      <c r="E10" s="62"/>
+      <c r="F10" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="XFC10" s="84"/>
-    </row>
-    <row r="11" spans="1:6 16382:16383" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="105"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="59" t="s">
+      <c r="XFC10" s="78"/>
+    </row>
+    <row r="11" spans="1:6 16382:16383" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="120"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="176" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="102" t="s">
         <v>275</v>
       </c>
-      <c r="XFC11" s="88" t="s">
+      <c r="XFC11" s="177" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:6 16382:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="105"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="150" t="s">
+    <row r="12" spans="1:6 16382:16383" s="174" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="120"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="172" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="150"/>
-      <c r="F12" s="174" t="s">
+      <c r="E12" s="172"/>
+      <c r="F12" s="173" t="s">
         <v>225</v>
       </c>
-      <c r="XFC12" s="173" t="s">
+      <c r="XFC12" s="175" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:6 16382:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="105"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="150" t="s">
+    <row r="13" spans="1:6 16382:16383" s="174" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="150"/>
-      <c r="F13" s="174" t="s">
+      <c r="E13" s="172"/>
+      <c r="F13" s="173" t="s">
         <v>255</v>
       </c>
-      <c r="XFC13" s="173" t="s">
+      <c r="XFC13" s="175" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:6 16382:16383" s="179" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="105"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="175" t="s">
+    <row r="14" spans="1:6 16382:16383" s="107" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="120"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="176"/>
-      <c r="E14" s="177" t="s">
+      <c r="D14" s="104"/>
+      <c r="E14" s="105" t="s">
         <v>265</v>
       </c>
-      <c r="F14" s="178" t="s">
+      <c r="F14" s="106" t="s">
         <v>266</v>
       </c>
-      <c r="XFC14" s="180"/>
-    </row>
-    <row r="15" spans="1:6 16382:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="105"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="101" t="s">
+      <c r="XFC14" s="108"/>
+    </row>
+    <row r="15" spans="1:6 16382:16383" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="120"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="150" t="s">
+      <c r="D15" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="150"/>
-      <c r="F15" s="174" t="s">
+      <c r="E15" s="81"/>
+      <c r="F15" s="102" t="s">
         <v>227</v>
       </c>
-      <c r="XFC15" s="173" t="s">
+      <c r="XFC15" s="101" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:6 16382:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="105"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="150" t="s">
+    <row r="16" spans="1:6 16382:16383" s="174" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="120"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="172" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="150"/>
-      <c r="F16" s="174" t="s">
+      <c r="E16" s="172"/>
+      <c r="F16" s="173" t="s">
         <v>229</v>
       </c>
-      <c r="XFC16" s="173" t="s">
+      <c r="XFC16" s="175" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:6 16383:16383" s="179" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="105"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="176" t="s">
+    <row r="17" spans="1:6 16383:16383" s="107" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="120"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="176"/>
-      <c r="F17" s="178" t="s">
+      <c r="E17" s="104"/>
+      <c r="F17" s="106" t="s">
         <v>263</v>
       </c>
-      <c r="XFC17" s="180"/>
-    </row>
-    <row r="18" spans="1:6 16383:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="105"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="181" t="s">
+      <c r="XFC17" s="108"/>
+    </row>
+    <row r="18" spans="1:6 16383:16383" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="120"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="150" t="s">
+      <c r="D18" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="E18" s="150"/>
-      <c r="F18" s="174" t="s">
+      <c r="E18" s="81"/>
+      <c r="F18" s="102" t="s">
         <v>232</v>
       </c>
-      <c r="XFC18" s="173"/>
-    </row>
-    <row r="19" spans="1:6 16383:16383" s="179" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="182" t="s">
+      <c r="XFC18" s="101"/>
+    </row>
+    <row r="19" spans="1:6 16383:16383" s="107" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="120"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="178" t="s">
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="106" t="s">
         <v>264</v>
       </c>
-      <c r="XFC19" s="180"/>
-    </row>
-    <row r="20" spans="1:6 16383:16383" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="91" t="s">
+      <c r="XFC19" s="108"/>
+    </row>
+    <row r="20" spans="1:6 16383:16383" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="120"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59" t="s">
+      <c r="D20" s="81"/>
+      <c r="E20" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="102" t="s">
         <v>259</v>
       </c>
-      <c r="XFC20" s="85"/>
-    </row>
-    <row r="21" spans="1:6 16383:16383" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="71" t="s">
+      <c r="XFC20" s="101"/>
+    </row>
+    <row r="21" spans="1:6 16383:16383" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="120"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="68" t="s">
+      <c r="E21" s="62"/>
+      <c r="F21" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="XFC21" s="84"/>
-    </row>
-    <row r="22" spans="1:6 16383:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="149" t="s">
+      <c r="XFC21" s="78"/>
+    </row>
+    <row r="22" spans="1:6 16383:16383" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="120"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="127" t="s">
         <v>235</v>
       </c>
-      <c r="D22" s="150" t="s">
+      <c r="D22" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152" t="s">
+      <c r="E22" s="82"/>
+      <c r="F22" s="123" t="s">
         <v>267</v>
       </c>
-      <c r="XFC22" s="149" t="s">
+      <c r="XFC22" s="127" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:6 16383:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="150" t="s">
+    <row r="23" spans="1:6 16383:16383" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="81" t="s">
         <v>238</v>
       </c>
-      <c r="E23" s="155"/>
-      <c r="F23" s="156"/>
-      <c r="XFC23" s="154"/>
-    </row>
-    <row r="24" spans="1:6 16383:16383" s="179" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="175" t="s">
+      <c r="E23" s="84"/>
+      <c r="F23" s="124"/>
+      <c r="XFC23" s="128"/>
+    </row>
+    <row r="24" spans="1:6 16383:16383" s="107" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="176"/>
-      <c r="E24" s="183" t="s">
+      <c r="D24" s="104"/>
+      <c r="E24" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="F24" s="184" t="s">
+      <c r="F24" s="112" t="s">
         <v>252</v>
       </c>
-      <c r="XFC24" s="180"/>
-    </row>
-    <row r="25" spans="1:6 16383:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="97">
+      <c r="XFC24" s="108"/>
+    </row>
+    <row r="25" spans="1:6 16383:16383" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="131">
         <v>4</v>
       </c>
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149" t="s">
+      <c r="C25" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="150" t="s">
+      <c r="D25" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="151"/>
-      <c r="F25" s="152" t="s">
+      <c r="E25" s="82"/>
+      <c r="F25" s="123" t="s">
         <v>240</v>
       </c>
-      <c r="XFC25" s="173"/>
-    </row>
-    <row r="26" spans="1:6 16383:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="185"/>
-      <c r="D26" s="150" t="s">
+      <c r="XFC25" s="101"/>
+    </row>
+    <row r="26" spans="1:6 16383:16383" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="131"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="81" t="s">
         <v>241</v>
       </c>
-      <c r="E26" s="155"/>
-      <c r="F26" s="156"/>
-      <c r="XFC26" s="173"/>
-    </row>
-    <row r="27" spans="1:6 16383:16383" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="150" t="s">
+      <c r="E26" s="84"/>
+      <c r="F26" s="124"/>
+      <c r="XFC26" s="101"/>
+    </row>
+    <row r="27" spans="1:6 16383:16383" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="131"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="186" t="s">
+      <c r="E27" s="81"/>
+      <c r="F27" s="113" t="s">
         <v>243</v>
       </c>
-      <c r="XFC27" s="173"/>
-    </row>
-    <row r="28" spans="1:6 16383:16383" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="93" t="s">
+      <c r="XFC27" s="101"/>
+    </row>
+    <row r="28" spans="1:6 16383:16383" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="131"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="127" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="81" t="s">
         <v>245</v>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="98" t="s">
+      <c r="E28" s="82"/>
+      <c r="F28" s="123" t="s">
         <v>246</v>
       </c>
-      <c r="XFC28" s="95" t="s">
+      <c r="XFC28" s="178" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:6 16383:16383" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="60" t="s">
+    <row r="29" spans="1:6 16383:16383" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="131"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="E29" s="90"/>
-      <c r="F29" s="99"/>
-      <c r="XFC29" s="96"/>
-    </row>
-    <row r="30" spans="1:6 16383:16383" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="60" t="s">
+      <c r="E29" s="179"/>
+      <c r="F29" s="124"/>
+      <c r="XFC29" s="180"/>
+    </row>
+    <row r="30" spans="1:6 16383:16383" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="131"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="E30" s="92"/>
-      <c r="F30" s="98" t="s">
+      <c r="E30" s="181"/>
+      <c r="F30" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="XFC30" s="93" t="s">
+      <c r="XFC30" s="127" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:6 16383:16383" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="97"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="60" t="s">
+    <row r="31" spans="1:6 16383:16383" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="131"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="E31" s="90"/>
-      <c r="F31" s="99"/>
-      <c r="XFC31" s="94"/>
-    </row>
-    <row r="32" spans="1:6 16383:16383" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="72">
+      <c r="E31" s="179"/>
+      <c r="F31" s="124"/>
+      <c r="XFC31" s="128"/>
+    </row>
+    <row r="32" spans="1:6 16383:16383" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="68">
         <v>5</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73" t="s">
+      <c r="C32" s="71"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="XFC32" s="86"/>
-    </row>
-    <row r="33" spans="1:6 16383:16383" s="179" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="187">
+      <c r="XFC32" s="79"/>
+    </row>
+    <row r="33" spans="1:6 16383:16383" s="107" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="114">
         <v>5</v>
       </c>
-      <c r="B33" s="187" t="s">
+      <c r="B33" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="188" t="s">
+      <c r="C33" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="187" t="s">
+      <c r="D33" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="187"/>
-      <c r="F33" s="178" t="s">
+      <c r="E33" s="114"/>
+      <c r="F33" s="106" t="s">
         <v>279</v>
       </c>
-      <c r="XFC33" s="188"/>
+      <c r="XFC33" s="115"/>
     </row>
     <row r="34" spans="1:6 16383:16383" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
@@ -2688,6 +2676,16 @@
     <row r="84" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="XFC22:XFC23"/>
+    <mergeCell ref="XFC30:XFC31"/>
+    <mergeCell ref="XFC28:XFC29"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C28:C31"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B6:B24"/>
@@ -2700,21 +2698,11 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="XFC22:XFC23"/>
-    <mergeCell ref="XFC30:XFC31"/>
-    <mergeCell ref="XFC28:XFC29"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E14" r:id="rId2"/>
-    <hyperlink ref="E11" r:id="rId3" display="https://www.howtogeek.com/220204/how-to-track-firewall-activity-with-the-windows-firewall-log/"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E11" r:id="rId3" display="https://www.howtogeek.com/220204/how-to-track-firewall-activity-with-the-windows-firewall-log/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2722,7 +2710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFC162"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2753,59 +2741,59 @@
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="107"/>
+      <c r="E1" s="122"/>
     </row>
     <row r="2" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108">
+      <c r="A2" s="125">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="147" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="126" t="s">
+      <c r="E2" s="151" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="133"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="157"/>
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="127"/>
+      <c r="E3" s="152"/>
     </row>
     <row r="4" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="135"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="133"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="157"/>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="127"/>
+      <c r="E4" s="152"/>
     </row>
     <row r="5" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="134"/>
+      <c r="A5" s="146"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="148"/>
       <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="128"/>
+      <c r="E5" s="153"/>
     </row>
     <row r="6" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="132" t="s">
+      <c r="A6" s="146"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="147" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2816,9 +2804,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="134"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="148"/>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2827,8 +2815,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="135"/>
-      <c r="B8" s="135"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="37" t="s">
         <v>27</v>
       </c>
@@ -2838,8 +2826,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
-      <c r="B9" s="135"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="37" t="s">
         <v>31</v>
       </c>
@@ -2849,8 +2837,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="135"/>
-      <c r="B10" s="135"/>
+      <c r="A10" s="146"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="37" t="s">
         <v>32</v>
       </c>
@@ -2860,8 +2848,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="135"/>
-      <c r="B11" s="135"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="37" t="s">
         <v>34</v>
       </c>
@@ -2871,10 +2859,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
+      <c r="A12" s="125">
         <v>2</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="125" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -2888,48 +2876,48 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="129" t="s">
+      <c r="A13" s="146"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="154" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="126" t="s">
+      <c r="E13" s="151" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="135"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="130"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="155"/>
       <c r="D14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="127"/>
+      <c r="E14" s="152"/>
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="130"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="127"/>
+      <c r="E15" s="152"/>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="135"/>
-      <c r="B16" s="135"/>
-      <c r="C16" s="131"/>
+      <c r="A16" s="146"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="156"/>
       <c r="D16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="128"/>
+      <c r="E16" s="153"/>
     </row>
     <row r="17" spans="1:5" s="41" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
-      <c r="B17" s="109"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="39" t="s">
         <v>46</v>
       </c>
@@ -2939,10 +2927,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="104">
+      <c r="A18" s="119">
         <v>3</v>
       </c>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="119" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -2954,8 +2942,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
+      <c r="A19" s="120"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -2965,8 +2953,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="120"/>
+      <c r="B20" s="120"/>
       <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
@@ -2978,9 +2966,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="124"/>
+      <c r="A21" s="120"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="158"/>
       <c r="D21" s="16" t="s">
         <v>57</v>
       </c>
@@ -2989,9 +2977,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="125"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="150"/>
       <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
@@ -3000,9 +2988,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="123" t="s">
+      <c r="A23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="149" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -3013,9 +3001,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="125"/>
+      <c r="A24" s="120"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="150"/>
       <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
@@ -3024,50 +3012,50 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="105"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="123" t="s">
+      <c r="A25" s="120"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="149" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="118" t="s">
+      <c r="E25" s="165" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="124"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="158"/>
       <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="119"/>
+      <c r="E26" s="166"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="105"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="124"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="158"/>
       <c r="D27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="118" t="s">
+      <c r="E27" s="165" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="105"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="125"/>
+      <c r="A28" s="120"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="150"/>
       <c r="D28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="119"/>
+      <c r="E28" s="166"/>
     </row>
     <row r="29" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="105"/>
-      <c r="B29" s="105"/>
+      <c r="A29" s="120"/>
+      <c r="B29" s="120"/>
       <c r="C29" s="7" t="s">
         <v>76</v>
       </c>
@@ -3077,8 +3065,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="105"/>
-      <c r="B30" s="105"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="36" t="s">
         <v>79</v>
       </c>
@@ -3088,9 +3076,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="105"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="123" t="s">
+      <c r="A31" s="120"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="149" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -3101,9 +3089,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="124"/>
+      <c r="A32" s="120"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="158"/>
       <c r="D32" s="6" t="s">
         <v>83</v>
       </c>
@@ -3112,9 +3100,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="124"/>
+      <c r="A33" s="120"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="158"/>
       <c r="D33" s="6" t="s">
         <v>85</v>
       </c>
@@ -3123,9 +3111,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="125"/>
+      <c r="A34" s="120"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="150"/>
       <c r="D34" s="6" t="s">
         <v>87</v>
       </c>
@@ -3134,8 +3122,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
+      <c r="A35" s="120"/>
+      <c r="B35" s="120"/>
       <c r="C35" s="7" t="s">
         <v>89</v>
       </c>
@@ -3145,8 +3133,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="105"/>
-      <c r="B36" s="105"/>
+      <c r="A36" s="120"/>
+      <c r="B36" s="120"/>
       <c r="C36" s="7" t="s">
         <v>91</v>
       </c>
@@ -3158,8 +3146,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="105"/>
-      <c r="B37" s="105"/>
+      <c r="A37" s="120"/>
+      <c r="B37" s="120"/>
       <c r="C37" s="36" t="s">
         <v>94</v>
       </c>
@@ -3169,10 +3157,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="115">
+      <c r="A38" s="162">
         <v>4</v>
       </c>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="162" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="43" t="s">
@@ -3186,9 +3174,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="116"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="120" t="s">
+      <c r="A39" s="163"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="167" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -3199,9 +3187,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="121"/>
+      <c r="A40" s="163"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="168"/>
       <c r="D40" s="42" t="s">
         <v>101</v>
       </c>
@@ -3210,9 +3198,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="116"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="122"/>
+      <c r="A41" s="163"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="169"/>
       <c r="D41" s="42" t="s">
         <v>103</v>
       </c>
@@ -3221,8 +3209,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="116"/>
-      <c r="B42" s="116"/>
+      <c r="A42" s="163"/>
+      <c r="B42" s="163"/>
       <c r="C42" s="20" t="s">
         <v>105</v>
       </c>
@@ -3232,9 +3220,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="116"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="112" t="s">
+      <c r="A43" s="163"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="159" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -3245,9 +3233,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="116"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="114"/>
+      <c r="A44" s="163"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="161"/>
       <c r="D44" s="30" t="s">
         <v>110</v>
       </c>
@@ -3256,9 +3244,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="116"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="112" t="s">
+      <c r="A45" s="163"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="159" t="s">
         <v>112</v>
       </c>
       <c r="D45" s="30" t="s">
@@ -3269,9 +3257,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="116"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="113"/>
+      <c r="A46" s="163"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="160"/>
       <c r="D46" s="30" t="s">
         <v>116</v>
       </c>
@@ -3280,9 +3268,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="116"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="113"/>
+      <c r="A47" s="163"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="160"/>
       <c r="D47" s="30" t="s">
         <v>118</v>
       </c>
@@ -3291,9 +3279,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="116"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="114"/>
+      <c r="A48" s="163"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="161"/>
       <c r="D48" s="30" t="s">
         <v>120</v>
       </c>
@@ -3302,9 +3290,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="116"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="112" t="s">
+      <c r="A49" s="163"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="159" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="46" t="s">
@@ -3315,9 +3303,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="116"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="114"/>
+      <c r="A50" s="163"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="161"/>
       <c r="D50" s="46" t="s">
         <v>124</v>
       </c>
@@ -3326,8 +3314,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="116"/>
-      <c r="B51" s="116"/>
+      <c r="A51" s="163"/>
+      <c r="B51" s="163"/>
       <c r="C51" s="48" t="s">
         <v>126</v>
       </c>
@@ -3337,9 +3325,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="116"/>
-      <c r="B52" s="116"/>
-      <c r="C52" s="112" t="s">
+      <c r="A52" s="163"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="159" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="30" t="s">
@@ -3350,9 +3338,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="116"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="113"/>
+      <c r="A53" s="163"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="160"/>
       <c r="D53" s="30" t="s">
         <v>130</v>
       </c>
@@ -3361,9 +3349,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="116"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="113"/>
+      <c r="A54" s="163"/>
+      <c r="B54" s="163"/>
+      <c r="C54" s="160"/>
       <c r="D54" s="30" t="s">
         <v>132</v>
       </c>
@@ -3372,9 +3360,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="116"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="113"/>
+      <c r="A55" s="163"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="160"/>
       <c r="D55" s="30" t="s">
         <v>134</v>
       </c>
@@ -3383,9 +3371,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="116"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="113"/>
+      <c r="A56" s="163"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="160"/>
       <c r="D56" s="30" t="s">
         <v>136</v>
       </c>
@@ -3394,9 +3382,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="116"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="114"/>
+      <c r="A57" s="163"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="161"/>
       <c r="D57" s="30" t="s">
         <v>138</v>
       </c>
@@ -3405,8 +3393,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="116"/>
-      <c r="B58" s="116"/>
+      <c r="A58" s="163"/>
+      <c r="B58" s="163"/>
       <c r="C58" s="48" t="s">
         <v>140</v>
       </c>
@@ -3416,8 +3404,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="116"/>
-      <c r="B59" s="116"/>
+      <c r="A59" s="163"/>
+      <c r="B59" s="163"/>
       <c r="C59" s="47" t="s">
         <v>142</v>
       </c>
@@ -3427,8 +3415,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="117"/>
-      <c r="B60" s="117"/>
+      <c r="A60" s="164"/>
+      <c r="B60" s="164"/>
       <c r="C60" s="48" t="s">
         <v>144</v>
       </c>
@@ -3438,10 +3426,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="142">
+      <c r="A61" s="144">
         <v>6</v>
       </c>
-      <c r="B61" s="142" t="s">
+      <c r="B61" s="144" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="26" t="s">
@@ -3453,8 +3441,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="143"/>
-      <c r="B62" s="143"/>
+      <c r="A62" s="145"/>
+      <c r="B62" s="145"/>
       <c r="C62" s="26" t="s">
         <v>148</v>
       </c>
@@ -3464,8 +3452,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="143"/>
-      <c r="B63" s="143"/>
+      <c r="A63" s="145"/>
+      <c r="B63" s="145"/>
       <c r="C63" s="26" t="s">
         <v>150</v>
       </c>
@@ -3477,8 +3465,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="143"/>
-      <c r="B64" s="143"/>
+      <c r="A64" s="145"/>
+      <c r="B64" s="145"/>
       <c r="C64" s="26" t="s">
         <v>154</v>
       </c>
@@ -3488,10 +3476,10 @@
       </c>
     </row>
     <row r="65" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="139">
+      <c r="A65" s="140">
         <v>7</v>
       </c>
-      <c r="B65" s="139" t="s">
+      <c r="B65" s="140" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="21" t="s">
@@ -3503,8 +3491,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="140"/>
-      <c r="B66" s="140"/>
+      <c r="A66" s="141"/>
+      <c r="B66" s="141"/>
       <c r="C66" s="21" t="s">
         <v>157</v>
       </c>
@@ -3514,8 +3502,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="140"/>
-      <c r="B67" s="140"/>
+      <c r="A67" s="141"/>
+      <c r="B67" s="141"/>
       <c r="C67" s="21" t="s">
         <v>159</v>
       </c>
@@ -3525,8 +3513,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="140"/>
-      <c r="B68" s="140"/>
+      <c r="A68" s="141"/>
+      <c r="B68" s="141"/>
       <c r="C68" s="21" t="s">
         <v>161</v>
       </c>
@@ -3536,8 +3524,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="140"/>
-      <c r="B69" s="140"/>
+      <c r="A69" s="141"/>
+      <c r="B69" s="141"/>
       <c r="C69" s="21" t="s">
         <v>162</v>
       </c>
@@ -3549,8 +3537,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="140"/>
-      <c r="B70" s="140"/>
+      <c r="A70" s="141"/>
+      <c r="B70" s="141"/>
       <c r="C70" s="21" t="s">
         <v>165</v>
       </c>
@@ -3560,8 +3548,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="140"/>
-      <c r="B71" s="140"/>
+      <c r="A71" s="141"/>
+      <c r="B71" s="141"/>
       <c r="C71" s="21" t="s">
         <v>166</v>
       </c>
@@ -3571,35 +3559,35 @@
       </c>
     </row>
     <row r="72" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="140"/>
-      <c r="B72" s="140"/>
+      <c r="A72" s="141"/>
+      <c r="B72" s="141"/>
       <c r="C72" s="21" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="22"/>
-      <c r="E72" s="137"/>
+      <c r="E72" s="143"/>
     </row>
     <row r="73" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="140"/>
-      <c r="B73" s="140"/>
+      <c r="A73" s="141"/>
+      <c r="B73" s="141"/>
       <c r="C73" s="21" t="s">
         <v>169</v>
       </c>
       <c r="D73" s="22"/>
-      <c r="E73" s="137"/>
+      <c r="E73" s="143"/>
     </row>
     <row r="74" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="140"/>
-      <c r="B74" s="140"/>
+      <c r="A74" s="141"/>
+      <c r="B74" s="141"/>
       <c r="C74" s="21" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="22"/>
-      <c r="E74" s="138"/>
+      <c r="E74" s="137"/>
     </row>
     <row r="75" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="140"/>
-      <c r="B75" s="140"/>
+      <c r="A75" s="141"/>
+      <c r="B75" s="141"/>
       <c r="C75" s="21" t="s">
         <v>171</v>
       </c>
@@ -3609,8 +3597,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="140"/>
-      <c r="B76" s="140"/>
+      <c r="A76" s="141"/>
+      <c r="B76" s="141"/>
       <c r="C76" s="21" t="s">
         <v>173</v>
       </c>
@@ -3620,19 +3608,19 @@
       </c>
     </row>
     <row r="77" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="141"/>
-      <c r="B77" s="141"/>
+      <c r="A77" s="142"/>
+      <c r="B77" s="142"/>
       <c r="C77" s="21" t="s">
         <v>175</v>
       </c>
       <c r="D77" s="22"/>
-      <c r="E77" s="138"/>
+      <c r="E77" s="137"/>
     </row>
     <row r="78" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="139">
+      <c r="A78" s="140">
         <v>8</v>
       </c>
-      <c r="B78" s="139" t="s">
+      <c r="B78" s="140" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="21" t="s">
@@ -3644,8 +3632,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="140"/>
-      <c r="B79" s="140"/>
+      <c r="A79" s="141"/>
+      <c r="B79" s="141"/>
       <c r="C79" s="54" t="s">
         <v>178</v>
       </c>
@@ -3655,8 +3643,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="140"/>
-      <c r="B80" s="140"/>
+      <c r="A80" s="141"/>
+      <c r="B80" s="141"/>
       <c r="C80" s="21" t="s">
         <v>180</v>
       </c>
@@ -3666,17 +3654,17 @@
       </c>
     </row>
     <row r="81" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="140"/>
-      <c r="B81" s="140"/>
+      <c r="A81" s="141"/>
+      <c r="B81" s="141"/>
       <c r="C81" s="21" t="s">
         <v>181</v>
       </c>
       <c r="D81" s="22"/>
-      <c r="E81" s="138"/>
+      <c r="E81" s="137"/>
     </row>
     <row r="82" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="140"/>
-      <c r="B82" s="140"/>
+      <c r="A82" s="141"/>
+      <c r="B82" s="141"/>
       <c r="C82" s="21" t="s">
         <v>183</v>
       </c>
@@ -3686,8 +3674,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="140"/>
-      <c r="B83" s="140"/>
+      <c r="A83" s="141"/>
+      <c r="B83" s="141"/>
       <c r="C83" s="21" t="s">
         <v>185</v>
       </c>
@@ -3697,8 +3685,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="140"/>
-      <c r="B84" s="140"/>
+      <c r="A84" s="141"/>
+      <c r="B84" s="141"/>
       <c r="C84" s="21" t="s">
         <v>187</v>
       </c>
@@ -3708,8 +3696,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="140"/>
-      <c r="B85" s="140"/>
+      <c r="A85" s="141"/>
+      <c r="B85" s="141"/>
       <c r="C85" s="21" t="s">
         <v>189</v>
       </c>
@@ -3719,8 +3707,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="140"/>
-      <c r="B86" s="140"/>
+      <c r="A86" s="141"/>
+      <c r="B86" s="141"/>
       <c r="C86" s="21" t="s">
         <v>191</v>
       </c>
@@ -3730,37 +3718,37 @@
       </c>
     </row>
     <row r="87" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="140"/>
-      <c r="B87" s="140"/>
+      <c r="A87" s="141"/>
+      <c r="B87" s="141"/>
       <c r="C87" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D87" s="22"/>
-      <c r="E87" s="138"/>
+      <c r="E87" s="137"/>
     </row>
     <row r="88" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="140"/>
-      <c r="B88" s="140"/>
+      <c r="A88" s="141"/>
+      <c r="B88" s="141"/>
       <c r="C88" s="21" t="s">
         <v>194</v>
       </c>
       <c r="D88" s="22"/>
-      <c r="E88" s="147" t="s">
+      <c r="E88" s="138" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="140"/>
-      <c r="B89" s="140"/>
+      <c r="A89" s="141"/>
+      <c r="B89" s="141"/>
       <c r="C89" s="21" t="s">
         <v>196</v>
       </c>
       <c r="D89" s="22"/>
-      <c r="E89" s="148"/>
+      <c r="E89" s="139"/>
     </row>
     <row r="90" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="140"/>
-      <c r="B90" s="140"/>
+      <c r="A90" s="141"/>
+      <c r="B90" s="141"/>
       <c r="C90" s="21" t="s">
         <v>197</v>
       </c>
@@ -3770,8 +3758,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="140"/>
-      <c r="B91" s="140"/>
+      <c r="A91" s="141"/>
+      <c r="B91" s="141"/>
       <c r="C91" s="21" t="s">
         <v>199</v>
       </c>
@@ -3781,8 +3769,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="141"/>
-      <c r="B92" s="141"/>
+      <c r="A92" s="142"/>
+      <c r="B92" s="142"/>
       <c r="C92" s="21" t="s">
         <v>201</v>
       </c>
@@ -3792,10 +3780,10 @@
       </c>
     </row>
     <row r="93" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="144">
+      <c r="A93" s="133">
         <v>9</v>
       </c>
-      <c r="B93" s="144" t="s">
+      <c r="B93" s="133" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -3807,8 +3795,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="145"/>
-      <c r="B94" s="145"/>
+      <c r="A94" s="134"/>
+      <c r="B94" s="134"/>
       <c r="C94" s="13" t="s">
         <v>204</v>
       </c>
@@ -3818,8 +3806,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="145"/>
-      <c r="B95" s="145"/>
+      <c r="A95" s="134"/>
+      <c r="B95" s="134"/>
       <c r="C95" s="13" t="s">
         <v>205</v>
       </c>
@@ -3829,8 +3817,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="145"/>
-      <c r="B96" s="145"/>
+      <c r="A96" s="134"/>
+      <c r="B96" s="134"/>
       <c r="C96" s="55" t="s">
         <v>206</v>
       </c>
@@ -3840,8 +3828,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="145"/>
-      <c r="B97" s="145"/>
+      <c r="A97" s="134"/>
+      <c r="B97" s="134"/>
       <c r="C97" s="55" t="s">
         <v>211</v>
       </c>
@@ -3853,8 +3841,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="145"/>
-      <c r="B98" s="145"/>
+      <c r="A98" s="134"/>
+      <c r="B98" s="134"/>
       <c r="C98" s="55" t="s">
         <v>214</v>
       </c>
@@ -3864,8 +3852,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="146"/>
-      <c r="B99" s="146"/>
+      <c r="A99" s="135"/>
+      <c r="B99" s="135"/>
       <c r="C99" s="13" t="s">
         <v>216</v>
       </c>
@@ -4079,31 +4067,6 @@
     <row r="162" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B78:B92"/>
-    <mergeCell ref="A78:A92"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C52:C57"/>
     <mergeCell ref="B38:B60"/>
     <mergeCell ref="A38:A60"/>
@@ -4117,6 +4080,31 @@
     <mergeCell ref="A18:A37"/>
     <mergeCell ref="B18:B37"/>
     <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B78:B92"/>
+    <mergeCell ref="A78:A92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
